--- a/inst/PhenotypeLog.xlsx
+++ b/inst/PhenotypeLog.xlsx
@@ -15,14 +15,14 @@
     <sheet name="PhenotypeLog" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PhenotypeLog!$A$1:$J$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PhenotypeLog!$A$1:$J$163</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="302">
   <si>
     <t>cohortId</t>
   </si>
@@ -764,8 +764,8 @@
   <si>
     <t>Status: Pending peer review.
 Contributor: Gowtham A. Rao
-Forum post: 
-Logic: all events of acquired pure red cell aplasia indexed on anemia or pure red cell aplasia, with no congenital or genetic anemia, and no erroneous measurements such as normal hemoglobin or hematocrit. Persons should not have constitutional aplasia as it represents congenital form of aplasia and should not have bone marrow transplantation.</t>
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-acquired-pure-red-cell-aplasia/17854
+Logic: earliest of acquired pure red cell aplasia indexed on anemia, with no congenital or genetic anemia or constitutional apalsia, and no erroneous measurements such as normal hemoglobin or hematocrit. Persons should not have constitutional aplasia as it represents congenital form of aplasia and should not have bone marrow transplantation.</t>
   </si>
   <si>
     <t>[P] Neutropenic Fever (3Pe, 30Era)</t>
@@ -777,21 +777,21 @@
 Logic: all events of febrile neutropenia or fever with neutropenia or infection with neutropenia in an inpatient or emergency room setting</t>
   </si>
   <si>
-    <t>[P] Hemolytic Anemia, Extra corpuscular Acquired - G6PD deficiency excluded (7Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>[P] Hemolytic Anemia Extra corpuscular ex hgpathy, memb defect, g6pd (7Pe, 0Era, 365W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-hemolytic-anemia/17856
 Logic: all events of hemolytic anemia, indexed on anemia or hemolysis, without congenital or hereditary causes of hemolytic anemia of membrane, enzyme or RBC structure.</t>
   </si>
   <si>
-    <t>[P] Hemolytic Anemia, Extra corpuscular Acquired (7Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>[P] Hemolytic Anemia Extra corpuscular ex hgpathy, memb defect (7Pe, 0Era, 365W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-hemolytic-anemia/17856
 Logic: all events of hemolytic anemia, indexed on anemia or hemolysis, without congenital or hereditary causes of hemolytic anemia of membrane, or RBC structure. Persons with enzyme disorder (e.g. G-6-PD deficiency) are not excluded.</t>
   </si>
   <si>
@@ -996,10 +996,10 @@
     <t>[P] Appendicitis (1Pe, 0Era, 365W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: events of appendicitis with an inpatient or ER visit with no events in 365 days clean window. No history of appendectomy.</t>
+    <t xml:space="preserve">Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
+Logic: events of appendicitis with an inpatient or ER visit with no events in 365 days clean window. </t>
   </si>
   <si>
     <t>[P] Guillain Barre syndrome (180Pe, FP)</t>
@@ -1280,6 +1280,18 @@
 Contributor: Gowtham A. Rao
 Forum post: 
 Logic: Acute Kidney Injury (AKI) indexed on a diagnosis of Acute kidney injury  or a Dialysis procedure at a medicare certified esrd facility for acute kidney injury without esrd, excluding events/patients with 1. a diagnosis of End-Stage Kidney Disease in the 365 days before AKI occurrence 2. patients receiving chronic dialysis defined as more than 3 recorded events of dialysis in 365 days before AKI occurrence 3.  kidney Transplant any time prior ; applying a washout period of 30 days between observed events. patients exit the cohort 7 days post index.  </t>
+  </si>
+  <si>
+    <t>[P] Hemolytic Anemia (7Pe, 0Era, 365W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-hemolytic-anemia/17856
+Logic: all events of hemolytic anemia, indexed on anemia or hemolysis.</t>
+  </si>
+  <si>
+    <t>[P] Hemolytic Anemia Intra corpuscular (FP)</t>
   </si>
 </sst>
 </file>
@@ -2090,15 +2102,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J161"/>
+  <dimension ref="A1:J163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4862,8 +4875,42 @@
         <v>298</v>
       </c>
     </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>270</v>
+      </c>
+      <c r="B162" t="s">
+        <v>299</v>
+      </c>
+      <c r="C162" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" s="1">
+        <v>44895</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>271</v>
+      </c>
+      <c r="B163" t="s">
+        <v>301</v>
+      </c>
+      <c r="C163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="1">
+        <v>44895</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J161"/>
+  <autoFilter ref="A1:J163"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/PhenotypeLog.xlsx
+++ b/inst/PhenotypeLog.xlsx
@@ -14,22 +14,16 @@
   <sheets>
     <sheet name="PhenotypeLog" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PhenotypeLog!$A$1:$J$163</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="301">
   <si>
     <t>cohortId</t>
   </si>
   <si>
-    <t>cohortName</t>
-  </si>
-  <si>
     <t>getResults</t>
   </si>
   <si>
@@ -63,118 +57,117 @@
     <t>Withdrawn by contributor before peer review</t>
   </si>
   <si>
-    <t>[P] Cough (3Ps, 30Era)</t>
-  </si>
-  <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: 
-Forum: 
-Logic: All events of cough or sputum.</t>
+    <t>[P] Cough or Sputum (3Ps, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: All events of cough or sputum finding.</t>
   </si>
   <si>
     <t>[P] Diarrhea (7Ps, 30Era)</t>
   </si>
   <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: 
-Forum: 
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of diarrhea.</t>
   </si>
   <si>
-    <t>[P] Dyspnea (14Pe, 30Era)</t>
-  </si>
-  <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: 
-Forum: 
+    <t>[P] Dyspnea (7Pe, 90Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of dyspnea.</t>
   </si>
   <si>
     <t>[P] Fever (3Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: 
-Forum: 
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of fever or elevated temperature measurement.</t>
   </si>
   <si>
-    <t>[P] Headache, Migraine or related Neurologic pain (7Pe, 30Era)</t>
-  </si>
-  <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: 
-Forum: 
-Logic: All events of Headache, migraine or related neurologic pain</t>
-  </si>
-  <si>
-    <t>[P] Anosmia OR Hyposmia OR Dysgeusia (7Ps, 180Era)</t>
-  </si>
-  <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: 
-Forum: 
-Logic: All events of Anosmia OR Hyposmia OR Dysgeusia</t>
+    <t>[P] Headache or Headache disorder (7Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: All events of Headache or headache disorder</t>
+  </si>
+  <si>
+    <t>[P] Altered smell or taste including Anosmia, Hyposmia or Dysgeusia (7Ps, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: Altered smell or taste including Anosmia, Hyposmia or Dysgeusia</t>
   </si>
   <si>
     <t>[P] Sore throat (7Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: 
-Forum: 
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of Sore throat</t>
   </si>
   <si>
-    <t>[P] Nausea or Vomiting (3Pe, 30Era)</t>
-  </si>
-  <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: 
-Forum: 
-Logic: All events of Nausea or vomiting</t>
-  </si>
-  <si>
-    <t>[P] Malaise or fatigue (3P, 30Era)</t>
-  </si>
-  <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: 
-Forum: 
+    <t>[P] Malaise and or fatigue (3P, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of Malaise and or fatigue</t>
   </si>
   <si>
     <t>[P] Rhinitis or common cold (7P, 30Era)</t>
   </si>
   <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: 
-Forum: 
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of Rhinitis or common cold</t>
   </si>
   <si>
-    <t>[P] Myalgia (not explained by injury, ischemia or systemic inflammation) (3Pe, 30Era)</t>
-  </si>
-  <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: Gowtham A Rao
-Forum: 
-Logic: All events of Myalgia. Exclude persons with secondary causes of myalgia.</t>
+    <t>[P] Myalgia (not explained by injury, ischemia or systemic inflammation) (3Pe, 0Era, 30W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: All events of Myalgia. Exclude persons with secondary causes of myalgia explained by injury, ischemia or chronic systemic inflammation.</t>
   </si>
   <si>
     <t>[P] Myalgia (3Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: 
-Forum: 
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of Myalgia.</t>
   </si>
   <si>
     <t>[W] Exposure to Viral Disease (7Pe, 30Era)</t>
-  </si>
-  <si>
-    <t>[W] Exposure to SARS-Cov 2 and coronavirus (7Pe, 30Era)</t>
   </si>
   <si>
     <t>[W] Exposure to SARS-Cov 2 (7Pe, 30Era)</t>
@@ -198,12 +191,13 @@
 Logic: All events of Acute Typical Pneumonia</t>
   </si>
   <si>
-    <t>[P] Bronchitis (14Pe, 90Era)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum: 
+    <t>[P] Bronchitis (14Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Signs
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of Bronchitis</t>
   </si>
   <si>
@@ -249,9 +243,6 @@
 Logic: Earliest observation of any death</t>
   </si>
   <si>
-    <t>[P] Asthma or Chronic obstructive pulmonary disease (COPD) (FP)</t>
-  </si>
-  <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum: 
@@ -267,9 +258,6 @@
 Logic: Earliest of either asthma diagnosis or therapy for asthma with a history of another asthma therapy more than 180 days before. The person should not have a diagnosis or treatment for COPD in past.</t>
   </si>
   <si>
-    <t>[P] Chronic obstructive pulmonary disease (COPD) without asthma (FP)</t>
-  </si>
-  <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum: 
@@ -291,21 +279,13 @@
 Logic: Earliest event of tuberculosis with at least 3 different drugs for tuberculosis at anytime on or after diagnosis</t>
   </si>
   <si>
-    <t>[P] Malignant neoplasm excluding non-melanoma skin cancer (FP)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum: 
-Logic: Persons with a malignant neoplastic disease or history of malignant neoplastic disease.</t>
-  </si>
-  <si>
     <t>[P] Obesity (FP)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
-Contributor: 
-Forum: 
+hashTag: #Signs
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: Persons with obesity diagnosis or a body weight measurement &gt; 120 kg or 265 lbs</t>
   </si>
   <si>
@@ -351,15 +331,6 @@
     <t>[P] Heart disease (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum: 
-Logic: Earliest of any Heart disease or arteriosclerosis of coronary artery bypass graft.</t>
-  </si>
-  <si>
-    <t>[W] End stage renal disease (FP)</t>
-  </si>
-  <si>
     <t>[P] Diabetes Mellitus Type 2 (FP)</t>
   </si>
   <si>
@@ -372,18 +343,6 @@
     <t>[W] Chronic kidney disease broad (FP)</t>
   </si>
   <si>
-    <t>[W] End stage renal disease broad (FP)</t>
-  </si>
-  <si>
-    <t>[P] Respiratory or pulmonary tuberculosis (FP)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum: 
-Logic: Earliest occurrence of respiratory or pulmonary tuberculosis</t>
-  </si>
-  <si>
     <t>[W] COVID-19 diagnosis (3Pe, 7Era)</t>
   </si>
   <si>
@@ -418,8 +377,9 @@
   </si>
   <si>
     <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum: 
+hashTag: #Signs
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of Febrile seizures with no febrile seizure in the 42days washout period, indexed on seizure or febrile seizure.</t>
   </si>
   <si>
@@ -439,8 +399,9 @@
   </si>
   <si>
     <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum: 
+hashTag: #Signs
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of Bleeding diagnosis with no bleeding in past 30 days.</t>
   </si>
   <si>
@@ -466,260 +427,219 @@
   </si>
   <si>
     <t>Status: Pending peer review.
+hashTag: #Signs
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: All events of seizure with no seizure events in the prior 42 days clean window</t>
+  </si>
+  <si>
+    <t>Transverse myelitis or symptoms (1Ps, 0Era, 365W)</t>
+  </si>
+  <si>
+    <t>[P] Flu-like symptoms fever, cough, malaise, fatigue, dyspnea, myalgia (3Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms, #Signs
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: All events of flue like symptoms or signs</t>
+  </si>
+  <si>
+    <t>[W] Acute pancreatitis with inpatient admission (3Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Withdrawn and  replaced by 205</t>
+  </si>
+  <si>
+    <t>[W] Hepatic failure with inpatient admission (3Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>[W] Heart failure with inpatient admission (3Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>[W] Angioedema with inpatient admission (7Ps, 30Era)</t>
+  </si>
+  <si>
+    <t>[P] Stroke (ischemic or hemorrhagic) with inpatient admission (7Ps, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
 Contributor: 
-Forum: 
-Logic: All events of seizure with no seizure events in the prior 42 days clean window</t>
-  </si>
-  <si>
-    <t>[P] Transverse myelitis or symptoms (1Ps, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-transverse-myelitis/17769
-Logic: events with a diagnosis of transverse myelitis indexed on diagnosis of transverse myelitis, related spinal disease or symptoms of transverse myelitis, followed by a diagnosis of transverse myelitis within 30 days. Events have a 365 days washout period. The events persist for 1 day. Symptoms of Transverse Myelitis included asthenia, muscle weakness, myelitis, paresthesia.</t>
-  </si>
-  <si>
-    <t>[W] Flu-like symptoms fever, cough, malaise, fatigue, dyspnea, myalgia (3P, 30Era)</t>
-  </si>
-  <si>
-    <t>[W] Acute pancreatitis with inpatient admission (3Pe, 30Era)</t>
-  </si>
-  <si>
-    <t>Withdrawn and  replaced by 205</t>
-  </si>
-  <si>
-    <t>[W] Acute renal failure with inpatient admission (3Pe, 30Era)</t>
-  </si>
-  <si>
-    <t>[W] Hepatic failure with inpatient admission (3Pe, 30Era)</t>
-  </si>
-  <si>
-    <t>[W] Heart failure with inpatient admission (3Pe, 30Era)</t>
-  </si>
-  <si>
-    <t>[W] Angioedema with inpatient admission (7Ps, 30Era)</t>
-  </si>
-  <si>
-    <t>[P] Stroke (ischemic or hemorrhagic) with inpatient admission (7Ps, 30Era)</t>
+Forum post: 
+Logic: all events of ischemic or hemorrhagic stroke in an inpatient or ER visit.</t>
+  </si>
+  <si>
+    <t>[P] Acute myocardial infarction with inpatient admission (7Pe, 180Era)</t>
+  </si>
+  <si>
+    <t>[P] Influenza diagnosis or positive test result (7Pe, 90Era)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum post: 
-Logic: all events of ischemic or hemorrhagic stroke in an inpatient or ER visit.</t>
-  </si>
-  <si>
-    <t>[P] Acute myocardial infarction with inpatient admission (7Pe, 180Era)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900
-Logic: all events of acute myocardial infarction in an inpatient or ER visit.</t>
-  </si>
-  <si>
-    <t>[P] Influenza diagnosis or positive test result (7Pe, 90Era)</t>
+Logic: all events of influenza diagnosis, or positive influenza test result.</t>
+  </si>
+  <si>
+    <t>[P] Hemorrhagic stroke (intracerebral bleeding) with inpatient admission (7Ps, 180Era)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum post: 
-Logic: all events of influenza diagnosis, or positive influenza test result.</t>
-  </si>
-  <si>
-    <t>[W] Pregnancy (270P, 0Era)</t>
-  </si>
-  <si>
-    <t>[P] Hemorrhagic stroke (intracerebral bleeding) with inpatient admission (7Ps, 180Era)</t>
+Logic: all events of hemorrhagic stroke while inpatient or ER setting..</t>
+  </si>
+  <si>
+    <t>[P] Ischemic stroke with inpatient admission (7Ps, 180Era)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum post: 
-Logic: all events of hemorrhagic stroke while inpatient or ER setting..</t>
-  </si>
-  <si>
-    <t>[P] Ischemic stroke with inpatient admission (7Ps, 180Era)</t>
+Logic: all events of ischemic stroke while inpatient  or ER setting..</t>
+  </si>
+  <si>
+    <t>[P] Transient ischemic attack with inpatient admission (7Ps, 30Era)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum post: 
-Logic: all events of ischemic stroke while inpatient  or ER setting..</t>
-  </si>
-  <si>
-    <t>[P] Transient ischemic attack with inpatient admission (7Ps, 30Era)</t>
+Logic: all events of transient ischemic attack while in inpatient or ER setting.</t>
+  </si>
+  <si>
+    <t>[P] Cardiac arrhythmia with inpatient admission (1Pe, 30Era)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum post: 
-Logic: all events of transient ischemic attack while in inpatient or ER setting.</t>
-  </si>
-  <si>
-    <t>[P] Gastrointestinal bleeding with inpatient admission (7Ps, 30Era)</t>
+Logic: all events of cardiac arrhythmia or treatments for cardiac arrhythmia in inpatient or ER setting</t>
+  </si>
+  <si>
+    <t>[P] Dialysis with inpatient admission (1Ps, 7Era)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum post: 
-Logic: all events of gastrointestinal hemorrhage in inpatient or ER setting</t>
-  </si>
-  <si>
-    <t>[P] Cardiac arrhythmia with inpatient admission (1Pe, 30Era)</t>
+Logic: all events of dialysis in inpatient setting</t>
+  </si>
+  <si>
+    <t>[P] Cesarean section (7Pe, 180Era)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum post: 
-Logic: all events of cardiac arrhythmia or treatments for cardiac arrhythmia in inpatient or ER setting</t>
-  </si>
-  <si>
-    <t>[P] Dialysis with inpatient admission (1Ps, 7Era)</t>
+Logic: all events of Cesarean section.</t>
+  </si>
+  <si>
+    <t>[P] Intensive services during hospitalization (1Ps, 30Era)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum post: 
-Logic: all events of dialysis in inpatient setting</t>
-  </si>
-  <si>
-    <t>[P] Extracorporeal Membrane Oxygenation with inpatient admission (1Pe, 30Era)</t>
+Logic: all events of intensive care service in an inpatient setting</t>
+  </si>
+  <si>
+    <t>[P] SARS-CoV-2 test (1pos) or COVID-19 diagnosis with (1pos or 0 neg 0d to 3d) (3Ps, 180Era)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum post: 
-Logic: all events of Extracorporeal Membrane Oxygenation in inpatient setting.</t>
-  </si>
-  <si>
-    <t>[P] Cesarean section (7Pe, 180Era)</t>
+Logic: all events of positive SAR-CoV-2 test result or Covid-19 diagnosis without a negative test result on or within 3 days of diagnosis.</t>
+  </si>
+  <si>
+    <t>[P] SARS-CoV-2 test (1pos) or COVID-19 diagnosis with (1pos or 0 neg 0d to 3d) (3Ps, 21Era)</t>
+  </si>
+  <si>
+    <t>[W] SARS-CoV-2 test positive or negative result (0Ps, 0Era)</t>
+  </si>
+  <si>
+    <t>[W] SARS-CoV-2 test (1Ps, 0Era)</t>
+  </si>
+  <si>
+    <t>[P] Delirium (7Pe, 0Era, 90W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: first occurrence of Delirium</t>
+  </si>
+  <si>
+    <t>[P] Alzheimer's disease</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum post: 
-Logic: all events of Cesarean section.</t>
-  </si>
-  <si>
-    <t>[P] Intensive services during hospitalization (1Ps, 30Era)</t>
+Logic: first occurrence of Alzheimer's disease</t>
+  </si>
+  <si>
+    <t>[P] Systemic lupus erythematosus (FP)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum post: 
-Logic: all events of intensive care service in an inpatient setting</t>
-  </si>
-  <si>
-    <t>[P] SARS-CoV-2 test (1pos) or COVID-19 diagnosis with (1pos or 0 neg 0d to 3d) (3Ps, 180Era)</t>
+Logic: first signs and symptoms suggestive of SLE or first treatment suggestive of SLE with SLE diagnosis with 90 days.</t>
+  </si>
+  <si>
+    <t>[W] First event of Suicide attempt, including injuries and poisonings with undetermined, 365 days</t>
+  </si>
+  <si>
+    <t>[P] Right Upper Quadrant Pain (Pe1, 0Era, 14W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: all events of right upper quadrant pain with no right upper quadrant pain in prior 14 days washout period.</t>
+  </si>
+  <si>
+    <t>[P] Fatigue, Malaise, Lethargy, Anorexia (Pe1, 0Era, 14W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: events with a diagnosis of Fatigue, Malaise, Lethargy, Anorexia but not due to senile, cancer or stroke</t>
+  </si>
+  <si>
+    <t>[P] Jaundice or Itching (Pe1, 0Era, 14W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: events of jaundice or itching</t>
+  </si>
+  <si>
+    <t>[P] Encephalopathy or its presentations (Pe1, 0Era, 30W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: events Encephalopathy or its presentations</t>
+  </si>
+  <si>
+    <t>[P] Urothelial bladder cancer (FP)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum post: 
-Logic: all events of positive SAR-CoV-2 test result or Covid-19 diagnosis without a negative test result on or within 3 days of diagnosis.</t>
-  </si>
-  <si>
-    <t>[P] SARS-CoV-2 test (1pos) or COVID-19 diagnosis with (1pos or 0 neg 0d to 3d) (3Ps, 21Era)</t>
-  </si>
-  <si>
-    <t>[W] SARS-CoV-2 test positive or negative result (0Ps, 0Era)</t>
-  </si>
-  <si>
-    <t>[W] SARS-CoV-2 test (1Ps, 0Era)</t>
-  </si>
-  <si>
-    <t>[P] Delirium (FP)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum post: 
-Logic: first occurrence of Delirium</t>
-  </si>
-  <si>
-    <t>[P] Alzheimer's disease</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum post: 
-Logic: first occurrence of Alzheimer's disease</t>
-  </si>
-  <si>
-    <t>[P] Systemic lupus erythematosus (FP)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum post: 
-Logic: first signs and symptoms suggestive of SLE or first treatment suggestive of SLE with SLE diagnosis with 90 days.</t>
-  </si>
-  <si>
-    <t>[W] First event of Suicide attempt, including injuries and poisonings with undetermined, 365 days</t>
-  </si>
-  <si>
-    <t>[P] Right Upper Quadrant Pain (Pe1, 0Era, 14W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: all events of right upper quadrant pain with no right upper quadrant pain in prior 14 days washout period.</t>
-  </si>
-  <si>
-    <t>[P] Abdominal Distension (Pe1, 0Era, 14W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: all events of abdominal distention with no abdominal distention in prior 14 days washout period.</t>
-  </si>
-  <si>
-    <t>[P] Fatigue, Malaise, Lethargy, Anorexia (Pe1, 0Era, 14W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-transverse-myelitis/17769
-Logic: events with a diagnosis of Fatigue, Malaise, Lethargy, Anorexia but not due to senile, cancer or stroke</t>
-  </si>
-  <si>
-    <t>[P] Nausea or Vomiting (Pe1, 0Era, 7W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: all events of Nausea or Vomiting with 7 days washout</t>
-  </si>
-  <si>
-    <t>[P] Jaundice or Itching (Pe1, 0Era, 14W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post:
-Logic: events of jaundice or itching</t>
-  </si>
-  <si>
-    <t>[P] Encephalopathy or its presentations (Pe1, 0Era, 30W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: events Encephalopathy or its presentations</t>
-  </si>
-  <si>
-    <t>[P] Urothelial bladder cancer (FP)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum post: 
 Logic: earliest urothelial cancer</t>
   </si>
   <si>
@@ -729,15 +649,6 @@
     <t>Grandfathered cohort with unclear history. No clinical description, evaluation or discussions found. May need to be revisited in future.</t>
   </si>
   <si>
-    <t>[P] Coronary Artery Disease from vessel disease to ischemic injury (FP)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: first occurrence of coronary artery disease</t>
-  </si>
-  <si>
     <t>[W] Crohns disease (FP)</t>
   </si>
   <si>
@@ -762,18 +673,12 @@
     <t>[P] Acquired Pure Red Cell Aplasia</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-acquired-pure-red-cell-aplasia/17854
-Logic: earliest of acquired pure red cell aplasia indexed on anemia, with no congenital or genetic anemia or constitutional apalsia, and no erroneous measurements such as normal hemoglobin or hematocrit. Persons should not have constitutional aplasia as it represents congenital form of aplasia and should not have bone marrow transplantation.</t>
-  </si>
-  <si>
-    <t>[P] Neutropenic Fever (3Pe, 30Era)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>[P] Febrile Neutropenia or Neutropenic Fever (3Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-febrile-neutropenia-or-neutropenic-fever/17876
 Logic: all events of febrile neutropenia or fever with neutropenia or infection with neutropenia in an inpatient or emergency room setting</t>
   </si>
   <si>
@@ -798,12 +703,6 @@
     <t>[P] Pancytopenia, Acquired</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: all events of pancytopenia indexed on diagnosis or lab results, with no congenital explanations for the pancytopenia.</t>
-  </si>
-  <si>
     <t>[P] Acquired Neutropenia or unspecified leukopenia (21Pe, 365Era)</t>
   </si>
   <si>
@@ -822,7 +721,7 @@
 Logic: all events of neutropenia indexed on diagnosis or lab results with no congenital or genetic neutropenia, and no other cell lines reduced at the same time.</t>
   </si>
   <si>
-    <t>[P] Isolated Immune Thrombocytopenia (180Pe, 365Era)</t>
+    <t>[P] Isolated Immune Thrombocytopenia (180Pe, 0Era, 365W)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
@@ -834,30 +733,18 @@
     <t>[P] Isolated Immune Thrombocytopenia in absence of common thrombocytopenia causes (180Pe, 365Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: events of Immune Thrombocytopenia (ITP) with no evidence of congenital or genetic thrombocytopenia, and no simultaneous neutropenia, pancytopenia, bone marrow involvement, anemia. Persons exit after 180 days or when they have normal platelet count. Also no evidence of common causes of thrombocytopenia including hypersplenism, antiphospholipid syndrome, paroxysmal noctural hemoglobinuria, hemolytic uremic syndrome, thrombotic microangiopathy, major autoimmune disorders, chronic liver disease, pregnancy HELLP, tumors of hematopoietic cells or nutritional deficiency.</t>
-  </si>
-  <si>
     <t>[P] Thrombotic microangiopathy (TMA) or Microangiopathic hemolytic anemia (MAHA)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: events of Immune Thrombotic microangiopathy or microangiopathic hemolytic anemia indexed on the diagnosis or its treatment or investigation. Persons with congenital or genetic thrombocytopenia are excluded. Events with bone marrow disorder or recent sepsis are excluded.</t>
+    <t xml:space="preserve">Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
+Logic: earliest events of Immune Thrombotic microangiopathy or microangiopathic hemolytic anemia indexed on the diagnosis or its treatment or investigation. Persons with congenital or genetic thrombocytopenia are excluded. </t>
   </si>
   <si>
     <t>[P] Rhabdomyolysis (3Pe, 0Era, 180W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: all events of rhabdomyolysis with hospitalization and no recent trauma, burn, drowning, hypothermia, hyperthermia, hyperpyrexia, crush syndrome, sepsis, march myoglobinuria, exertional rhabdomyolysis, or alcohol intoxication.</t>
-  </si>
-  <si>
     <t>[P] Sudden Cardiac arrest or cardiac death</t>
   </si>
   <si>
@@ -876,22 +763,13 @@
 Logic: all events of angioedema, with no recent cardiac edema, cellulitis, erysipelas, dermatitis or eczema, lymphedema or insect bites.</t>
   </si>
   <si>
-    <t>[P] Anaphylaxis Non Environmental exposure related (1Pe, 0Era, 30W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: all events of anaphylaxis that is not due to environmental etiology and no food, substance, insect bite or sting, poisoning as an explanation for anaphylaxis.</t>
-  </si>
-  <si>
     <t>[P] Stevens-Johnson syndrome, toxic epidermal necrolysis spectrum</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: Gowtham A. Rao
 Forum post: 
-Logic: earliest event of stevens johnson syndrome or toxic epiderman necrolysis syndrome in an inpatient or Emergency room setting</t>
+Logic: earliest event of Stevens Johnson syndrome or toxic epidermal necrolysis syndrome in an inpatient or Emergency room setting</t>
   </si>
   <si>
     <t>[P] Posterior reversible encephalopathy syndrome PRES (FP)</t>
@@ -975,12 +853,13 @@
 Logic: all events of erythema multiformae with 365 days washout period</t>
   </si>
   <si>
-    <t>[P] Paresthesia (3Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>[P] Paresthesia (3Pe, 0Era, 90W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: all events of paresthesia with 365 days washout period</t>
   </si>
   <si>
@@ -1038,15 +917,6 @@
 Logic: events of optic neuritis with no events in prior clean window.</t>
   </si>
   <si>
-    <t>[P] Narcolepsy events (1Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-narcolepsy/17784
-Logic description: All events of Narcolepsy (includes cataplexy with narcolepsy) with no such events in prior clean window period (365 days). Persons should not be diagnosed with hypersomnia. Persons exit the cohort on end_date + 90 days as persons are assumed to have the condition for at least 90 days.</t>
-  </si>
-  <si>
     <t>[P] Muscle weakness or monoplegia (1Pe, 0Era, 365W)</t>
   </si>
   <si>
@@ -1060,8 +930,9 @@
   </si>
   <si>
     <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: events of urticaria with no events in prior clean window of 30 days</t>
   </si>
   <si>
@@ -1069,8 +940,9 @@
   </si>
   <si>
     <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: events of tinnitus with no events in prior clean window of 365 days</t>
   </si>
   <si>
@@ -1078,8 +950,9 @@
   </si>
   <si>
     <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: events of dizziness with no events in prior clean window of 180 days</t>
   </si>
   <si>
@@ -1110,15 +983,6 @@
 Logic: first event of non obstetric Deep Vein Thrombosis</t>
   </si>
   <si>
-    <t>[P] Disseminated intravascular coagulation DIC (1Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: events of Disseminated Intravascular Coagulation in an inpatient or ER setting with no events in prior 365 day window</t>
-  </si>
-  <si>
     <t>[P] Ischemic (Non-hemorrhagic) Stroke (1Pe, 0Era, 365W)</t>
   </si>
   <si>
@@ -1133,17 +997,11 @@
   <si>
     <t>Status: Pending peer review.
 Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-acute-pancreatitis-and-drug-induced-acute-pancreatitis/17510
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-acute-pancreatitis-and-drug-induced-acute-pancreatitis/17848
 Logic: events of acute pancreatitis in an inpatient or emergency setting with no events in prior washout window of 365 days, and no history of chronic pancreatitis or hereditary or congenital pancreatitis.</t>
   </si>
   <si>
     <t>[P] Drug Induced Acute pancreatitis (7Pe, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-acute-pancreatitis-and-drug-induced-acute-pancreatitis/17510
-Logic: events of acute pancreatitis in an inpatient or emergency setting with no events in prior washout window of 365 days, and no history of chronic pancreatitis or hereditary or congenital pancreatitis. Events with other explanations for acute pancreatitis such as alcoholic pancreatitis, severe alcoholism, recent alcohol intoxication, cholangitis or cholecystitits, biliary tract disease, endoscopic retrograde cholangiopancreatography, intestinal ischemia or obstruction or not eligible.</t>
   </si>
   <si>
     <t>[P] Drug Resistant Epilepsy</t>
@@ -1170,7 +1028,7 @@
   <si>
     <t>Status: Pending peer review.
 Contributor: Gowtham A. Rao
-Forum post: 
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-facial-palsy-lmn-including-bells-palsy-thats-not-umn/17788
 Logic: events of facial palsy with 183 days washout period. Remove persons with congenital facial palsy. Remove events with upper motor neuron disease suggestive of stroke.</t>
   </si>
   <si>
@@ -1183,58 +1041,10 @@
 Logic: All events of Emergency Room visits or code</t>
   </si>
   <si>
-    <t>[P] Anaphylaxis or Anaphylactic shock events (1Pe, 0Era, 30W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Erica Voss
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-24-anaphylaxis/16033
-Logic: all events of anaphylaxis or anaphylaxis shock due to serum with no events in prior clean window.</t>
-  </si>
-  <si>
-    <t>[P] Anaphylaxis all cause (1Pe, 0Era, 30W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: all events of anaphylaxis including due to vaccine exposure</t>
-  </si>
-  <si>
     <t>[P] ST elevated myocardial infarction with inpatient admission (7Pe, 180Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900
-Logic: all events of ST segment acute myocardial infarction in an inpatient or ER visit.</t>
-  </si>
-  <si>
     <t>[P] Non ST elevated myocardial infarction with inpatient admission (7Pe, 180Era)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900
-Logic: all events of Non ST segment acute myocardial infarction in an inpatient or ER visit.</t>
-  </si>
-  <si>
-    <t>[P] Unstable Angina with inpatient admission (7Pe, 180Era)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900
-Logic: all events of Unstable Angina in an inpatient or ER visit.</t>
-  </si>
-  <si>
-    <t>[P] Unstable Angina OR NSTEMI with inpatient admission (7Pe, 180Era)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900
-Logic: all events of Unstable Angina or NSTEMI in an inpatient or ER visit.</t>
   </si>
   <si>
     <t>[P] Acute Hepatic Failure in persons with liver disease (90Pe, 180W)</t>
@@ -1292,6 +1102,220 @@
   </si>
   <si>
     <t>[P] Hemolytic Anemia Intra corpuscular (FP)</t>
+  </si>
+  <si>
+    <t>cohortme</t>
+  </si>
+  <si>
+    <t>[P] usea or Vomiting (3Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: All events of usea or vomiting</t>
+  </si>
+  <si>
+    <t>[W] Exposure to SARS-Cov 2 and corovirus (7Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>[P] Asthma or Chronic obstructive pulmory disease (COPD) (FP)</t>
+  </si>
+  <si>
+    <t>[P] Chronic obstructive pulmory disease (COPD) without asthma (FP)</t>
+  </si>
+  <si>
+    <t>[P] Malignt neoplasm excluding non-melanoma skin cancer (FP)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: 
+Forum: 
+Logic: Persons with a malignt neoplastic disease or history of malignt neoplastic disease.</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum: 
+Logic: Earliest of any Heart disease or arteriosclerosis of corory artery bypass graft.</t>
+  </si>
+  <si>
+    <t>[W] End stage rel disease (FP)</t>
+  </si>
+  <si>
+    <t>[W] End stage rel disease broad (FP)</t>
+  </si>
+  <si>
+    <t>[P] Respiratory or pulmory tuberculosis (FP)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum: 
+Logic: Earliest occurrence of respiratory or pulmory tuberculosis</t>
+  </si>
+  <si>
+    <t>Status: Accepted
+hashTag: #Accepted, #Level2
+Reviewer: Evan Minty
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-transverse-myelitis/17769
+Logic: events with a diagnosis of transverse myelitis indexed on diagnosis of transverse myelitis, related spil disease or symptoms of transverse myelitis, followed by a diagnosis of transverse myelitis within 30 days. Events have a 365 days washout period. The events persist for 1 day. Symptoms of Transverse Myelitis included asthenia, muscle weakness, myelitis, paresthesia.</t>
+  </si>
+  <si>
+    <t>[W] Acute rel failure with inpatient admission (3Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angi/15900
+Logic: all events of acute myocardial infarction in an inpatient or ER visit.</t>
+  </si>
+  <si>
+    <t>[W] Pregncy (270P, 0Era)</t>
+  </si>
+  <si>
+    <t>[P] Gastrointestil bleeding with inpatient admission (7Ps, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: 
+Forum post: 
+Logic: all events of gastrointestil hemorrhage in inpatient or ER setting</t>
+  </si>
+  <si>
+    <t>[P] Extracorporeal Membrane Oxygetion with inpatient admission (1Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: 
+Forum post: 
+Logic: all events of Extracorporeal Membrane Oxygetion in inpatient setting.</t>
+  </si>
+  <si>
+    <t>[P] Abdomil Distension (Pe7, 0Era, 90W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: all events of abdomil distention with no abdomil distention in prior 14 days washout period.</t>
+  </si>
+  <si>
+    <t>[P] Corory Artery Disease from vessel disease to ischemic injury (FP)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
+Logic: first occurrence of corory artery disease</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-acquired-pure-red-cell-aplasia/17854
+Logic: earliest of acquired pure red cell aplasia indexed on anemia, with no congenital or genetic anemia or constitutiol aplasia, and no erroneous measurements such as normal hemoglobin or hematocrit. Persons should not have constitutiol aplasia as it represents congenital form of aplasia and should not have bone marrow transplantation.</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
+Logic: all events of pancytopenia indexed on diagnosis or lab results, with no congenital explations for the pancytopenia.</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
+Logic: events of Immune Thrombocytopenia (ITP) with no evidence of congenital or genetic thrombocytopenia, and no simultaneous neutropenia, pancytopenia, bone marrow involvement, anemia. Persons exit after 180 days or when they have normal platelet count. Also no evidence of common causes of thrombocytopenia including hypersplenism, antiphospholipid syndrome, paroxysmal noctural hemoglobinuria, hemolytic uremic syndrome, thrombotic microangiopathy, major autoimmune disorders, chronic liver disease, pregncy HELLP, tumors of hematopoietic cells or nutritiol deficiency.</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
+Logic: all events of rhabdomyolysis with hospitalization and no recent trauma, burn, drowning, hypothermia, hyperthermia, hyperpyrexia, crush syndrome, sepsis, march myoglobinuria, exertiol rhabdomyolysis, or alcohol intoxication.</t>
+  </si>
+  <si>
+    <t>[P] Aphylaxis Non Environmental exposure related (1Pe, 0Era, 30W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-aphylaxis/17835
+Logic: all events of aphylaxis that is not due to environmental etiology and no food, substance, insect bite or sting, poisoning as an explation for aphylaxis.</t>
+  </si>
+  <si>
+    <t>[P] rcolepsy events (1Pe, 0Era, 365W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-rcolepsy/17784
+Logic description: All events of rcolepsy (includes cataplexy with rcolepsy) with no such events in prior clean window period (365 days). Persons should not be diagnosed with hypersomnia. Persons exit the cohort on end_date + 90 days as persons are assumed to have the condition for at least 90 days.</t>
+  </si>
+  <si>
+    <t>[P] Dissemited intravascular coagulation DIC (1Pe, 0Era, 365W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
+Logic: events of Dissemited Intravascular Coagulation in an inpatient or ER setting with no events in prior 365 day window</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-acute-pancreatitis-and-drug-induced-acute-pancreatitis/17848
+Logic: events of acute pancreatitis in an inpatient or emergency setting with no events in prior washout window of 365 days, and no history of chronic pancreatitis or hereditary or congenital pancreatitis. Events with other explations for acute pancreatitis such as alcoholic pancreatitis, severe alcoholism, recent alcohol intoxication, cholangitis or cholecystitits, biliary tract disease, endoscopic retrograde cholangiopancreatography, intestil ischemia or obstruction or not eligible.</t>
+  </si>
+  <si>
+    <t>[P] Aphylaxis or Aphylactic shock events (1Pe, 0Era, 30W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Erica Voss
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-24-aphylaxis/16033
+Logic: all events of aphylaxis or aphylaxis shock due to serum with no events in prior clean window.</t>
+  </si>
+  <si>
+    <t>[P] Aphylaxis all cause (1Pe, 0Era, 30W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
+Logic: all events of aphylaxis including due to vaccine exposure</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angi/15900
+Logic: all events of ST segment acute myocardial infarction in an inpatient or ER visit.</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angi/15900
+Logic: all events of Non ST segment acute myocardial infarction in an inpatient or ER visit.</t>
+  </si>
+  <si>
+    <t>[P] Unstable Angi with inpatient admission (7Pe, 180Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angi/15900
+Logic: all events of Unstable Angi in an inpatient or ER visit.</t>
+  </si>
+  <si>
+    <t>[P] Unstable Angi OR NSTEMI with inpatient admission (7Pe, 180Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angi/15900
+Logic: all events of Unstable Angi or NSTEMI in an inpatient or ER visit.</t>
   </si>
 </sst>
 </file>
@@ -2102,16 +2126,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J163"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="53.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2119,31 +2142,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2151,16 +2174,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>44461</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2168,16 +2191,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>44461</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2185,16 +2208,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>44462</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2202,16 +2225,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>44462</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2219,16 +2242,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>44462</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2236,16 +2259,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>44462</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2253,16 +2276,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>44462</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2270,16 +2293,16 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
         <v>44462</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2287,16 +2310,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
         <v>44462</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>28</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2304,16 +2327,16 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
         <v>44462</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2321,16 +2344,16 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
         <v>44462</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2338,16 +2361,16 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1">
         <v>44462</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2355,16 +2378,16 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
         <v>44462</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2372,16 +2395,16 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1">
         <v>44462</v>
       </c>
       <c r="J15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2389,16 +2412,16 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
         <v>44462</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2406,16 +2429,16 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1">
         <v>44462</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2423,16 +2446,16 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1">
         <v>44462</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2440,16 +2463,16 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
         <v>44462</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2457,16 +2480,16 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1">
         <v>44462</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2474,16 +2497,16 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1">
         <v>44462</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2491,16 +2514,16 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1">
         <v>44462</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2508,10 +2531,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D23" s="1">
         <v>44462</v>
@@ -2520,7 +2543,7 @@
         <v>3.5</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2528,10 +2551,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1">
         <v>44462</v>
@@ -2540,7 +2563,7 @@
         <v>3.5</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2548,10 +2571,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D25" s="1">
         <v>44462</v>
@@ -2560,7 +2583,7 @@
         <v>3.5</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2568,16 +2591,16 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1">
         <v>44462</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2585,16 +2608,16 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1">
         <v>44462</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2602,16 +2625,16 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>260</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1">
         <v>44462</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2619,16 +2642,16 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1">
         <v>44462</v>
       </c>
       <c r="J29" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2636,16 +2659,16 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1">
         <v>44462</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2653,16 +2676,16 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>261</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1">
         <v>44462</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>67</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2670,16 +2693,16 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1">
         <v>44462</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2687,16 +2710,16 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1">
         <v>44462</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -2704,16 +2727,16 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1">
         <v>44462</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2721,16 +2744,16 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D35" s="1">
         <v>44462</v>
       </c>
       <c r="J35" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -2738,16 +2761,16 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1">
         <v>44462</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2755,16 +2778,16 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1">
         <v>44462</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2772,16 +2795,16 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1">
         <v>44462</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>80</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2789,16 +2812,16 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>264</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D39" s="1">
         <v>44462</v>
       </c>
       <c r="J39" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2806,16 +2829,16 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1">
         <v>44462</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2823,16 +2846,16 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D41" s="1">
         <v>44462</v>
       </c>
       <c r="J41" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2840,16 +2863,16 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>265</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D42" s="1">
         <v>44462</v>
       </c>
       <c r="J42" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -2857,16 +2880,16 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>266</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1">
         <v>44462</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>87</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2874,16 +2897,16 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1">
         <v>44463</v>
       </c>
       <c r="J44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2891,16 +2914,16 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1">
         <v>44463</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2908,16 +2931,16 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46" s="1">
         <v>44463</v>
       </c>
       <c r="J46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2925,16 +2948,16 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47" s="1">
         <v>44463</v>
       </c>
       <c r="J47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2942,16 +2965,16 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D48" s="1">
         <v>44463</v>
       </c>
       <c r="J48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2959,16 +2982,16 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1">
         <v>44463</v>
       </c>
       <c r="J49" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2976,16 +2999,16 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1">
         <v>44463</v>
       </c>
       <c r="J50" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2993,16 +3016,16 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1">
         <v>44463</v>
       </c>
       <c r="J51" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -3010,16 +3033,16 @@
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D52" s="1">
         <v>44463</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3027,16 +3050,16 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D53" s="1">
         <v>44463</v>
       </c>
       <c r="J53" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -3044,16 +3067,16 @@
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1">
         <v>44469</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3061,16 +3084,16 @@
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D55" s="1">
         <v>44469</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3078,16 +3101,16 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56" s="1">
         <v>44474</v>
       </c>
       <c r="J56" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3095,16 +3118,16 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57" s="1">
         <v>44474</v>
       </c>
       <c r="J57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3112,16 +3135,16 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D58" s="1">
         <v>44474</v>
       </c>
       <c r="J58" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3129,16 +3152,16 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D59" s="1">
         <v>44474</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
@@ -3146,16 +3169,16 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60" s="1">
         <v>44474</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3163,16 +3186,19 @@
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D61" s="1">
         <v>44474</v>
       </c>
+      <c r="E61">
+        <v>3.6</v>
+      </c>
       <c r="J61" s="2" t="s">
-        <v>113</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -3180,16 +3206,16 @@
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D62" s="1">
         <v>44474</v>
       </c>
-      <c r="J62" t="s">
-        <v>97</v>
+      <c r="J62" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3197,16 +3223,16 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D63" s="1">
         <v>44474</v>
       </c>
       <c r="J63" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3214,16 +3240,16 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>269</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1">
         <v>44474</v>
       </c>
       <c r="J64" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3231,16 +3257,16 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D65" s="1">
         <v>44474</v>
       </c>
       <c r="J65" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3248,16 +3274,16 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D66" s="1">
         <v>44474</v>
       </c>
       <c r="J66" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3265,16 +3291,16 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D67" s="1">
         <v>44474</v>
       </c>
       <c r="J67" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3282,16 +3308,16 @@
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D68" s="1">
         <v>44474</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3299,16 +3325,16 @@
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D69" s="1">
         <v>44474</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>124</v>
+        <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3316,16 +3342,16 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D70" s="1">
         <v>44474</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3333,16 +3359,16 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>127</v>
+        <v>271</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D71" s="1">
         <v>44474</v>
       </c>
       <c r="J71" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -3350,16 +3376,16 @@
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D72" s="1">
         <v>44474</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3367,16 +3393,16 @@
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D73" s="1">
         <v>44474</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3384,16 +3410,16 @@
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D74" s="1">
         <v>44474</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3401,16 +3427,16 @@
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>134</v>
+        <v>272</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D75" s="1">
         <v>44474</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>135</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -3418,16 +3444,16 @@
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D76" s="1">
         <v>44474</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3435,16 +3461,16 @@
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D77" s="1">
         <v>44474</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -3452,16 +3478,16 @@
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>140</v>
+        <v>274</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D78" s="1">
         <v>44474</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>141</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3469,16 +3495,16 @@
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D79" s="1">
         <v>44474</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -3486,16 +3512,16 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D80" s="1">
         <v>44474</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -3503,16 +3529,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81" s="1">
         <v>44478</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -3520,16 +3546,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D82" s="1">
         <v>44478</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -3537,16 +3563,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D83" s="1">
         <v>44480</v>
       </c>
       <c r="J83" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3554,16 +3580,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D84" s="1">
         <v>44490</v>
       </c>
       <c r="J84" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -3571,16 +3597,16 @@
         <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D85" s="1">
         <v>44596</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -3588,16 +3614,16 @@
         <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D86" s="1">
         <v>44598</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -3605,16 +3631,16 @@
         <v>119</v>
       </c>
       <c r="B87" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D87" s="1">
         <v>44602</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3622,16 +3648,16 @@
         <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C88" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D88" s="1">
         <v>44603</v>
       </c>
       <c r="J88" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -3639,16 +3665,16 @@
         <v>189</v>
       </c>
       <c r="B89" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D89" s="1">
         <v>44741</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -3656,16 +3682,16 @@
         <v>190</v>
       </c>
       <c r="B90" t="s">
-        <v>160</v>
+        <v>276</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D90" s="1">
         <v>44741</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>161</v>
+        <v>277</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -3673,1244 +3699,1226 @@
         <v>191</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D91" s="1">
         <v>44741</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B92" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D92" s="1">
         <v>44741</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B93" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D93" s="1">
         <v>44741</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B94" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D94" s="1">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B95" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D95" s="1">
         <v>44742</v>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>171</v>
+      <c r="J95" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B96" t="s">
-        <v>172</v>
+        <v>278</v>
       </c>
       <c r="C96" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D96" s="1">
         <v>44742</v>
       </c>
-      <c r="J96" t="s">
-        <v>173</v>
+      <c r="J96" s="2" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B97" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D97" s="1">
         <v>44742</v>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>175</v>
+      <c r="J97" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B98" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C98" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D98" s="1">
         <v>44742</v>
       </c>
       <c r="J98" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B99" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="C99" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D99" s="1">
         <v>44742</v>
       </c>
       <c r="J99" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B100" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="C100" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D100" s="1">
         <v>44742</v>
       </c>
       <c r="J100" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B101" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C101" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D101" s="1">
-        <v>44742</v>
+        <v>44875</v>
       </c>
       <c r="J101" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B102" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C102" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D102" s="1">
         <v>44875</v>
       </c>
       <c r="J102" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B103" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C103" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D103" s="1">
         <v>44875</v>
       </c>
-      <c r="J103" t="s">
-        <v>181</v>
+      <c r="J103" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B104" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D104" s="1">
         <v>44875</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B105" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="C105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D105" s="1">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="C106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D106" s="1">
         <v>44876</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B107" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D107" s="1">
         <v>44876</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>190</v>
+        <v>281</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B108" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D108" s="1">
         <v>44876</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B109" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D109" s="1">
         <v>44876</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B110" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D110" s="1">
         <v>44876</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B111" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D111" s="1">
         <v>44876</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>198</v>
+        <v>282</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B112" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D112" s="1">
         <v>44876</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B113" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="C113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D113" s="1">
         <v>44876</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>202</v>
+        <v>283</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B114" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D114" s="1">
         <v>44876</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B115" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D115" s="1">
         <v>44876</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B116" t="s">
-        <v>207</v>
+        <v>284</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D116" s="1">
         <v>44876</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>208</v>
+        <v>285</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B117" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D117" s="1">
         <v>44876</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B118" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D118" s="1">
-        <v>44876</v>
+        <v>44877</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B119" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D119" s="1">
         <v>44877</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B120" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D120" s="1">
         <v>44877</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B121" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D121" s="1">
         <v>44877</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B122" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D122" s="1">
         <v>44877</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B123" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D123" s="1">
         <v>44877</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B124" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D124" s="1">
         <v>44877</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B125" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D125" s="1">
         <v>44877</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B126" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D126" s="1">
         <v>44877</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B127" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="C127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D127" s="1">
         <v>44877</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B128" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D128" s="1">
         <v>44877</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B129" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D129" s="1">
         <v>44877</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B130" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D130" s="1">
         <v>44877</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B131" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D131" s="1">
         <v>44877</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B132" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D132" s="1">
         <v>44877</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B133" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D133" s="1">
         <v>44877</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B134" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D134" s="1">
         <v>44877</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B135" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="C135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D135" s="1">
         <v>44877</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B136" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D136" s="1">
         <v>44877</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B137" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D137" s="1">
         <v>44877</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B138" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D138" s="1">
         <v>44877</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B139" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D139" s="1">
         <v>44877</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B140" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D140" s="1">
         <v>44877</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B141" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="C141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D141" s="1">
         <v>44877</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B142" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D142" s="1">
         <v>44877</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B143" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D143" s="1">
         <v>44877</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B144" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D144" s="1">
-        <v>44877</v>
+        <v>44880</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B145" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="C145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D145" s="1">
         <v>44880</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>266</v>
+        <v>290</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B146" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D146" s="1">
-        <v>44880</v>
+        <v>44882</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B147" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D147" s="1">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B148" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D148" s="1">
-        <v>44883</v>
+        <v>44887</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B149" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D149" s="1">
         <v>44887</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B150" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D150" s="1">
-        <v>44887</v>
+        <v>44893</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B151" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="C151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D151" s="1">
         <v>44893</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B152" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="C152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D152" s="1">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B153" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="C153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D153" s="1">
         <v>44894</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B154" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D154" s="1">
         <v>44894</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B155" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D155" s="1">
         <v>44894</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B156" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="C156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D156" s="1">
         <v>44894</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B157" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D157" s="1">
         <v>44894</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>290</v>
+        <v>245</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B158" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="C158" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D158" s="1">
         <v>44894</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B159" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D159" s="1">
         <v>44894</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B160" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D160" s="1">
         <v>44894</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B161" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D161" s="1">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B162" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D162" s="1">
         <v>44895</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>271</v>
-      </c>
-      <c r="B163" t="s">
-        <v>301</v>
-      </c>
-      <c r="C163" t="s">
-        <v>11</v>
-      </c>
-      <c r="D163" s="1">
-        <v>44895</v>
-      </c>
-      <c r="J163" s="2" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J163"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/PhenotypeLog.xlsx
+++ b/inst/PhenotypeLog.xlsx
@@ -1104,9 +1104,6 @@
     <t>[P] Hemolytic Anemia Intra corpuscular (FP)</t>
   </si>
   <si>
-    <t>cohortme</t>
-  </si>
-  <si>
     <t>[P] usea or Vomiting (3Pe, 30Era)</t>
   </si>
   <si>
@@ -1316,6 +1313,9 @@
 Contributor: Gowtham A. Rao
 Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angi/15900
 Logic: all events of Unstable Angi or NSTEMI in an inpatient or ER visit.</t>
+  </si>
+  <si>
+    <t>cohortName</t>
   </si>
 </sst>
 </file>
@@ -2129,7 +2129,7 @@
   <dimension ref="A1:J162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>255</v>
+        <v>300</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -2310,7 +2310,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
@@ -2319,7 +2319,7 @@
         <v>44462</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2412,7 +2412,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -2591,7 +2591,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C26" t="s">
         <v>10</v>
@@ -2625,7 +2625,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C28" t="s">
         <v>10</v>
@@ -2671,12 +2671,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="315" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
@@ -2685,10 +2685,10 @@
         <v>44462</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="285" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="315" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="330" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="315" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>44462</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2812,7 +2812,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -2824,7 +2824,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="300" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C42" t="s">
         <v>46</v>
@@ -2875,12 +2875,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
@@ -2889,7 +2889,7 @@
         <v>44462</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -3028,7 +3028,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>54</v>
       </c>
@@ -3062,7 +3062,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="360" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>56</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>57</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="375" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>61</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>62</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>63</v>
       </c>
@@ -3198,10 +3198,10 @@
         <v>3.6</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>64</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
@@ -3303,7 +3303,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="300" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>70</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>71</v>
       </c>
@@ -3334,10 +3334,10 @@
         <v>44474</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="285" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>72</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C71" t="s">
         <v>10</v>
@@ -3371,7 +3371,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>74</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>75</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>76</v>
       </c>
@@ -3422,12 +3422,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C75" t="s">
         <v>10</v>
@@ -3436,10 +3436,10 @@
         <v>44474</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="330" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>78</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="225" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>79</v>
       </c>
@@ -3473,12 +3473,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="285" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
@@ -3487,10 +3487,10 @@
         <v>44474</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>81</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>82</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="405" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>84</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="405" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>85</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>95</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="225" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>100</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="360" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>119</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>189</v>
       </c>
@@ -3677,12 +3677,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>190</v>
       </c>
       <c r="B90" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C90" t="s">
         <v>10</v>
@@ -3691,10 +3691,10 @@
         <v>44741</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>191</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>193</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>194</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>195</v>
       </c>
@@ -3779,12 +3779,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>197</v>
       </c>
       <c r="B96" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C96" t="s">
         <v>10</v>
@@ -3793,7 +3793,7 @@
         <v>44742</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -3898,7 +3898,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>207</v>
       </c>
@@ -3912,10 +3912,10 @@
         <v>44875</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>208</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>209</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>210</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>211</v>
       </c>
@@ -3980,10 +3980,10 @@
         <v>44876</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>213</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>214</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>215</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>216</v>
       </c>
@@ -4048,10 +4048,10 @@
         <v>44876</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>217</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>218</v>
       </c>
@@ -4082,10 +4082,10 @@
         <v>44876</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="285" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>219</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>220</v>
       </c>
@@ -4119,12 +4119,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>221</v>
       </c>
       <c r="B116" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C116" t="s">
         <v>10</v>
@@ -4133,10 +4133,10 @@
         <v>44876</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>222</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>223</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="345" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>224</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="300" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>225</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="315" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>226</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>227</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>228</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>229</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>230</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="315" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>231</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>232</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="360" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>233</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="360" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>234</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="300" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>235</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="300" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>236</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="315" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>237</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="285" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>238</v>
       </c>
@@ -4425,12 +4425,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>239</v>
       </c>
       <c r="B134" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C134" t="s">
         <v>10</v>
@@ -4439,10 +4439,10 @@
         <v>44877</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="360" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>240</v>
       </c>
@@ -4459,7 +4459,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>241</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>243</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>244</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>245</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>246</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>247</v>
       </c>
@@ -4561,12 +4561,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="405" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>248</v>
       </c>
       <c r="B142" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C142" t="s">
         <v>10</v>
@@ -4575,10 +4575,10 @@
         <v>44877</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="375" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>249</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>251</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>253</v>
       </c>
@@ -4626,10 +4626,10 @@
         <v>44880</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>254</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="300" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>255</v>
       </c>
@@ -4663,7 +4663,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>256</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>257</v>
       </c>
@@ -4697,12 +4697,12 @@
         <v>239</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>258</v>
       </c>
       <c r="B150" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C150" t="s">
         <v>10</v>
@@ -4711,15 +4711,15 @@
         <v>44893</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="300" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>259</v>
       </c>
       <c r="B151" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C151" t="s">
         <v>10</v>
@@ -4728,10 +4728,10 @@
         <v>44893</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>260</v>
       </c>
@@ -4745,10 +4745,10 @@
         <v>44894</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>261</v>
       </c>
@@ -4762,15 +4762,15 @@
         <v>44894</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>262</v>
       </c>
       <c r="B154" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C154" t="s">
         <v>10</v>
@@ -4779,15 +4779,15 @@
         <v>44894</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>263</v>
       </c>
       <c r="B155" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C155" t="s">
         <v>10</v>
@@ -4796,10 +4796,10 @@
         <v>44894</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="330" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>264</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="315" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>265</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>267</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>268</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>269</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>270</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>271</v>
       </c>

--- a/inst/PhenotypeLog.xlsx
+++ b/inst/PhenotypeLog.xlsx
@@ -14,22 +14,16 @@
   <sheets>
     <sheet name="PhenotypeLog" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PhenotypeLog!$A$1:$J$163</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="301">
   <si>
     <t>cohortId</t>
   </si>
   <si>
-    <t>cohortName</t>
-  </si>
-  <si>
     <t>getResults</t>
   </si>
   <si>
@@ -63,118 +57,117 @@
     <t>Withdrawn by contributor before peer review</t>
   </si>
   <si>
-    <t>[P] Cough (3Ps, 30Era)</t>
-  </si>
-  <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: 
-Forum: 
-Logic: All events of cough or sputum.</t>
+    <t>[P] Cough or Sputum (3Ps, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: All events of cough or sputum finding.</t>
   </si>
   <si>
     <t>[P] Diarrhea (7Ps, 30Era)</t>
   </si>
   <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: 
-Forum: 
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of diarrhea.</t>
   </si>
   <si>
-    <t>[P] Dyspnea (14Pe, 30Era)</t>
-  </si>
-  <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: 
-Forum: 
+    <t>[P] Dyspnea (7Pe, 90Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of dyspnea.</t>
   </si>
   <si>
     <t>[P] Fever (3Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: 
-Forum: 
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of fever or elevated temperature measurement.</t>
   </si>
   <si>
-    <t>[P] Headache, Migraine or related Neurologic pain (7Pe, 30Era)</t>
-  </si>
-  <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: 
-Forum: 
-Logic: All events of Headache, migraine or related neurologic pain</t>
-  </si>
-  <si>
-    <t>[P] Anosmia OR Hyposmia OR Dysgeusia (7Ps, 180Era)</t>
-  </si>
-  <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: 
-Forum: 
-Logic: All events of Anosmia OR Hyposmia OR Dysgeusia</t>
+    <t>[P] Headache or Headache disorder (7Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: All events of Headache or headache disorder</t>
+  </si>
+  <si>
+    <t>[P] Altered smell or taste including Anosmia, Hyposmia or Dysgeusia (7Ps, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: Altered smell or taste including Anosmia, Hyposmia or Dysgeusia</t>
   </si>
   <si>
     <t>[P] Sore throat (7Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: 
-Forum: 
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of Sore throat</t>
   </si>
   <si>
-    <t>[P] Nausea or Vomiting (3Pe, 30Era)</t>
-  </si>
-  <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: 
-Forum: 
-Logic: All events of Nausea or vomiting</t>
-  </si>
-  <si>
-    <t>[P] Malaise or fatigue (3P, 30Era)</t>
-  </si>
-  <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: 
-Forum: 
+    <t>[P] Malaise and or fatigue (3P, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of Malaise and or fatigue</t>
   </si>
   <si>
     <t>[P] Rhinitis or common cold (7P, 30Era)</t>
   </si>
   <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: 
-Forum: 
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of Rhinitis or common cold</t>
   </si>
   <si>
-    <t>[P] Myalgia (not explained by injury, ischemia or systemic inflammation) (3Pe, 30Era)</t>
-  </si>
-  <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: Gowtham A Rao
-Forum: 
-Logic: All events of Myalgia. Exclude persons with secondary causes of myalgia.</t>
+    <t>[P] Myalgia (not explained by injury, ischemia or systemic inflammation) (3Pe, 0Era, 30W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: All events of Myalgia. Exclude persons with secondary causes of myalgia explained by injury, ischemia or chronic systemic inflammation.</t>
   </si>
   <si>
     <t>[P] Myalgia (3Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: 
-Forum: 
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of Myalgia.</t>
   </si>
   <si>
     <t>[W] Exposure to Viral Disease (7Pe, 30Era)</t>
-  </si>
-  <si>
-    <t>[W] Exposure to SARS-Cov 2 and coronavirus (7Pe, 30Era)</t>
   </si>
   <si>
     <t>[W] Exposure to SARS-Cov 2 (7Pe, 30Era)</t>
@@ -198,12 +191,13 @@
 Logic: All events of Acute Typical Pneumonia</t>
   </si>
   <si>
-    <t>[P] Bronchitis (14Pe, 90Era)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum: 
+    <t>[P] Bronchitis (14Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Signs
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of Bronchitis</t>
   </si>
   <si>
@@ -249,9 +243,6 @@
 Logic: Earliest observation of any death</t>
   </si>
   <si>
-    <t>[P] Asthma or Chronic obstructive pulmonary disease (COPD) (FP)</t>
-  </si>
-  <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum: 
@@ -267,9 +258,6 @@
 Logic: Earliest of either asthma diagnosis or therapy for asthma with a history of another asthma therapy more than 180 days before. The person should not have a diagnosis or treatment for COPD in past.</t>
   </si>
   <si>
-    <t>[P] Chronic obstructive pulmonary disease (COPD) without asthma (FP)</t>
-  </si>
-  <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum: 
@@ -291,21 +279,13 @@
 Logic: Earliest event of tuberculosis with at least 3 different drugs for tuberculosis at anytime on or after diagnosis</t>
   </si>
   <si>
-    <t>[P] Malignant neoplasm excluding non-melanoma skin cancer (FP)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum: 
-Logic: Persons with a malignant neoplastic disease or history of malignant neoplastic disease.</t>
-  </si>
-  <si>
     <t>[P] Obesity (FP)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
-Contributor: 
-Forum: 
+hashTag: #Signs
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: Persons with obesity diagnosis or a body weight measurement &gt; 120 kg or 265 lbs</t>
   </si>
   <si>
@@ -351,15 +331,6 @@
     <t>[P] Heart disease (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum: 
-Logic: Earliest of any Heart disease or arteriosclerosis of coronary artery bypass graft.</t>
-  </si>
-  <si>
-    <t>[W] End stage renal disease (FP)</t>
-  </si>
-  <si>
     <t>[P] Diabetes Mellitus Type 2 (FP)</t>
   </si>
   <si>
@@ -372,18 +343,6 @@
     <t>[W] Chronic kidney disease broad (FP)</t>
   </si>
   <si>
-    <t>[W] End stage renal disease broad (FP)</t>
-  </si>
-  <si>
-    <t>[P] Respiratory or pulmonary tuberculosis (FP)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum: 
-Logic: Earliest occurrence of respiratory or pulmonary tuberculosis</t>
-  </si>
-  <si>
     <t>[W] COVID-19 diagnosis (3Pe, 7Era)</t>
   </si>
   <si>
@@ -418,8 +377,9 @@
   </si>
   <si>
     <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum: 
+hashTag: #Signs
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of Febrile seizures with no febrile seizure in the 42days washout period, indexed on seizure or febrile seizure.</t>
   </si>
   <si>
@@ -439,8 +399,9 @@
   </si>
   <si>
     <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum: 
+hashTag: #Signs
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of Bleeding diagnosis with no bleeding in past 30 days.</t>
   </si>
   <si>
@@ -466,260 +427,219 @@
   </si>
   <si>
     <t>Status: Pending peer review.
+hashTag: #Signs
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: All events of seizure with no seizure events in the prior 42 days clean window</t>
+  </si>
+  <si>
+    <t>Transverse myelitis or symptoms (1Ps, 0Era, 365W)</t>
+  </si>
+  <si>
+    <t>[P] Flu-like symptoms fever, cough, malaise, fatigue, dyspnea, myalgia (3Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms, #Signs
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: All events of flue like symptoms or signs</t>
+  </si>
+  <si>
+    <t>[W] Acute pancreatitis with inpatient admission (3Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Withdrawn and  replaced by 205</t>
+  </si>
+  <si>
+    <t>[W] Hepatic failure with inpatient admission (3Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>[W] Heart failure with inpatient admission (3Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>[W] Angioedema with inpatient admission (7Ps, 30Era)</t>
+  </si>
+  <si>
+    <t>[P] Stroke (ischemic or hemorrhagic) with inpatient admission (7Ps, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
 Contributor: 
-Forum: 
-Logic: All events of seizure with no seizure events in the prior 42 days clean window</t>
-  </si>
-  <si>
-    <t>[P] Transverse myelitis or symptoms (1Ps, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-transverse-myelitis/17769
-Logic: events with a diagnosis of transverse myelitis indexed on diagnosis of transverse myelitis, related spinal disease or symptoms of transverse myelitis, followed by a diagnosis of transverse myelitis within 30 days. Events have a 365 days washout period. The events persist for 1 day. Symptoms of Transverse Myelitis included asthenia, muscle weakness, myelitis, paresthesia.</t>
-  </si>
-  <si>
-    <t>[W] Flu-like symptoms fever, cough, malaise, fatigue, dyspnea, myalgia (3P, 30Era)</t>
-  </si>
-  <si>
-    <t>[W] Acute pancreatitis with inpatient admission (3Pe, 30Era)</t>
-  </si>
-  <si>
-    <t>Withdrawn and  replaced by 205</t>
-  </si>
-  <si>
-    <t>[W] Acute renal failure with inpatient admission (3Pe, 30Era)</t>
-  </si>
-  <si>
-    <t>[W] Hepatic failure with inpatient admission (3Pe, 30Era)</t>
-  </si>
-  <si>
-    <t>[W] Heart failure with inpatient admission (3Pe, 30Era)</t>
-  </si>
-  <si>
-    <t>[W] Angioedema with inpatient admission (7Ps, 30Era)</t>
-  </si>
-  <si>
-    <t>[P] Stroke (ischemic or hemorrhagic) with inpatient admission (7Ps, 30Era)</t>
+Forum post: 
+Logic: all events of ischemic or hemorrhagic stroke in an inpatient or ER visit.</t>
+  </si>
+  <si>
+    <t>[P] Acute myocardial infarction with inpatient admission (7Pe, 180Era)</t>
+  </si>
+  <si>
+    <t>[P] Influenza diagnosis or positive test result (7Pe, 90Era)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum post: 
-Logic: all events of ischemic or hemorrhagic stroke in an inpatient or ER visit.</t>
-  </si>
-  <si>
-    <t>[P] Acute myocardial infarction with inpatient admission (7Pe, 180Era)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900
-Logic: all events of acute myocardial infarction in an inpatient or ER visit.</t>
-  </si>
-  <si>
-    <t>[P] Influenza diagnosis or positive test result (7Pe, 90Era)</t>
+Logic: all events of influenza diagnosis, or positive influenza test result.</t>
+  </si>
+  <si>
+    <t>[P] Hemorrhagic stroke (intracerebral bleeding) with inpatient admission (7Ps, 180Era)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum post: 
-Logic: all events of influenza diagnosis, or positive influenza test result.</t>
-  </si>
-  <si>
-    <t>[W] Pregnancy (270P, 0Era)</t>
-  </si>
-  <si>
-    <t>[P] Hemorrhagic stroke (intracerebral bleeding) with inpatient admission (7Ps, 180Era)</t>
+Logic: all events of hemorrhagic stroke while inpatient or ER setting..</t>
+  </si>
+  <si>
+    <t>[P] Ischemic stroke with inpatient admission (7Ps, 180Era)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum post: 
-Logic: all events of hemorrhagic stroke while inpatient or ER setting..</t>
-  </si>
-  <si>
-    <t>[P] Ischemic stroke with inpatient admission (7Ps, 180Era)</t>
+Logic: all events of ischemic stroke while inpatient  or ER setting..</t>
+  </si>
+  <si>
+    <t>[P] Transient ischemic attack with inpatient admission (7Ps, 30Era)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum post: 
-Logic: all events of ischemic stroke while inpatient  or ER setting..</t>
-  </si>
-  <si>
-    <t>[P] Transient ischemic attack with inpatient admission (7Ps, 30Era)</t>
+Logic: all events of transient ischemic attack while in inpatient or ER setting.</t>
+  </si>
+  <si>
+    <t>[P] Cardiac arrhythmia with inpatient admission (1Pe, 30Era)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum post: 
-Logic: all events of transient ischemic attack while in inpatient or ER setting.</t>
-  </si>
-  <si>
-    <t>[P] Gastrointestinal bleeding with inpatient admission (7Ps, 30Era)</t>
+Logic: all events of cardiac arrhythmia or treatments for cardiac arrhythmia in inpatient or ER setting</t>
+  </si>
+  <si>
+    <t>[P] Dialysis with inpatient admission (1Ps, 7Era)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum post: 
-Logic: all events of gastrointestinal hemorrhage in inpatient or ER setting</t>
-  </si>
-  <si>
-    <t>[P] Cardiac arrhythmia with inpatient admission (1Pe, 30Era)</t>
+Logic: all events of dialysis in inpatient setting</t>
+  </si>
+  <si>
+    <t>[P] Cesarean section (7Pe, 180Era)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum post: 
-Logic: all events of cardiac arrhythmia or treatments for cardiac arrhythmia in inpatient or ER setting</t>
-  </si>
-  <si>
-    <t>[P] Dialysis with inpatient admission (1Ps, 7Era)</t>
+Logic: all events of Cesarean section.</t>
+  </si>
+  <si>
+    <t>[P] Intensive services during hospitalization (1Ps, 30Era)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum post: 
-Logic: all events of dialysis in inpatient setting</t>
-  </si>
-  <si>
-    <t>[P] Extracorporeal Membrane Oxygenation with inpatient admission (1Pe, 30Era)</t>
+Logic: all events of intensive care service in an inpatient setting</t>
+  </si>
+  <si>
+    <t>[P] SARS-CoV-2 test (1pos) or COVID-19 diagnosis with (1pos or 0 neg 0d to 3d) (3Ps, 180Era)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum post: 
-Logic: all events of Extracorporeal Membrane Oxygenation in inpatient setting.</t>
-  </si>
-  <si>
-    <t>[P] Cesarean section (7Pe, 180Era)</t>
+Logic: all events of positive SAR-CoV-2 test result or Covid-19 diagnosis without a negative test result on or within 3 days of diagnosis.</t>
+  </si>
+  <si>
+    <t>[P] SARS-CoV-2 test (1pos) or COVID-19 diagnosis with (1pos or 0 neg 0d to 3d) (3Ps, 21Era)</t>
+  </si>
+  <si>
+    <t>[W] SARS-CoV-2 test positive or negative result (0Ps, 0Era)</t>
+  </si>
+  <si>
+    <t>[W] SARS-CoV-2 test (1Ps, 0Era)</t>
+  </si>
+  <si>
+    <t>[P] Delirium (7Pe, 0Era, 90W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: first occurrence of Delirium</t>
+  </si>
+  <si>
+    <t>[P] Alzheimer's disease</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum post: 
-Logic: all events of Cesarean section.</t>
-  </si>
-  <si>
-    <t>[P] Intensive services during hospitalization (1Ps, 30Era)</t>
+Logic: first occurrence of Alzheimer's disease</t>
+  </si>
+  <si>
+    <t>[P] Systemic lupus erythematosus (FP)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum post: 
-Logic: all events of intensive care service in an inpatient setting</t>
-  </si>
-  <si>
-    <t>[P] SARS-CoV-2 test (1pos) or COVID-19 diagnosis with (1pos or 0 neg 0d to 3d) (3Ps, 180Era)</t>
+Logic: first signs and symptoms suggestive of SLE or first treatment suggestive of SLE with SLE diagnosis with 90 days.</t>
+  </si>
+  <si>
+    <t>[W] First event of Suicide attempt, including injuries and poisonings with undetermined, 365 days</t>
+  </si>
+  <si>
+    <t>[P] Right Upper Quadrant Pain (Pe1, 0Era, 14W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: all events of right upper quadrant pain with no right upper quadrant pain in prior 14 days washout period.</t>
+  </si>
+  <si>
+    <t>[P] Fatigue, Malaise, Lethargy, Anorexia (Pe1, 0Era, 14W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: events with a diagnosis of Fatigue, Malaise, Lethargy, Anorexia but not due to senile, cancer or stroke</t>
+  </si>
+  <si>
+    <t>[P] Jaundice or Itching (Pe1, 0Era, 14W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: events of jaundice or itching</t>
+  </si>
+  <si>
+    <t>[P] Encephalopathy or its presentations (Pe1, 0Era, 30W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: events Encephalopathy or its presentations</t>
+  </si>
+  <si>
+    <t>[P] Urothelial bladder cancer (FP)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: 
 Forum post: 
-Logic: all events of positive SAR-CoV-2 test result or Covid-19 diagnosis without a negative test result on or within 3 days of diagnosis.</t>
-  </si>
-  <si>
-    <t>[P] SARS-CoV-2 test (1pos) or COVID-19 diagnosis with (1pos or 0 neg 0d to 3d) (3Ps, 21Era)</t>
-  </si>
-  <si>
-    <t>[W] SARS-CoV-2 test positive or negative result (0Ps, 0Era)</t>
-  </si>
-  <si>
-    <t>[W] SARS-CoV-2 test (1Ps, 0Era)</t>
-  </si>
-  <si>
-    <t>[P] Delirium (FP)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum post: 
-Logic: first occurrence of Delirium</t>
-  </si>
-  <si>
-    <t>[P] Alzheimer's disease</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum post: 
-Logic: first occurrence of Alzheimer's disease</t>
-  </si>
-  <si>
-    <t>[P] Systemic lupus erythematosus (FP)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum post: 
-Logic: first signs and symptoms suggestive of SLE or first treatment suggestive of SLE with SLE diagnosis with 90 days.</t>
-  </si>
-  <si>
-    <t>[W] First event of Suicide attempt, including injuries and poisonings with undetermined, 365 days</t>
-  </si>
-  <si>
-    <t>[P] Right Upper Quadrant Pain (Pe1, 0Era, 14W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: all events of right upper quadrant pain with no right upper quadrant pain in prior 14 days washout period.</t>
-  </si>
-  <si>
-    <t>[P] Abdominal Distension (Pe1, 0Era, 14W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: all events of abdominal distention with no abdominal distention in prior 14 days washout period.</t>
-  </si>
-  <si>
-    <t>[P] Fatigue, Malaise, Lethargy, Anorexia (Pe1, 0Era, 14W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-transverse-myelitis/17769
-Logic: events with a diagnosis of Fatigue, Malaise, Lethargy, Anorexia but not due to senile, cancer or stroke</t>
-  </si>
-  <si>
-    <t>[P] Nausea or Vomiting (Pe1, 0Era, 7W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: all events of Nausea or Vomiting with 7 days washout</t>
-  </si>
-  <si>
-    <t>[P] Jaundice or Itching (Pe1, 0Era, 14W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post:
-Logic: events of jaundice or itching</t>
-  </si>
-  <si>
-    <t>[P] Encephalopathy or its presentations (Pe1, 0Era, 30W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: events Encephalopathy or its presentations</t>
-  </si>
-  <si>
-    <t>[P] Urothelial bladder cancer (FP)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum post: 
 Logic: earliest urothelial cancer</t>
   </si>
   <si>
@@ -729,15 +649,6 @@
     <t>Grandfathered cohort with unclear history. No clinical description, evaluation or discussions found. May need to be revisited in future.</t>
   </si>
   <si>
-    <t>[P] Coronary Artery Disease from vessel disease to ischemic injury (FP)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: first occurrence of coronary artery disease</t>
-  </si>
-  <si>
     <t>[W] Crohns disease (FP)</t>
   </si>
   <si>
@@ -762,18 +673,12 @@
     <t>[P] Acquired Pure Red Cell Aplasia</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-acquired-pure-red-cell-aplasia/17854
-Logic: earliest of acquired pure red cell aplasia indexed on anemia, with no congenital or genetic anemia or constitutional apalsia, and no erroneous measurements such as normal hemoglobin or hematocrit. Persons should not have constitutional aplasia as it represents congenital form of aplasia and should not have bone marrow transplantation.</t>
-  </si>
-  <si>
-    <t>[P] Neutropenic Fever (3Pe, 30Era)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>[P] Febrile Neutropenia or Neutropenic Fever (3Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-febrile-neutropenia-or-neutropenic-fever/17876
 Logic: all events of febrile neutropenia or fever with neutropenia or infection with neutropenia in an inpatient or emergency room setting</t>
   </si>
   <si>
@@ -798,12 +703,6 @@
     <t>[P] Pancytopenia, Acquired</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: all events of pancytopenia indexed on diagnosis or lab results, with no congenital explanations for the pancytopenia.</t>
-  </si>
-  <si>
     <t>[P] Acquired Neutropenia or unspecified leukopenia (21Pe, 365Era)</t>
   </si>
   <si>
@@ -822,7 +721,7 @@
 Logic: all events of neutropenia indexed on diagnosis or lab results with no congenital or genetic neutropenia, and no other cell lines reduced at the same time.</t>
   </si>
   <si>
-    <t>[P] Isolated Immune Thrombocytopenia (180Pe, 365Era)</t>
+    <t>[P] Isolated Immune Thrombocytopenia (180Pe, 0Era, 365W)</t>
   </si>
   <si>
     <t>Status: Pending peer review.
@@ -834,30 +733,18 @@
     <t>[P] Isolated Immune Thrombocytopenia in absence of common thrombocytopenia causes (180Pe, 365Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: events of Immune Thrombocytopenia (ITP) with no evidence of congenital or genetic thrombocytopenia, and no simultaneous neutropenia, pancytopenia, bone marrow involvement, anemia. Persons exit after 180 days or when they have normal platelet count. Also no evidence of common causes of thrombocytopenia including hypersplenism, antiphospholipid syndrome, paroxysmal noctural hemoglobinuria, hemolytic uremic syndrome, thrombotic microangiopathy, major autoimmune disorders, chronic liver disease, pregnancy HELLP, tumors of hematopoietic cells or nutritional deficiency.</t>
-  </si>
-  <si>
     <t>[P] Thrombotic microangiopathy (TMA) or Microangiopathic hemolytic anemia (MAHA)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: events of Immune Thrombotic microangiopathy or microangiopathic hemolytic anemia indexed on the diagnosis or its treatment or investigation. Persons with congenital or genetic thrombocytopenia are excluded. Events with bone marrow disorder or recent sepsis are excluded.</t>
+    <t xml:space="preserve">Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
+Logic: earliest events of Immune Thrombotic microangiopathy or microangiopathic hemolytic anemia indexed on the diagnosis or its treatment or investigation. Persons with congenital or genetic thrombocytopenia are excluded. </t>
   </si>
   <si>
     <t>[P] Rhabdomyolysis (3Pe, 0Era, 180W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: all events of rhabdomyolysis with hospitalization and no recent trauma, burn, drowning, hypothermia, hyperthermia, hyperpyrexia, crush syndrome, sepsis, march myoglobinuria, exertional rhabdomyolysis, or alcohol intoxication.</t>
-  </si>
-  <si>
     <t>[P] Sudden Cardiac arrest or cardiac death</t>
   </si>
   <si>
@@ -876,22 +763,13 @@
 Logic: all events of angioedema, with no recent cardiac edema, cellulitis, erysipelas, dermatitis or eczema, lymphedema or insect bites.</t>
   </si>
   <si>
-    <t>[P] Anaphylaxis Non Environmental exposure related (1Pe, 0Era, 30W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: all events of anaphylaxis that is not due to environmental etiology and no food, substance, insect bite or sting, poisoning as an explanation for anaphylaxis.</t>
-  </si>
-  <si>
     <t>[P] Stevens-Johnson syndrome, toxic epidermal necrolysis spectrum</t>
   </si>
   <si>
     <t>Status: Pending peer review.
 Contributor: Gowtham A. Rao
 Forum post: 
-Logic: earliest event of stevens johnson syndrome or toxic epiderman necrolysis syndrome in an inpatient or Emergency room setting</t>
+Logic: earliest event of Stevens Johnson syndrome or toxic epidermal necrolysis syndrome in an inpatient or Emergency room setting</t>
   </si>
   <si>
     <t>[P] Posterior reversible encephalopathy syndrome PRES (FP)</t>
@@ -975,12 +853,13 @@
 Logic: all events of erythema multiformae with 365 days washout period</t>
   </si>
   <si>
-    <t>[P] Paresthesia (3Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>[P] Paresthesia (3Pe, 0Era, 90W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: all events of paresthesia with 365 days washout period</t>
   </si>
   <si>
@@ -1038,15 +917,6 @@
 Logic: events of optic neuritis with no events in prior clean window.</t>
   </si>
   <si>
-    <t>[P] Narcolepsy events (1Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-narcolepsy/17784
-Logic description: All events of Narcolepsy (includes cataplexy with narcolepsy) with no such events in prior clean window period (365 days). Persons should not be diagnosed with hypersomnia. Persons exit the cohort on end_date + 90 days as persons are assumed to have the condition for at least 90 days.</t>
-  </si>
-  <si>
     <t>[P] Muscle weakness or monoplegia (1Pe, 0Era, 365W)</t>
   </si>
   <si>
@@ -1060,8 +930,9 @@
   </si>
   <si>
     <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: events of urticaria with no events in prior clean window of 30 days</t>
   </si>
   <si>
@@ -1069,8 +940,9 @@
   </si>
   <si>
     <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: events of tinnitus with no events in prior clean window of 365 days</t>
   </si>
   <si>
@@ -1078,8 +950,9 @@
   </si>
   <si>
     <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: events of dizziness with no events in prior clean window of 180 days</t>
   </si>
   <si>
@@ -1110,15 +983,6 @@
 Logic: first event of non obstetric Deep Vein Thrombosis</t>
   </si>
   <si>
-    <t>[P] Disseminated intravascular coagulation DIC (1Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: events of Disseminated Intravascular Coagulation in an inpatient or ER setting with no events in prior 365 day window</t>
-  </si>
-  <si>
     <t>[P] Ischemic (Non-hemorrhagic) Stroke (1Pe, 0Era, 365W)</t>
   </si>
   <si>
@@ -1133,17 +997,11 @@
   <si>
     <t>Status: Pending peer review.
 Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-acute-pancreatitis-and-drug-induced-acute-pancreatitis/17510
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-acute-pancreatitis-and-drug-induced-acute-pancreatitis/17848
 Logic: events of acute pancreatitis in an inpatient or emergency setting with no events in prior washout window of 365 days, and no history of chronic pancreatitis or hereditary or congenital pancreatitis.</t>
   </si>
   <si>
     <t>[P] Drug Induced Acute pancreatitis (7Pe, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-acute-pancreatitis-and-drug-induced-acute-pancreatitis/17510
-Logic: events of acute pancreatitis in an inpatient or emergency setting with no events in prior washout window of 365 days, and no history of chronic pancreatitis or hereditary or congenital pancreatitis. Events with other explanations for acute pancreatitis such as alcoholic pancreatitis, severe alcoholism, recent alcohol intoxication, cholangitis or cholecystitits, biliary tract disease, endoscopic retrograde cholangiopancreatography, intestinal ischemia or obstruction or not eligible.</t>
   </si>
   <si>
     <t>[P] Drug Resistant Epilepsy</t>
@@ -1170,7 +1028,7 @@
   <si>
     <t>Status: Pending peer review.
 Contributor: Gowtham A. Rao
-Forum post: 
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-facial-palsy-lmn-including-bells-palsy-thats-not-umn/17788
 Logic: events of facial palsy with 183 days washout period. Remove persons with congenital facial palsy. Remove events with upper motor neuron disease suggestive of stroke.</t>
   </si>
   <si>
@@ -1183,58 +1041,10 @@
 Logic: All events of Emergency Room visits or code</t>
   </si>
   <si>
-    <t>[P] Anaphylaxis or Anaphylactic shock events (1Pe, 0Era, 30W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Erica Voss
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-24-anaphylaxis/16033
-Logic: all events of anaphylaxis or anaphylaxis shock due to serum with no events in prior clean window.</t>
-  </si>
-  <si>
-    <t>[P] Anaphylaxis all cause (1Pe, 0Era, 30W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: all events of anaphylaxis including due to vaccine exposure</t>
-  </si>
-  <si>
     <t>[P] ST elevated myocardial infarction with inpatient admission (7Pe, 180Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900
-Logic: all events of ST segment acute myocardial infarction in an inpatient or ER visit.</t>
-  </si>
-  <si>
     <t>[P] Non ST elevated myocardial infarction with inpatient admission (7Pe, 180Era)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900
-Logic: all events of Non ST segment acute myocardial infarction in an inpatient or ER visit.</t>
-  </si>
-  <si>
-    <t>[P] Unstable Angina with inpatient admission (7Pe, 180Era)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900
-Logic: all events of Unstable Angina in an inpatient or ER visit.</t>
-  </si>
-  <si>
-    <t>[P] Unstable Angina OR NSTEMI with inpatient admission (7Pe, 180Era)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900
-Logic: all events of Unstable Angina or NSTEMI in an inpatient or ER visit.</t>
   </si>
   <si>
     <t>[P] Acute Hepatic Failure in persons with liver disease (90Pe, 180W)</t>
@@ -1292,6 +1102,220 @@
   </si>
   <si>
     <t>[P] Hemolytic Anemia Intra corpuscular (FP)</t>
+  </si>
+  <si>
+    <t>[P] usea or Vomiting (3Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: All events of usea or vomiting</t>
+  </si>
+  <si>
+    <t>[W] Exposure to SARS-Cov 2 and corovirus (7Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>[P] Asthma or Chronic obstructive pulmory disease (COPD) (FP)</t>
+  </si>
+  <si>
+    <t>[P] Chronic obstructive pulmory disease (COPD) without asthma (FP)</t>
+  </si>
+  <si>
+    <t>[P] Malignt neoplasm excluding non-melanoma skin cancer (FP)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: 
+Forum: 
+Logic: Persons with a malignt neoplastic disease or history of malignt neoplastic disease.</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum: 
+Logic: Earliest of any Heart disease or arteriosclerosis of corory artery bypass graft.</t>
+  </si>
+  <si>
+    <t>[W] End stage rel disease (FP)</t>
+  </si>
+  <si>
+    <t>[W] End stage rel disease broad (FP)</t>
+  </si>
+  <si>
+    <t>[P] Respiratory or pulmory tuberculosis (FP)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum: 
+Logic: Earliest occurrence of respiratory or pulmory tuberculosis</t>
+  </si>
+  <si>
+    <t>Status: Accepted
+hashTag: #Accepted, #Level2
+Reviewer: Evan Minty
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-transverse-myelitis/17769
+Logic: events with a diagnosis of transverse myelitis indexed on diagnosis of transverse myelitis, related spil disease or symptoms of transverse myelitis, followed by a diagnosis of transverse myelitis within 30 days. Events have a 365 days washout period. The events persist for 1 day. Symptoms of Transverse Myelitis included asthenia, muscle weakness, myelitis, paresthesia.</t>
+  </si>
+  <si>
+    <t>[W] Acute rel failure with inpatient admission (3Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angi/15900
+Logic: all events of acute myocardial infarction in an inpatient or ER visit.</t>
+  </si>
+  <si>
+    <t>[W] Pregncy (270P, 0Era)</t>
+  </si>
+  <si>
+    <t>[P] Gastrointestil bleeding with inpatient admission (7Ps, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: 
+Forum post: 
+Logic: all events of gastrointestil hemorrhage in inpatient or ER setting</t>
+  </si>
+  <si>
+    <t>[P] Extracorporeal Membrane Oxygetion with inpatient admission (1Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: 
+Forum post: 
+Logic: all events of Extracorporeal Membrane Oxygetion in inpatient setting.</t>
+  </si>
+  <si>
+    <t>[P] Abdomil Distension (Pe7, 0Era, 90W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: all events of abdomil distention with no abdomil distention in prior 14 days washout period.</t>
+  </si>
+  <si>
+    <t>[P] Corory Artery Disease from vessel disease to ischemic injury (FP)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
+Logic: first occurrence of corory artery disease</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-acquired-pure-red-cell-aplasia/17854
+Logic: earliest of acquired pure red cell aplasia indexed on anemia, with no congenital or genetic anemia or constitutiol aplasia, and no erroneous measurements such as normal hemoglobin or hematocrit. Persons should not have constitutiol aplasia as it represents congenital form of aplasia and should not have bone marrow transplantation.</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
+Logic: all events of pancytopenia indexed on diagnosis or lab results, with no congenital explations for the pancytopenia.</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
+Logic: events of Immune Thrombocytopenia (ITP) with no evidence of congenital or genetic thrombocytopenia, and no simultaneous neutropenia, pancytopenia, bone marrow involvement, anemia. Persons exit after 180 days or when they have normal platelet count. Also no evidence of common causes of thrombocytopenia including hypersplenism, antiphospholipid syndrome, paroxysmal noctural hemoglobinuria, hemolytic uremic syndrome, thrombotic microangiopathy, major autoimmune disorders, chronic liver disease, pregncy HELLP, tumors of hematopoietic cells or nutritiol deficiency.</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
+Logic: all events of rhabdomyolysis with hospitalization and no recent trauma, burn, drowning, hypothermia, hyperthermia, hyperpyrexia, crush syndrome, sepsis, march myoglobinuria, exertiol rhabdomyolysis, or alcohol intoxication.</t>
+  </si>
+  <si>
+    <t>[P] Aphylaxis Non Environmental exposure related (1Pe, 0Era, 30W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-aphylaxis/17835
+Logic: all events of aphylaxis that is not due to environmental etiology and no food, substance, insect bite or sting, poisoning as an explation for aphylaxis.</t>
+  </si>
+  <si>
+    <t>[P] rcolepsy events (1Pe, 0Era, 365W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-rcolepsy/17784
+Logic description: All events of rcolepsy (includes cataplexy with rcolepsy) with no such events in prior clean window period (365 days). Persons should not be diagnosed with hypersomnia. Persons exit the cohort on end_date + 90 days as persons are assumed to have the condition for at least 90 days.</t>
+  </si>
+  <si>
+    <t>[P] Dissemited intravascular coagulation DIC (1Pe, 0Era, 365W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
+Logic: events of Dissemited Intravascular Coagulation in an inpatient or ER setting with no events in prior 365 day window</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-acute-pancreatitis-and-drug-induced-acute-pancreatitis/17848
+Logic: events of acute pancreatitis in an inpatient or emergency setting with no events in prior washout window of 365 days, and no history of chronic pancreatitis or hereditary or congenital pancreatitis. Events with other explations for acute pancreatitis such as alcoholic pancreatitis, severe alcoholism, recent alcohol intoxication, cholangitis or cholecystitits, biliary tract disease, endoscopic retrograde cholangiopancreatography, intestil ischemia or obstruction or not eligible.</t>
+  </si>
+  <si>
+    <t>[P] Aphylaxis or Aphylactic shock events (1Pe, 0Era, 30W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Erica Voss
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-24-aphylaxis/16033
+Logic: all events of aphylaxis or aphylaxis shock due to serum with no events in prior clean window.</t>
+  </si>
+  <si>
+    <t>[P] Aphylaxis all cause (1Pe, 0Era, 30W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
+Logic: all events of aphylaxis including due to vaccine exposure</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angi/15900
+Logic: all events of ST segment acute myocardial infarction in an inpatient or ER visit.</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angi/15900
+Logic: all events of Non ST segment acute myocardial infarction in an inpatient or ER visit.</t>
+  </si>
+  <si>
+    <t>[P] Unstable Angi with inpatient admission (7Pe, 180Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angi/15900
+Logic: all events of Unstable Angi in an inpatient or ER visit.</t>
+  </si>
+  <si>
+    <t>[P] Unstable Angi OR NSTEMI with inpatient admission (7Pe, 180Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angi/15900
+Logic: all events of Unstable Angi or NSTEMI in an inpatient or ER visit.</t>
+  </si>
+  <si>
+    <t>cohortName</t>
   </si>
 </sst>
 </file>
@@ -2102,16 +2126,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J163"/>
+  <dimension ref="A1:J162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="53.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2119,31 +2142,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2151,16 +2174,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>44461</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2168,16 +2191,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>44461</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2185,16 +2208,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>44462</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2202,16 +2225,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>44462</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2219,16 +2242,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>44462</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2236,16 +2259,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>44462</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2253,16 +2276,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>44462</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2270,16 +2293,16 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
         <v>44462</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2287,16 +2310,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
         <v>44462</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>28</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2304,16 +2327,16 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
         <v>44462</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2321,16 +2344,16 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
         <v>44462</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2338,16 +2361,16 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1">
         <v>44462</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2355,16 +2378,16 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
         <v>44462</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2372,16 +2395,16 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1">
         <v>44462</v>
       </c>
       <c r="J15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2389,16 +2412,16 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>257</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
         <v>44462</v>
       </c>
       <c r="J16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2406,16 +2429,16 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1">
         <v>44462</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2423,16 +2446,16 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1">
         <v>44462</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2440,16 +2463,16 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
         <v>44462</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2457,16 +2480,16 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1">
         <v>44462</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2474,16 +2497,16 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1">
         <v>44462</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2491,16 +2514,16 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1">
         <v>44462</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2508,10 +2531,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D23" s="1">
         <v>44462</v>
@@ -2520,7 +2543,7 @@
         <v>3.5</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2528,10 +2551,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1">
         <v>44462</v>
@@ -2540,7 +2563,7 @@
         <v>3.5</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2548,10 +2571,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D25" s="1">
         <v>44462</v>
@@ -2560,7 +2583,7 @@
         <v>3.5</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2568,16 +2591,16 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>258</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1">
         <v>44462</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2585,16 +2608,16 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1">
         <v>44462</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2602,16 +2625,16 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>259</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1">
         <v>44462</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2619,16 +2642,16 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1">
         <v>44462</v>
       </c>
       <c r="J29" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2636,84 +2659,84 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1">
         <v>44462</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="315" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>260</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1">
         <v>44462</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1">
         <v>44462</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="285" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1">
         <v>44462</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="315" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1">
         <v>44462</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2721,67 +2744,67 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D35" s="1">
         <v>44462</v>
       </c>
       <c r="J35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="330" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1">
         <v>44462</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1">
         <v>44462</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="315" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1">
         <v>44462</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>80</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2789,33 +2812,33 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>263</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D39" s="1">
         <v>44462</v>
       </c>
       <c r="J39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="300" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1">
         <v>44462</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2823,16 +2846,16 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D41" s="1">
         <v>44462</v>
       </c>
       <c r="J41" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2840,33 +2863,33 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>264</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D42" s="1">
         <v>44462</v>
       </c>
       <c r="J42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>265</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1">
         <v>44462</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>87</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2874,16 +2897,16 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1">
         <v>44463</v>
       </c>
       <c r="J44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2891,16 +2914,16 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1">
         <v>44463</v>
       </c>
       <c r="J45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2908,16 +2931,16 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46" s="1">
         <v>44463</v>
       </c>
       <c r="J46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2925,16 +2948,16 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47" s="1">
         <v>44463</v>
       </c>
       <c r="J47" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2942,16 +2965,16 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D48" s="1">
         <v>44463</v>
       </c>
       <c r="J48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2959,16 +2982,16 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1">
         <v>44463</v>
       </c>
       <c r="J49" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2976,16 +2999,16 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1">
         <v>44463</v>
       </c>
       <c r="J50" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2993,33 +3016,33 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1">
         <v>44463</v>
       </c>
       <c r="J51" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="C52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D52" s="1">
         <v>44463</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3027,50 +3050,50 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D53" s="1">
         <v>44463</v>
       </c>
       <c r="J53" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="360" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1">
         <v>44469</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D55" s="1">
         <v>44469</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3078,16 +3101,16 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56" s="1">
         <v>44474</v>
       </c>
       <c r="J56" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3095,16 +3118,16 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57" s="1">
         <v>44474</v>
       </c>
       <c r="J57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3112,84 +3135,87 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D58" s="1">
         <v>44474</v>
       </c>
       <c r="J58" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="375" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D59" s="1">
         <v>44474</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60" s="1">
         <v>44474</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D61" s="1">
         <v>44474</v>
       </c>
+      <c r="E61">
+        <v>3.6</v>
+      </c>
       <c r="J61" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D62" s="1">
         <v>44474</v>
       </c>
-      <c r="J62" t="s">
-        <v>97</v>
+      <c r="J62" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3197,16 +3223,16 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D63" s="1">
         <v>44474</v>
       </c>
       <c r="J63" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3214,16 +3240,16 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>268</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1">
         <v>44474</v>
       </c>
       <c r="J64" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3231,16 +3257,16 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D65" s="1">
         <v>44474</v>
       </c>
       <c r="J65" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3248,16 +3274,16 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D66" s="1">
         <v>44474</v>
       </c>
       <c r="J66" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3265,67 +3291,67 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D67" s="1">
         <v>44474</v>
       </c>
       <c r="J67" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="300" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D68" s="1">
         <v>44474</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D69" s="1">
         <v>44474</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="285" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D70" s="1">
         <v>44474</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3333,203 +3359,203 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>127</v>
+        <v>270</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D71" s="1">
         <v>44474</v>
       </c>
       <c r="J71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D72" s="1">
         <v>44474</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D73" s="1">
         <v>44474</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D74" s="1">
         <v>44474</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="270" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>134</v>
+        <v>271</v>
       </c>
       <c r="C75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D75" s="1">
         <v>44474</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="330" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D76" s="1">
         <v>44474</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="225" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D77" s="1">
         <v>44474</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="285" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>140</v>
+        <v>273</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D78" s="1">
         <v>44474</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D79" s="1">
         <v>44474</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D80" s="1">
         <v>44474</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="405" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81" s="1">
         <v>44478</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="405" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D82" s="1">
         <v>44478</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -3537,16 +3563,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D83" s="1">
         <v>44480</v>
       </c>
       <c r="J83" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3554,67 +3580,67 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D84" s="1">
         <v>44490</v>
       </c>
       <c r="J84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D85" s="1">
         <v>44596</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="225" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D86" s="1">
         <v>44598</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="360" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>119</v>
       </c>
       <c r="B87" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D87" s="1">
         <v>44602</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3622,1295 +3648,1277 @@
         <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C88" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D88" s="1">
         <v>44603</v>
       </c>
       <c r="J88" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>189</v>
       </c>
       <c r="B89" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D89" s="1">
         <v>44741</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>190</v>
       </c>
       <c r="B90" t="s">
-        <v>160</v>
+        <v>275</v>
       </c>
       <c r="C90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D90" s="1">
         <v>44741</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>191</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D91" s="1">
         <v>44741</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B92" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="C92" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D92" s="1">
         <v>44741</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B93" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="C93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D93" s="1">
         <v>44741</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B94" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="C94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D94" s="1">
-        <v>44741</v>
+        <v>44742</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B95" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C95" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D95" s="1">
         <v>44742</v>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J95" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B96" t="s">
-        <v>172</v>
+        <v>277</v>
       </c>
       <c r="C96" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D96" s="1">
         <v>44742</v>
       </c>
-      <c r="J96" t="s">
-        <v>173</v>
+      <c r="J96" s="2" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B97" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C97" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="D97" s="1">
         <v>44742</v>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>175</v>
+      <c r="J97" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B98" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="C98" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D98" s="1">
         <v>44742</v>
       </c>
       <c r="J98" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B99" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="C99" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D99" s="1">
         <v>44742</v>
       </c>
       <c r="J99" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B100" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="C100" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D100" s="1">
         <v>44742</v>
       </c>
       <c r="J100" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B101" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C101" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D101" s="1">
-        <v>44742</v>
+        <v>44875</v>
       </c>
       <c r="J101" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B102" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C102" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D102" s="1">
         <v>44875</v>
       </c>
       <c r="J102" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B103" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C103" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D103" s="1">
         <v>44875</v>
       </c>
-      <c r="J103" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J103" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B104" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D104" s="1">
         <v>44875</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B105" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="C105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D105" s="1">
-        <v>44875</v>
+        <v>44876</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="C106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D106" s="1">
         <v>44876</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B107" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D107" s="1">
         <v>44876</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B108" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="C108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D108" s="1">
         <v>44876</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B109" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="C109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D109" s="1">
         <v>44876</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B110" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="C110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D110" s="1">
         <v>44876</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B111" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="C111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D111" s="1">
         <v>44876</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B112" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="C112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D112" s="1">
         <v>44876</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B113" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="C113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D113" s="1">
         <v>44876</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="285" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B114" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="C114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D114" s="1">
         <v>44876</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B115" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="C115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D115" s="1">
         <v>44876</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B116" t="s">
-        <v>207</v>
+        <v>283</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D116" s="1">
         <v>44876</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B117" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="C117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D117" s="1">
         <v>44876</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B118" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D118" s="1">
-        <v>44876</v>
+        <v>44877</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="345" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B119" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D119" s="1">
         <v>44877</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="300" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B120" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="C120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D120" s="1">
         <v>44877</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="315" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B121" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="C121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D121" s="1">
         <v>44877</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B122" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="C122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D122" s="1">
         <v>44877</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B123" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="C123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D123" s="1">
         <v>44877</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B124" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="C124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D124" s="1">
         <v>44877</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B125" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D125" s="1">
         <v>44877</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="315" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B126" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D126" s="1">
         <v>44877</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B127" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="C127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D127" s="1">
         <v>44877</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="360" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B128" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D128" s="1">
         <v>44877</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="360" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B129" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D129" s="1">
         <v>44877</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="300" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B130" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="C130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D130" s="1">
         <v>44877</v>
       </c>
       <c r="J130" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+      <c r="A131">
         <v>236</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>235</v>
-      </c>
       <c r="B131" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D131" s="1">
         <v>44877</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="315" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B132" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="C132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D132" s="1">
         <v>44877</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="285" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B133" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="C133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D133" s="1">
         <v>44877</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B134" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="C134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D134" s="1">
         <v>44877</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="360" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B135" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="C135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D135" s="1">
         <v>44877</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B136" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="C136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D136" s="1">
         <v>44877</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B137" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
       <c r="C137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D137" s="1">
         <v>44877</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B138" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="C138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D138" s="1">
         <v>44877</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B139" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="C139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D139" s="1">
         <v>44877</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B140" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="C140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D140" s="1">
         <v>44877</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B141" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="C141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D141" s="1">
         <v>44877</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="405" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B142" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="C142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D142" s="1">
         <v>44877</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="375" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B143" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="C143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D143" s="1">
         <v>44877</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B144" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="C144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D144" s="1">
-        <v>44877</v>
+        <v>44880</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B145" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="C145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D145" s="1">
         <v>44880</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B146" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="C146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D146" s="1">
-        <v>44880</v>
+        <v>44882</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="300" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B147" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D147" s="1">
-        <v>44882</v>
+        <v>44883</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B148" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="C148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D148" s="1">
-        <v>44883</v>
+        <v>44887</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="240" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B149" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="C149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D149" s="1">
         <v>44887</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B150" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D150" s="1">
-        <v>44887</v>
+        <v>44893</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="300" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B151" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D151" s="1">
         <v>44893</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B152" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="C152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D152" s="1">
-        <v>44893</v>
+        <v>44894</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B153" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="C153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D153" s="1">
         <v>44894</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B154" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="C154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D154" s="1">
         <v>44894</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B155" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C155" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D155" s="1">
         <v>44894</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="330" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B156" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="C156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D156" s="1">
         <v>44894</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="315" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B157" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="C157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D157" s="1">
         <v>44894</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B158" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
       <c r="C158" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D158" s="1">
         <v>44894</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B159" t="s">
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="C159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D159" s="1">
         <v>44894</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B160" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="C160" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D160" s="1">
         <v>44894</v>
       </c>
       <c r="J160" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B161" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D161" s="1">
-        <v>44894</v>
+        <v>44895</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B162" t="s">
-        <v>299</v>
+        <v>254</v>
       </c>
       <c r="C162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D162" s="1">
         <v>44895</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>271</v>
-      </c>
-      <c r="B163" t="s">
-        <v>301</v>
-      </c>
-      <c r="C163" t="s">
-        <v>11</v>
-      </c>
-      <c r="D163" s="1">
-        <v>44895</v>
-      </c>
-      <c r="J163" s="2" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J163"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/PhenotypeLog.xlsx
+++ b/inst/PhenotypeLog.xlsx
@@ -14,16 +14,22 @@
   <sheets>
     <sheet name="PhenotypeLog" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PhenotypeLog!$A$1:$J$164</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="307">
   <si>
     <t>cohortId</t>
   </si>
   <si>
+    <t>cohortName</t>
+  </si>
+  <si>
     <t>getResults</t>
   </si>
   <si>
@@ -60,153 +66,166 @@
     <t>[P] Cough or Sputum (3Ps, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Symptoms
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Symptoms_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: All events of cough or sputum finding.</t>
   </si>
   <si>
     <t>[P] Diarrhea (7Ps, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Symptoms
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Symptoms_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: All events of diarrhea.</t>
   </si>
   <si>
     <t>[P] Dyspnea (7Pe, 90Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Symptoms
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Symptoms_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: All events of dyspnea.</t>
   </si>
   <si>
     <t>[P] Fever (3Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Symptoms
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Symptoms_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: All events of fever or elevated temperature measurement.</t>
   </si>
   <si>
     <t>[P] Headache or Headache disorder (7Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Symptoms
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Symptoms_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: All events of Headache or headache disorder</t>
   </si>
   <si>
     <t>[P] Altered smell or taste including Anosmia, Hyposmia or Dysgeusia (7Ps, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Symptoms
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Symptoms_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: Altered smell or taste including Anosmia, Hyposmia or Dysgeusia</t>
   </si>
   <si>
     <t>[P] Sore throat (7Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Symptoms
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Symptoms_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: All events of Sore throat</t>
   </si>
   <si>
+    <t>[P] Nausea or Vomiting (3Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review._x000D_
+hashTag: #Symptoms_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
+Logic: All events of Nausea or vomiting</t>
+  </si>
+  <si>
     <t>[P] Malaise and or fatigue (3P, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Symptoms
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Symptoms_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: All events of Malaise and or fatigue</t>
   </si>
   <si>
     <t>[P] Rhinitis or common cold (7P, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Symptoms
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Symptoms_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: All events of Rhinitis or common cold</t>
   </si>
   <si>
     <t>[P] Myalgia (not explained by injury, ischemia or systemic inflammation) (3Pe, 0Era, 30W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Symptoms
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Symptoms_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: All events of Myalgia. Exclude persons with secondary causes of myalgia explained by injury, ischemia or chronic systemic inflammation.</t>
   </si>
   <si>
     <t>[P] Myalgia (3Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Symptoms
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Symptoms_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: All events of Myalgia.</t>
   </si>
   <si>
     <t>[W] Exposure to Viral Disease (7Pe, 30Era)</t>
   </si>
   <si>
+    <t>[W] Exposure to SARS-Cov 2 and coronavirus (7Pe, 30Era)</t>
+  </si>
+  <si>
     <t>[W] Exposure to SARS-Cov 2 (7Pe, 30Era)</t>
   </si>
   <si>
     <t>[P] Multiple Inflammatory Syndrome (30Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
-Contributor: 
-Forum: 
+    <t>Status: Grandfathered into Phenotype Library. Pending peer review._x000D_
+Contributor: _x000D_
+Forum: _x000D_
 Logic: All events of Multisystem inflammatory syndrome (MIS)</t>
   </si>
   <si>
     <t>[P] Acute Typical Pneumonia (14Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham Rao
-Forum: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham Rao_x000D_
+Forum: _x000D_
 Logic: All events of Acute Typical Pneumonia</t>
   </si>
   <si>
     <t>[P] Bronchitis (14Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Signs
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Signs_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: All events of Bronchitis</t>
   </si>
   <si>
     <t>[P] Acute respiratory distress syndrome (ARDS) or Acute Respiratory Failure (3Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum: 
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum: _x000D_
 Logic: All events of Acute respiratory distress syndrome (ARDS) or Acute Respiratory Failure</t>
   </si>
   <si>
@@ -219,48 +238,54 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Status: Accepted. This cohort is deemed validated as it represents data convention and did not need to go thru peer review process.
-Contributor: Gowtham A. Rao
-Forum: 
+    <t>Status: Accepted. This cohort is deemed validated as it represents data convention and did not need to go thru peer review process._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: _x000D_
 Logic: All events of Inpatient visit</t>
   </si>
   <si>
     <t>Emergency room visits (0Pe, 0Era)</t>
   </si>
   <si>
-    <t>Status: Accepted. This cohort is deemed validated as it represents data convention and did not need to go thru peer review process.
-Contributor: Gowtham A Rao
-Forum: 
+    <t>Status: Accepted. This cohort is deemed validated as it represents data convention and did not need to go thru peer review process._x000D_
+Contributor: Gowtham A Rao_x000D_
+Forum: _x000D_
 Logic: All events of Emergency Room visits.</t>
   </si>
   <si>
     <t>All cause mortality</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum: 
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum: _x000D_
 Logic: Earliest observation of any death</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum: 
+    <t>[P] Asthma or Chronic obstructive pulmonary disease (COPD) (FP)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum: _x000D_
 Logic: Earliest of either COPD or asthma diagnosis or earliest of at least two respiratory therapy separated by 180 days.</t>
   </si>
   <si>
     <t>[P] Asthma without COPD (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum: 
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum: _x000D_
 Logic: Earliest of either asthma diagnosis or therapy for asthma with a history of another asthma therapy more than 180 days before. The person should not have a diagnosis or treatment for COPD in past.</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum: 
+    <t>[P] Chronic obstructive pulmonary disease (COPD) without asthma (FP)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum: _x000D_
 Logic: Earliest of either COPD diagnosis or COPD therapy with no prior asthma diagnosis</t>
   </si>
   <si>
@@ -273,37 +298,46 @@
     <t>[P] Tuberculosis (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum: 
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum: _x000D_
 Logic: Earliest event of tuberculosis with at least 3 different drugs for tuberculosis at anytime on or after diagnosis</t>
   </si>
   <si>
+    <t>[P] Malignant neoplasm excluding non-melanoma skin cancer (FP)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum: _x000D_
+Logic: Persons with a malignant neoplastic disease or history of malignant neoplastic disease.</t>
+  </si>
+  <si>
     <t>[P] Obesity (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Signs
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Signs_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: Persons with obesity diagnosis or a body weight measurement &gt; 120 kg or 265 lbs</t>
   </si>
   <si>
     <t>[P] Dementia (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum: 
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum: _x000D_
 Logic: Persons with the diagnosis of dementia, includes history of Dementia.</t>
   </si>
   <si>
     <t>[P] Hypertensive disorder or hypertensive complications (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: _x000D_
 Logic: Earliest of Hypertensive disorder diagnosis or complication of hypertension.</t>
   </si>
   <si>
@@ -313,36 +347,57 @@
     <t>[P] Human immunodeficiency virus (not HIV2) infection (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum: 
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum: _x000D_
 Logic: Earliest diagnosis of HIV (not HIV2) with another diagnosis in future or a treatment for HIV.</t>
   </si>
   <si>
     <t>[P] Hepatitis C (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum: 
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum: _x000D_
 Logic: Earliest diagnosis of Hepatitis C.</t>
   </si>
   <si>
     <t>[P] Heart disease (FP)</t>
   </si>
   <si>
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: _x000D_
+Logic: Earliest of any Heart disease or arteriosclerosis of coronary artery bypass graft.</t>
+  </si>
+  <si>
+    <t>[W] End stage renal disease (FP)</t>
+  </si>
+  <si>
     <t>[P] Diabetes Mellitus Type 2 (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: _x000D_
 Logic: Earliest of any Type 2 Diabetes Mellitus or History of Diabetes.</t>
   </si>
   <si>
     <t>[W] Chronic kidney disease broad (FP)</t>
   </si>
   <si>
+    <t>[W] End stage renal disease broad (FP)</t>
+  </si>
+  <si>
+    <t>[P] Respiratory or pulmonary tuberculosis (FP)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: _x000D_
+Logic: Earliest occurrence of respiratory or pulmonary tuberculosis</t>
+  </si>
+  <si>
     <t>[W] COVID-19 diagnosis (3Pe, 7Era)</t>
   </si>
   <si>
@@ -376,10 +431,10 @@
     <t>[P] Febrile seizure (1Pe, 0Era, 42W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Signs
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Signs_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: All events of Febrile seizures with no febrile seizure in the 42days washout period, indexed on seizure or febrile seizure.</t>
   </si>
   <si>
@@ -389,19 +444,19 @@
     <t>[P] SARS-CoV-2 test (1pos) or COVID-19 diagnosis with (0 neg -3d to 3d) (3Ps, 21Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: _x000D_
 Logic: All events of Covid Diagnosis without a negative test result or a SARS-Cov-2 test positive test</t>
   </si>
   <si>
     <t>[P] Bleeding (1Pe, 0Era, 30W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Signs
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Signs_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: All events of Bleeding diagnosis with no bleeding in past 30 days.</t>
   </si>
   <si>
@@ -417,32 +472,40 @@
     <t>[P] Bradycardia or heart block with inpatient admission (1Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: _x000D_
 Logic: All events of Bradycardia or heart block or first occurrence of pace maker limited to inpatient visit.</t>
   </si>
   <si>
     <t>[P] Generalized Seizure (1Pe, 0Era, 42W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Signs
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Signs_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: All events of seizure with no seizure events in the prior 42 days clean window</t>
   </si>
   <si>
     <t>Transverse myelitis or symptoms (1Ps, 0Era, 365W)</t>
   </si>
   <si>
+    <t>Status: Accepted_x000D_
+hashTag: #Accepted, #Level2_x000D_
+Reviewer: Evan Minty_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-transverse-myelitis/17769_x000D_
+Logic: events with a diagnosis of transverse myelitis indexed on diagnosis of transverse myelitis, related spinal disease or symptoms of transverse myelitis, followed by a diagnosis of transverse myelitis within 30 days. Events have a 365 days washout period. The events persist for 1 day. Symptoms of Transverse Myelitis included asthenia, muscle weakness, myelitis, paresthesia.</t>
+  </si>
+  <si>
     <t>[P] Flu-like symptoms fever, cough, malaise, fatigue, dyspnea, myalgia (3Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Symptoms, #Signs
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Symptoms, #Signs_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: All events of flue like symptoms or signs</t>
   </si>
   <si>
@@ -452,6 +515,9 @@
     <t>Withdrawn and  replaced by 205</t>
   </si>
   <si>
+    <t>[W] Acute renal failure with inpatient admission (3Pe, 30Era)</t>
+  </si>
+  <si>
     <t>[W] Hepatic failure with inpatient admission (3Pe, 30Era)</t>
   </si>
   <si>
@@ -464,93 +530,120 @@
     <t>[P] Stroke (ischemic or hemorrhagic) with inpatient admission (7Ps, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum post: _x000D_
 Logic: all events of ischemic or hemorrhagic stroke in an inpatient or ER visit.</t>
   </si>
   <si>
     <t>[P] Acute myocardial infarction with inpatient admission (7Pe, 180Era)</t>
   </si>
   <si>
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900_x000D_
+Logic: all events of acute myocardial infarction in an inpatient or ER visit.</t>
+  </si>
+  <si>
     <t>[P] Influenza diagnosis or positive test result (7Pe, 90Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum post: _x000D_
 Logic: all events of influenza diagnosis, or positive influenza test result.</t>
   </si>
   <si>
+    <t>[W] Pregnancy (270P, 0Era)</t>
+  </si>
+  <si>
     <t>[P] Hemorrhagic stroke (intracerebral bleeding) with inpatient admission (7Ps, 180Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum post: _x000D_
 Logic: all events of hemorrhagic stroke while inpatient or ER setting..</t>
   </si>
   <si>
     <t>[P] Ischemic stroke with inpatient admission (7Ps, 180Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum post: _x000D_
 Logic: all events of ischemic stroke while inpatient  or ER setting..</t>
   </si>
   <si>
     <t>[P] Transient ischemic attack with inpatient admission (7Ps, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum post: _x000D_
 Logic: all events of transient ischemic attack while in inpatient or ER setting.</t>
   </si>
   <si>
+    <t>[P] Gastrointestinal bleeding with inpatient admission (7Ps, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum post: _x000D_
+Logic: all events of gastrointestinal hemorrhage in inpatient or ER setting</t>
+  </si>
+  <si>
     <t>[P] Cardiac arrhythmia with inpatient admission (1Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum post: _x000D_
 Logic: all events of cardiac arrhythmia or treatments for cardiac arrhythmia in inpatient or ER setting</t>
   </si>
   <si>
     <t>[P] Dialysis with inpatient admission (1Ps, 7Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum post: _x000D_
 Logic: all events of dialysis in inpatient setting</t>
   </si>
   <si>
+    <t>[P] Extracorporeal Membrane Oxygenation with inpatient admission (1Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum post: _x000D_
+Logic: all events of Extracorporeal Membrane Oxygenation in inpatient setting.</t>
+  </si>
+  <si>
     <t>[P] Cesarean section (7Pe, 180Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum post: _x000D_
 Logic: all events of Cesarean section.</t>
   </si>
   <si>
     <t>[P] Intensive services during hospitalization (1Ps, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum post: _x000D_
 Logic: all events of intensive care service in an inpatient setting</t>
   </si>
   <si>
     <t>[P] SARS-CoV-2 test (1pos) or COVID-19 diagnosis with (1pos or 0 neg 0d to 3d) (3Ps, 180Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum post: _x000D_
 Logic: all events of positive SAR-CoV-2 test result or Covid-19 diagnosis without a negative test result on or within 3 days of diagnosis.</t>
   </si>
   <si>
@@ -566,28 +659,28 @@
     <t>[P] Delirium (7Pe, 0Era, 90W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Symptoms
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Symptoms_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: first occurrence of Delirium</t>
   </si>
   <si>
     <t>[P] Alzheimer's disease</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum post: _x000D_
 Logic: first occurrence of Alzheimer's disease</t>
   </si>
   <si>
     <t>[P] Systemic lupus erythematosus (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum post: _x000D_
 Logic: first signs and symptoms suggestive of SLE or first treatment suggestive of SLE with SLE diagnosis with 90 days.</t>
   </si>
   <si>
@@ -597,49 +690,59 @@
     <t>[P] Right Upper Quadrant Pain (Pe1, 0Era, 14W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Symptoms
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Symptoms_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: all events of right upper quadrant pain with no right upper quadrant pain in prior 14 days washout period.</t>
   </si>
   <si>
+    <t>[P] Abdominal Distension (Pe7, 0Era, 90W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review._x000D_
+hashTag: #Symptoms_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
+Logic: all events of abdominal distention with no abdominal distention in prior 14 days washout period.</t>
+  </si>
+  <si>
     <t>[P] Fatigue, Malaise, Lethargy, Anorexia (Pe1, 0Era, 14W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Symptoms
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Symptoms_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: events with a diagnosis of Fatigue, Malaise, Lethargy, Anorexia but not due to senile, cancer or stroke</t>
   </si>
   <si>
     <t>[P] Jaundice or Itching (Pe1, 0Era, 14W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Symptoms
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Symptoms_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: events of jaundice or itching</t>
   </si>
   <si>
     <t>[P] Encephalopathy or its presentations (Pe1, 0Era, 30W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Symptoms
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Symptoms_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: events Encephalopathy or its presentations</t>
   </si>
   <si>
     <t>[P] Urothelial bladder cancer (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum post: _x000D_
 Logic: earliest urothelial cancer</t>
   </si>
   <si>
@@ -649,6 +752,15 @@
     <t>Grandfathered cohort with unclear history. No clinical description, evaluation or discussions found. May need to be revisited in future.</t>
   </si>
   <si>
+    <t>[P] Coronary Artery Disease from vessel disease to ischemic injury (FP)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
+Logic: first occurrence of coronary artery disease</t>
+  </si>
+  <si>
     <t>[W] Crohns disease (FP)</t>
   </si>
   <si>
@@ -673,649 +785,561 @@
     <t>[P] Acquired Pure Red Cell Aplasia</t>
   </si>
   <si>
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-acquired-pure-red-cell-aplasia/17854_x000D_
+Logic: earliest of acquired pure red cell aplasia indexed on anemia, with no congenital or genetic anemia or constitutional aplasia, and no erroneous measurements such as normal hemoglobin or hematocrit. Persons should not have constitutional aplasia as it represents congenital form of aplasia and should not have bone marrow transplantation.</t>
+  </si>
+  <si>
     <t>[P] Febrile Neutropenia or Neutropenic Fever (3Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-febrile-neutropenia-or-neutropenic-fever/17876
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-febrile-neutropenia-or-neutropenic-fever/17876_x000D_
 Logic: all events of febrile neutropenia or fever with neutropenia or infection with neutropenia in an inpatient or emergency room setting</t>
   </si>
   <si>
     <t>[P] Hemolytic Anemia Extra corpuscular ex hgpathy, memb defect, g6pd (7Pe, 0Era, 365W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-hemolytic-anemia/17856
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-hemolytic-anemia/17856_x000D_
 Logic: all events of hemolytic anemia, indexed on anemia or hemolysis, without congenital or hereditary causes of hemolytic anemia of membrane, enzyme or RBC structure.</t>
   </si>
   <si>
     <t>[P] Hemolytic Anemia Extra corpuscular ex hgpathy, memb defect (7Pe, 0Era, 365W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-hemolytic-anemia/17856
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-hemolytic-anemia/17856_x000D_
 Logic: all events of hemolytic anemia, indexed on anemia or hemolysis, without congenital or hereditary causes of hemolytic anemia of membrane, or RBC structure. Persons with enzyme disorder (e.g. G-6-PD deficiency) are not excluded.</t>
   </si>
   <si>
     <t>[P] Pancytopenia, Acquired</t>
   </si>
   <si>
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
+Logic: all events of pancytopenia indexed on diagnosis or lab results, with no congenital explanations for the pancytopenia.</t>
+  </si>
+  <si>
     <t>[P] Acquired Neutropenia or unspecified leukopenia (21Pe, 365Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-neutropenia/17409
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-neutropenia/17409_x000D_
 Logic: all events of neutropenia indexed on diagnosis or lab results with no congenital or genetic neutropenia.</t>
   </si>
   <si>
     <t>[P] Acquired Isolated Neutropenia or unspecified leukopenia (21Pe, 365Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-neutropenia/17409
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-neutropenia/17409_x000D_
 Logic: all events of neutropenia indexed on diagnosis or lab results with no congenital or genetic neutropenia, and no other cell lines reduced at the same time.</t>
   </si>
   <si>
     <t>[P] Isolated Immune Thrombocytopenia (180Pe, 0Era, 365W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: events of Immune Thrombocytopenia (ITP) with no evidence of congenital or genetic thrombocytopenia, and no simultaneous neutropenia, pancytopenia, bone marrow involvement, anemia. Persons exit after 180 days or when they have normal platelet count.</t>
   </si>
   <si>
     <t>[P] Isolated Immune Thrombocytopenia in absence of common thrombocytopenia causes (180Pe, 365Era)</t>
   </si>
   <si>
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
+Logic: events of Immune Thrombocytopenia (ITP) with no evidence of congenital or genetic thrombocytopenia, and no simultaneous neutropenia, pancytopenia, bone marrow involvement, anemia. Persons exit after 180 days or when they have normal platelet count. Also no evidence of common causes of thrombocytopenia including hypersplenism, antiphospholipid syndrome, paroxysmal noctural hemoglobinuria, hemolytic uremic syndrome, thrombotic microangiopathy, major autoimmune disorders, chronic liver disease, pregnancy HELLP, tumors of hematopoietic cells or nutritional deficiency.</t>
+  </si>
+  <si>
     <t>[P] Thrombotic microangiopathy (TMA) or Microangiopathic hemolytic anemia (MAHA)</t>
   </si>
   <si>
-    <t xml:space="preserve">Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t xml:space="preserve">Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: earliest events of Immune Thrombotic microangiopathy or microangiopathic hemolytic anemia indexed on the diagnosis or its treatment or investigation. Persons with congenital or genetic thrombocytopenia are excluded. </t>
   </si>
   <si>
     <t>[P] Rhabdomyolysis (3Pe, 0Era, 180W)</t>
   </si>
   <si>
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
+Logic: all events of rhabdomyolysis with hospitalization and no recent trauma, burn, drowning, hypothermia, hyperthermia, hyperpyrexia, crush syndrome, sepsis, march myoglobinuria, exertional rhabdomyolysis, or alcohol intoxication.</t>
+  </si>
+  <si>
     <t>[P] Sudden Cardiac arrest or cardiac death</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: earliest event of cardiac arrest with inpatient or ER visit.</t>
   </si>
   <si>
     <t>[P] Angioedema (3Pe, 0Era, 180W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: all events of angioedema, with no recent cardiac edema, cellulitis, erysipelas, dermatitis or eczema, lymphedema or insect bites.</t>
   </si>
   <si>
+    <t>[P] Anaphylaxis Non Environmental exposure related (1Pe, 0Era, 30W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-anaphylaxis/17835_x000D_
+Logic: all events of anaphylaxis that is not due to environmental etiology and no food, substance, insect bite or sting, poisoning as an explanation for anaphylaxis.</t>
+  </si>
+  <si>
     <t>[P] Stevens-Johnson syndrome, toxic epidermal necrolysis spectrum</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: earliest event of Stevens Johnson syndrome or toxic epidermal necrolysis syndrome in an inpatient or Emergency room setting</t>
   </si>
   <si>
     <t>[P] Posterior reversible encephalopathy syndrome PRES (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: all events of posterior reversible encephalopathy syndrome with no hypertensive encephalopathy or eclampsia.</t>
   </si>
   <si>
     <t>[P] Long QT Syndrome or QT prolonged (Acquired)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: all events of Long QT or QT prolonged. Exclude persons with congenital QT syndrome.</t>
   </si>
   <si>
     <t>[P] Drug-induced Lupus (180Pe, 0Era, 365W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: all events of drug induced lupus with no Systemic Lupus Erythematosus</t>
   </si>
   <si>
     <t>[P] Drug Rash with Eosinophilia and Systemic Symptoms DRESS (1Pe, 0Era, 365W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: all events of Drug Rash With Eosinophilia and Systemic Symptoms (DRESS)</t>
   </si>
   <si>
     <t>[P] Severe Cutaneous Adverse Reaction SCAR (SJS+TEN+DRESS+EM) (3Pe, 0Era, 365W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: all events of Drug Rash With Eosinophilia and Systemic Symptoms (DRESS), Erythema Multiforme, Stevens-Johnson Syndrome or Toxic-Epidermal necrolysis.</t>
   </si>
   <si>
     <t>[P] Severe Cutaneous Adverse Reaction SCAR (SJS+TEN+DRESS) (3Pe, 0Era, 365W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: all events of Drug Rash With Eosinophilia and Systemic Symptoms (DRESS), Stevens-Johnson Syndrome or Toxic-Epidermal necrolysis.</t>
   </si>
   <si>
     <t>[P] Progressive multifocal leukoencephalopathy</t>
   </si>
   <si>
-    <t xml:space="preserve">Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: earliest occurrence of progressive multifocal leukoencephalopathy that is followed by a subsequent progressive multifocal leukoencephalopathy in the next 1 year. </t>
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
+Logic: earliest occurrence of progressive multifocal leukoencephalopath.</t>
   </si>
   <si>
     <t>[P] Autoimmune hepatitis (1Pe, 0Era, 365W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: all events of autoimmune hepatitis with no chronic liver diseases that may have similar presentation up to 365days prior such as viral hepatitis, drug induced liver injury, alcoholic liver disease, and no systemic lupus erythematosus in past 365 days</t>
   </si>
   <si>
     <t>[P] Erythema multiforme (3Pe, 0Era, 365W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: all events of erythema multiformae with 365 days washout period</t>
   </si>
   <si>
     <t>[P] Paresthesia (3Pe, 0Era, 90W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Symptoms
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Symptoms_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: all events of paresthesia with 365 days washout period</t>
   </si>
   <si>
     <t>[P] Hemorrhagic stroke (1Pe, 0Era, 180W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: all events of hemorrhagic stroke during an inpatient or ER visit with 180 days washout period.</t>
   </si>
   <si>
     <t>[P] Appendicitis (1Pe, 0Era, 365W)</t>
   </si>
   <si>
-    <t xml:space="preserve">Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t xml:space="preserve">Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: events of appendicitis with an inpatient or ER visit with no events in 365 days clean window. </t>
   </si>
   <si>
     <t>[P] Guillain Barre syndrome (180Pe, FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: earliest event of Guillain Barre Syndrome during inpatient or ER stay</t>
   </si>
   <si>
     <t>[P] Idiopathic Peripheral Neuropathy (1Pe, 0Era, 365W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: first occurrence of idiopathic peripheral neuropathy</t>
   </si>
   <si>
     <t>[P] Kawasaki disease (1Pe, 0Era, 365W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: events of Kawasaki's disease with no events in prior clean window.</t>
   </si>
   <si>
     <t>[P] Optic Neuritis (7Pe, 0Era, 365W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: events of optic neuritis with no events in prior clean window.</t>
   </si>
   <si>
+    <t>[P] Narcolepsy events (1Pe, 0Era, 365W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A Rao_x000D_
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-narcolepsy/17784_x000D_
+Logic description: All events of Narcolepsy (includes cataplexy with narcolepsy) with no such events in prior clean window period (365 days). Persons should not be diagnosed with hypersomnia. Persons exit the cohort on end_date + 90 days as persons are assumed to have the condition for at least 90 days.</t>
+  </si>
+  <si>
     <t>[P] Muscle weakness or monoplegia (1Pe, 0Era, 365W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: events of muscle weakness or monoplegia with no events in prior 365 days clean window</t>
   </si>
   <si>
     <t>[P] Urticaria (1Pe, 0Era, 30W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Symptoms
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Symptoms_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: events of urticaria with no events in prior clean window of 30 days</t>
   </si>
   <si>
     <t>[P] Tinnitus (1Pe, 0Era, 365W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Symptoms
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Symptoms_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: events of tinnitus with no events in prior clean window of 365 days</t>
   </si>
   <si>
     <t>[P] Dizziness (1Pe, 0Era, 180W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-hashTag: #Symptoms
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+    <t>Status: Pending peer review._x000D_
+hashTag: #Symptoms_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
 Logic: events of dizziness with no events in prior clean window of 180 days</t>
   </si>
   <si>
     <t>[P] Hepatic Thrombosis (90Pe, 0Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: first event of hepatic thrombosis</t>
   </si>
   <si>
     <t>[P] Portal vein thrombosis (90Pe, 0Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: first event of portal vein thrombosis</t>
   </si>
   <si>
     <t>[P] Deep Vein Thrombosis DVT (90Pe, 0Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-transverse-myelitis/17769
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-transverse-myelitis/17769_x000D_
 Logic: first event of non obstetric Deep Vein Thrombosis</t>
   </si>
   <si>
+    <t>[P] Disseminated intravascular coagulation DIC (1Pe, 0Era, 365W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
+Logic: events of Disseminated Intravascular Coagulation in an inpatient or ER setting with no events in prior 365 day window</t>
+  </si>
+  <si>
     <t>[P] Ischemic (Non-hemorrhagic) Stroke (1Pe, 0Era, 365W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: events of cerebral infarction while in an inpatient or ER setting with no events in prior 365 days window</t>
   </si>
   <si>
     <t>[P] Acute pancreatitis (7Pe, 0Era, 365W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-acute-pancreatitis-and-drug-induced-acute-pancreatitis/17848
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-acute-pancreatitis-and-drug-induced-acute-pancreatitis/17848_x000D_
 Logic: events of acute pancreatitis in an inpatient or emergency setting with no events in prior washout window of 365 days, and no history of chronic pancreatitis or hereditary or congenital pancreatitis.</t>
   </si>
   <si>
     <t>[P] Drug Induced Acute pancreatitis (7Pe, 365W)</t>
   </si>
   <si>
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-acute-pancreatitis-and-drug-induced-acute-pancreatitis/17848_x000D_
+Logic: events of acute pancreatitis in an inpatient or emergency setting with no events in prior washout window of 365 days, and no history of chronic pancreatitis or hereditary or congenital pancreatitis. Events with other explanations for acute pancreatitis such as alcoholic pancreatitis, severe alcoholism, recent alcohol intoxication, cholangitis or cholecystitits, biliary tract disease, endoscopic retrograde cholangiopancreatography, intestinal ischemia or obstruction or not eligible.</t>
+  </si>
+  <si>
     <t>[P] Drug Resistant Epilepsy</t>
   </si>
   <si>
-    <t xml:space="preserve">Status: Pending peer review. 
-Contributor: Mathew Spotnitz;
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-drug-resistant-epilepsy/17569
-Logic: first occurrence of epilepsy in inpatient, of subsequent epilepsy in an outpatient setting after another outpatient epilepsy visit more than 30 days before, or anti-epileptic drug on or after a diagnosis of epilepsy. Limit to persons with at least two different anti epilepsy drug or diagnosis of intractable epilepsy on or after index date.
+    <t xml:space="preserve">Status: Pending peer review. _x000D_
+Contributor: Mathew Spotnitz;_x000D_
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-drug-resistant-epilepsy/17569_x000D_
+Logic: first occurrence of epilepsy in inpatient, of subsequent epilepsy in an outpatient setting after another outpatient epilepsy visit more than 30 days before, or anti-epileptic drug on or after a diagnosis of epilepsy. Limit to persons with at least two different anti epilepsy drug or diagnosis of intractable epilepsy on or after index date._x000D_
 </t>
   </si>
   <si>
     <t>[P] Alzheimer's disease (based on Imfeld, 2013)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: _x000D_
+Forum post: _x000D_
 Logic: this is an approximation of algorithm published by Imfeld et.al 2013.</t>
   </si>
   <si>
     <t>[P] Facial Palsy lower motor neuron including Bells Palsy (180Pe, 0Era, 183W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-facial-palsy-lmn-including-bells-palsy-thats-not-umn/17788
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-facial-palsy-lmn-including-bells-palsy-thats-not-umn/17788_x000D_
 Logic: events of facial palsy with 183 days washout period. Remove persons with congenital facial palsy. Remove events with upper motor neuron disease suggestive of stroke.</t>
   </si>
   <si>
     <t>[P] Emergency room visits or code (0Pe, 0Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A Rao
-Forum: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A Rao_x000D_
+Forum: _x000D_
 Logic: All events of Emergency Room visits or code</t>
   </si>
   <si>
+    <t>[P] Anaphylaxis or Anaphylactic shock events (1Pe, 0Era, 30W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review._x000D_
+Contributor: Erica Voss_x000D_
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-24-anaphylaxis/16033_x000D_
+Logic: all events of anaphylaxis or anaphylaxis shock due to serum with no events in prior clean window.</t>
+  </si>
+  <si>
+    <t>[P] Anaphylaxis all cause (1Pe, 0Era, 30W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
+Logic: all events of anaphylaxis including due to vaccine exposure</t>
+  </si>
+  <si>
     <t>[P] ST elevated myocardial infarction with inpatient admission (7Pe, 180Era)</t>
   </si>
   <si>
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900_x000D_
+Logic: all events of ST segment acute myocardial infarction in an inpatient or ER visit.</t>
+  </si>
+  <si>
     <t>[P] Non ST elevated myocardial infarction with inpatient admission (7Pe, 180Era)</t>
   </si>
   <si>
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900_x000D_
+Logic: all events of Non ST segment acute myocardial infarction in an inpatient or ER visit.</t>
+  </si>
+  <si>
+    <t>[P] Unstable Angina with inpatient admission (7Pe, 180Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900_x000D_
+Logic: all events of Unstable Angina in an inpatient or ER visit.</t>
+  </si>
+  <si>
+    <t>[P] Unstable Angina OR NSTEMI with inpatient admission (7Pe, 180Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900_x000D_
+Logic: all events of Unstable Angina or NSTEMI in an inpatient or ER visit.</t>
+  </si>
+  <si>
     <t>[P] Acute Hepatic Failure in persons with liver disease (90Pe, 180W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: First occurrence of Hepatic Failure. Persons should have prior liver disease.</t>
   </si>
   <si>
     <t>[P] Drug Induced Acute Hepatic Failure (90Pe, 180W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: first occurrence of Hepatic Failure and no other liver problems in past.</t>
   </si>
   <si>
     <t>[P] Acute Kidney Injury AKI, in persons with chronic kidney disease (7Pe, 30W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: all events of Acute Kidney Injury with washout period of 30 days. Persons should have chronic kidney disease that is is not ESKD, and should be not on chronic dialysis or had kidney transplant. Acute Kidney Injury (AKI) indexed on a diagnosis of Acute kidney injury  or a Dialysis procedure at a medicare certified esrd facility for acute kidney injury without esrd, excluding events/patients with 1. a diagnosis of End-Stage Kidney Disease in the 365 days before AKI occurrence 2. patients receiving chronic dialysis defined as more than 3 recorded events of dialysis in 365 days before AKI occurrence 3.  kidney Transplant any time prior; applying a washout period of 30 days between observed events. patients exit the cohort 7 days post index.</t>
   </si>
   <si>
     <t>[P] Acute Kidney Injury AKI, in persons with NO chronic kidney disease (7Pe, 30W)</t>
   </si>
   <si>
-    <t xml:space="preserve">Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t xml:space="preserve">Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
 Logic: all events of Acute Kidney Injury with washout period of 30 days. Persons should have chronic kidney disease that is is not ESKD, and should be not on chronic dialysis or had kidney transplant. Acute Kidney Injury (AKI) indexed on a diagnosis of Acute kidney injury  or a Dialysis procedure at a medicare certified esrd facility for acute kidney injury without esrd, excluding events/patients with 1. a diagnosis of End-Stage Kidney Disease in the 365 days before AKI occurrence 2. patients receiving chronic dialysis defined as more than 3 recorded events of dialysis in 365 days before AKI occurrence 3.  kidney Transplant any time prior ; applying a washout period of 30 days between observed events. patients exit the cohort 7 days post index.  </t>
   </si>
   <si>
-    <t>[P] Acute Kidney Injury (AKI) (7Pe, 30W)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
+    <t>Acute Kidney Injury AKI (7Pe, 30W)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status: #Accepted_x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-29-acute-kidney-injury/16067_x000D_
 Logic: Acute Kidney Injury (AKI) indexed on a diagnosis of Acute kidney injury  or a Dialysis procedure at a medicare certified esrd facility for acute kidney injury without esrd, excluding events/patients with 1. a diagnosis of End-Stage Kidney Disease in the 365 days before AKI occurrence 2. patients receiving chronic dialysis defined as more than 3 recorded events of dialysis in 365 days before AKI occurrence 3.  kidney Transplant any time prior ; applying a washout period of 30 days between observed events. patients exit the cohort 7 days post index.  </t>
   </si>
   <si>
     <t>[P] Hemolytic Anemia (7Pe, 0Era, 365W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-hemolytic-anemia/17856
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-hemolytic-anemia/17856_x000D_
 Logic: all events of hemolytic anemia, indexed on anemia or hemolysis.</t>
   </si>
   <si>
     <t>[P] Hemolytic Anemia Intra corpuscular (FP)</t>
   </si>
   <si>
-    <t>[P] usea or Vomiting (3Pe, 30Era)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-hashTag: #Symptoms
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
-Logic: All events of usea or vomiting</t>
-  </si>
-  <si>
-    <t>[W] Exposure to SARS-Cov 2 and corovirus (7Pe, 30Era)</t>
-  </si>
-  <si>
-    <t>[P] Asthma or Chronic obstructive pulmory disease (COPD) (FP)</t>
-  </si>
-  <si>
-    <t>[P] Chronic obstructive pulmory disease (COPD) without asthma (FP)</t>
-  </si>
-  <si>
-    <t>[P] Malignt neoplasm excluding non-melanoma skin cancer (FP)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum: 
-Logic: Persons with a malignt neoplastic disease or history of malignt neoplastic disease.</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum: 
-Logic: Earliest of any Heart disease or arteriosclerosis of corory artery bypass graft.</t>
-  </si>
-  <si>
-    <t>[W] End stage rel disease (FP)</t>
-  </si>
-  <si>
-    <t>[W] End stage rel disease broad (FP)</t>
-  </si>
-  <si>
-    <t>[P] Respiratory or pulmory tuberculosis (FP)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum: 
-Logic: Earliest occurrence of respiratory or pulmory tuberculosis</t>
-  </si>
-  <si>
-    <t>Status: Accepted
-hashTag: #Accepted, #Level2
-Reviewer: Evan Minty
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-transverse-myelitis/17769
-Logic: events with a diagnosis of transverse myelitis indexed on diagnosis of transverse myelitis, related spil disease or symptoms of transverse myelitis, followed by a diagnosis of transverse myelitis within 30 days. Events have a 365 days washout period. The events persist for 1 day. Symptoms of Transverse Myelitis included asthenia, muscle weakness, myelitis, paresthesia.</t>
-  </si>
-  <si>
-    <t>[W] Acute rel failure with inpatient admission (3Pe, 30Era)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angi/15900
-Logic: all events of acute myocardial infarction in an inpatient or ER visit.</t>
-  </si>
-  <si>
-    <t>[W] Pregncy (270P, 0Era)</t>
-  </si>
-  <si>
-    <t>[P] Gastrointestil bleeding with inpatient admission (7Ps, 30Era)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum post: 
-Logic: all events of gastrointestil hemorrhage in inpatient or ER setting</t>
-  </si>
-  <si>
-    <t>[P] Extracorporeal Membrane Oxygetion with inpatient admission (1Pe, 30Era)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: 
-Forum post: 
-Logic: all events of Extracorporeal Membrane Oxygetion in inpatient setting.</t>
-  </si>
-  <si>
-    <t>[P] Abdomil Distension (Pe7, 0Era, 90W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-hashTag: #Symptoms
-Contributor: Gowtham A. Rao
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
-Logic: all events of abdomil distention with no abdomil distention in prior 14 days washout period.</t>
-  </si>
-  <si>
-    <t>[P] Corory Artery Disease from vessel disease to ischemic injury (FP)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: first occurrence of corory artery disease</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-acquired-pure-red-cell-aplasia/17854
-Logic: earliest of acquired pure red cell aplasia indexed on anemia, with no congenital or genetic anemia or constitutiol aplasia, and no erroneous measurements such as normal hemoglobin or hematocrit. Persons should not have constitutiol aplasia as it represents congenital form of aplasia and should not have bone marrow transplantation.</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: all events of pancytopenia indexed on diagnosis or lab results, with no congenital explations for the pancytopenia.</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: events of Immune Thrombocytopenia (ITP) with no evidence of congenital or genetic thrombocytopenia, and no simultaneous neutropenia, pancytopenia, bone marrow involvement, anemia. Persons exit after 180 days or when they have normal platelet count. Also no evidence of common causes of thrombocytopenia including hypersplenism, antiphospholipid syndrome, paroxysmal noctural hemoglobinuria, hemolytic uremic syndrome, thrombotic microangiopathy, major autoimmune disorders, chronic liver disease, pregncy HELLP, tumors of hematopoietic cells or nutritiol deficiency.</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: all events of rhabdomyolysis with hospitalization and no recent trauma, burn, drowning, hypothermia, hyperthermia, hyperpyrexia, crush syndrome, sepsis, march myoglobinuria, exertiol rhabdomyolysis, or alcohol intoxication.</t>
-  </si>
-  <si>
-    <t>[P] Aphylaxis Non Environmental exposure related (1Pe, 0Era, 30W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-aphylaxis/17835
-Logic: all events of aphylaxis that is not due to environmental etiology and no food, substance, insect bite or sting, poisoning as an explation for aphylaxis.</t>
-  </si>
-  <si>
-    <t>[P] rcolepsy events (1Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-rcolepsy/17784
-Logic description: All events of rcolepsy (includes cataplexy with rcolepsy) with no such events in prior clean window period (365 days). Persons should not be diagnosed with hypersomnia. Persons exit the cohort on end_date + 90 days as persons are assumed to have the condition for at least 90 days.</t>
-  </si>
-  <si>
-    <t>[P] Dissemited intravascular coagulation DIC (1Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: events of Dissemited Intravascular Coagulation in an inpatient or ER setting with no events in prior 365 day window</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-acute-pancreatitis-and-drug-induced-acute-pancreatitis/17848
-Logic: events of acute pancreatitis in an inpatient or emergency setting with no events in prior washout window of 365 days, and no history of chronic pancreatitis or hereditary or congenital pancreatitis. Events with other explations for acute pancreatitis such as alcoholic pancreatitis, severe alcoholism, recent alcohol intoxication, cholangitis or cholecystitits, biliary tract disease, endoscopic retrograde cholangiopancreatography, intestil ischemia or obstruction or not eligible.</t>
-  </si>
-  <si>
-    <t>[P] Aphylaxis or Aphylactic shock events (1Pe, 0Era, 30W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Erica Voss
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-24-aphylaxis/16033
-Logic: all events of aphylaxis or aphylaxis shock due to serum with no events in prior clean window.</t>
-  </si>
-  <si>
-    <t>[P] Aphylaxis all cause (1Pe, 0Era, 30W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: 
-Logic: all events of aphylaxis including due to vaccine exposure</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angi/15900
-Logic: all events of ST segment acute myocardial infarction in an inpatient or ER visit.</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angi/15900
-Logic: all events of Non ST segment acute myocardial infarction in an inpatient or ER visit.</t>
-  </si>
-  <si>
-    <t>[P] Unstable Angi with inpatient admission (7Pe, 180Era)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angi/15900
-Logic: all events of Unstable Angi in an inpatient or ER visit.</t>
-  </si>
-  <si>
-    <t>[P] Unstable Angi OR NSTEMI with inpatient admission (7Pe, 180Era)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review.
-Contributor: Gowtham A. Rao
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angi/15900
-Logic: all events of Unstable Angi or NSTEMI in an inpatient or ER visit.</t>
-  </si>
-  <si>
-    <t>cohortName</t>
+    <t>[P] Sudden Vision Loss (1Pe, 0Era, 365W)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review._x000D_
+Contributor: Gowtham A. Rao_x000D_
+Forum post: _x000D_
+Logic: all events of Sudden Vision Loss without eye pathology</t>
+  </si>
+  <si>
+    <t>[P] Sudden Hearing Loss (1Pe, 0Era, 365W)</t>
+  </si>
+  <si>
+    <t>3.5.0</t>
+  </si>
+  <si>
+    <t>3.7.0</t>
+  </si>
+  <si>
+    <t>3.8.0</t>
   </si>
 </sst>
 </file>
@@ -2126,47 +2150,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J162"/>
+  <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -2174,16 +2195,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>44461</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2191,16 +2212,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>44461</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2208,16 +2229,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>44462</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2225,16 +2246,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>44462</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -2242,16 +2263,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1">
         <v>44462</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2259,16 +2280,16 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1">
         <v>44462</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2276,16 +2297,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
         <v>44462</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2293,16 +2314,16 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1">
         <v>44462</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2310,16 +2331,16 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1">
         <v>44462</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>256</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2327,16 +2348,16 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1">
         <v>44462</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2344,16 +2365,16 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="1">
         <v>44462</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2361,16 +2382,16 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1">
         <v>44462</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2378,16 +2399,16 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1">
         <v>44462</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2395,16 +2416,16 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1">
         <v>44462</v>
       </c>
       <c r="J15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2412,16 +2433,16 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>257</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1">
         <v>44462</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2429,16 +2450,16 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" s="1">
         <v>44462</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2446,16 +2467,16 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1">
         <v>44462</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2463,16 +2484,16 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" s="1">
         <v>44462</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2480,16 +2501,16 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" s="1">
         <v>44462</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2497,16 +2518,16 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" s="1">
         <v>44462</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2514,16 +2535,16 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" s="1">
         <v>44462</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2531,19 +2552,19 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D23" s="1">
         <v>44462</v>
       </c>
-      <c r="E23">
-        <v>3.5</v>
+      <c r="E23" t="s">
+        <v>304</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2551,19 +2572,19 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D24" s="1">
         <v>44462</v>
       </c>
-      <c r="E24">
-        <v>3.5</v>
+      <c r="E24" t="s">
+        <v>304</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2571,19 +2592,19 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
         <v>50</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
       </c>
       <c r="D25" s="1">
         <v>44462</v>
       </c>
-      <c r="E25">
-        <v>3.5</v>
+      <c r="E25" t="s">
+        <v>304</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2591,16 +2612,16 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>258</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" s="1">
         <v>44462</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2608,16 +2629,16 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D27" s="1">
         <v>44462</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2625,16 +2646,16 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>259</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D28" s="1">
         <v>44462</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2642,16 +2663,16 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29" s="1">
         <v>44462</v>
       </c>
       <c r="J29" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2659,84 +2680,84 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30" s="1">
         <v>44462</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>260</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" s="1">
         <v>44462</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D32" s="1">
         <v>44462</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D33" s="1">
         <v>44462</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D34" s="1">
         <v>44462</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2744,67 +2765,67 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D35" s="1">
         <v>44462</v>
       </c>
       <c r="J35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D36" s="1">
         <v>44462</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37" s="1">
         <v>44462</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38" s="1">
         <v>44462</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>262</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2812,33 +2833,33 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>263</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D39" s="1">
         <v>44462</v>
       </c>
       <c r="J39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D40" s="1">
         <v>44462</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2846,16 +2867,16 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D41" s="1">
         <v>44462</v>
       </c>
       <c r="J41" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2863,33 +2884,33 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>264</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="D42" s="1">
         <v>44462</v>
       </c>
       <c r="J42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>265</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D43" s="1">
         <v>44462</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>266</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2897,16 +2918,16 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D44" s="1">
         <v>44463</v>
       </c>
       <c r="J44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -2914,16 +2935,16 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D45" s="1">
         <v>44463</v>
       </c>
       <c r="J45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2931,16 +2952,16 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D46" s="1">
         <v>44463</v>
       </c>
       <c r="J46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2948,16 +2969,16 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D47" s="1">
         <v>44463</v>
       </c>
       <c r="J47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2965,16 +2986,16 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D48" s="1">
         <v>44463</v>
       </c>
       <c r="J48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -2982,16 +3003,16 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D49" s="1">
         <v>44463</v>
       </c>
       <c r="J49" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2999,16 +3020,16 @@
         <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D50" s="1">
         <v>44463</v>
       </c>
       <c r="J50" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -3016,33 +3037,33 @@
         <v>53</v>
       </c>
       <c r="B51" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D51" s="1">
         <v>44463</v>
       </c>
       <c r="J51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D52" s="1">
         <v>44463</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -3050,50 +3071,50 @@
         <v>55</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D53" s="1">
         <v>44463</v>
       </c>
       <c r="J53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D54" s="1">
         <v>44469</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>57</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D55" s="1">
         <v>44469</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -3101,16 +3122,16 @@
         <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D56" s="1">
         <v>44474</v>
       </c>
       <c r="J56" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -3118,16 +3139,16 @@
         <v>59</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D57" s="1">
         <v>44474</v>
       </c>
       <c r="J57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3135,87 +3156,87 @@
         <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D58" s="1">
         <v>44474</v>
       </c>
       <c r="J58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D59" s="1">
         <v>44474</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D60" s="1">
         <v>44474</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>63</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D61" s="1">
         <v>44474</v>
       </c>
-      <c r="E61">
-        <v>3.6</v>
+      <c r="E61" t="s">
+        <v>305</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>64</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D62" s="1">
         <v>44474</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -3223,16 +3244,16 @@
         <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D63" s="1">
         <v>44474</v>
       </c>
       <c r="J63" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -3240,16 +3261,16 @@
         <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>268</v>
+        <v>118</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D64" s="1">
         <v>44474</v>
       </c>
       <c r="J64" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3257,16 +3278,16 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D65" s="1">
         <v>44474</v>
       </c>
       <c r="J65" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -3274,16 +3295,16 @@
         <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D66" s="1">
         <v>44474</v>
       </c>
       <c r="J66" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3291,67 +3312,67 @@
         <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D67" s="1">
         <v>44474</v>
       </c>
       <c r="J67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D68" s="1">
         <v>44474</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>71</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D69" s="1">
         <v>44474</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D70" s="1">
         <v>44474</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3359,203 +3380,203 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>270</v>
+        <v>128</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D71" s="1">
         <v>44474</v>
       </c>
       <c r="J71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>74</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D72" s="1">
         <v>44474</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D73" s="1">
         <v>44474</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>76</v>
       </c>
       <c r="B74" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D74" s="1">
         <v>44474</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="270" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D75" s="1">
         <v>44474</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D76" s="1">
         <v>44474</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D77" s="1">
         <v>44474</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>273</v>
+        <v>141</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D78" s="1">
         <v>44474</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D79" s="1">
         <v>44474</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D80" s="1">
         <v>44474</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="405" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D81" s="1">
         <v>44478</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="405" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D82" s="1">
         <v>44478</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -3563,16 +3584,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D83" s="1">
         <v>44480</v>
       </c>
       <c r="J83" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -3580,67 +3601,67 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D84" s="1">
         <v>44490</v>
       </c>
       <c r="J84" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D85" s="1">
         <v>44596</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D86" s="1">
         <v>44598</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>119</v>
       </c>
       <c r="B87" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D87" s="1">
         <v>44602</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3648,118 +3669,118 @@
         <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="C88" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D88" s="1">
         <v>44603</v>
       </c>
       <c r="J88" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>189</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="C89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D89" s="1">
         <v>44741</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>190</v>
       </c>
       <c r="B90" t="s">
-        <v>275</v>
+        <v>161</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D90" s="1">
         <v>44741</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>191</v>
       </c>
       <c r="B91" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D91" s="1">
         <v>44741</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>193</v>
       </c>
       <c r="B92" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="C92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D92" s="1">
         <v>44741</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>194</v>
       </c>
       <c r="B93" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D93" s="1">
         <v>44741</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>195</v>
       </c>
       <c r="B94" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="C94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D94" s="1">
         <v>44742</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -3767,33 +3788,33 @@
         <v>196</v>
       </c>
       <c r="B95" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="C95" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D95" s="1">
         <v>44742</v>
       </c>
       <c r="J95" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>197</v>
       </c>
       <c r="B96" t="s">
-        <v>277</v>
+        <v>173</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D96" s="1">
         <v>44742</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>278</v>
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -3801,16 +3822,16 @@
         <v>198</v>
       </c>
       <c r="B97" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="C97" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D97" s="1">
         <v>44742</v>
       </c>
       <c r="J97" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -3818,16 +3839,16 @@
         <v>199</v>
       </c>
       <c r="B98" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="C98" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D98" s="1">
         <v>44742</v>
       </c>
       <c r="J98" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -3835,16 +3856,16 @@
         <v>200</v>
       </c>
       <c r="B99" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="C99" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D99" s="1">
         <v>44742</v>
       </c>
       <c r="J99" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -3852,16 +3873,16 @@
         <v>201</v>
       </c>
       <c r="B100" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="C100" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D100" s="1">
         <v>44742</v>
       </c>
       <c r="J100" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -3869,16 +3890,16 @@
         <v>205</v>
       </c>
       <c r="B101" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="C101" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D101" s="1">
         <v>44875</v>
       </c>
       <c r="J101" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -3886,1039 +3907,1077 @@
         <v>206</v>
       </c>
       <c r="B102" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="C102" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D102" s="1">
         <v>44875</v>
       </c>
       <c r="J102" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>207</v>
       </c>
       <c r="B103" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D103" s="1">
         <v>44875</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>208</v>
       </c>
       <c r="B104" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="C104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D104" s="1">
         <v>44875</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>209</v>
       </c>
       <c r="B105" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D105" s="1">
         <v>44876</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>210</v>
       </c>
       <c r="B106" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D106" s="1">
         <v>44876</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>211</v>
       </c>
       <c r="B107" t="s">
-        <v>164</v>
+        <v>190</v>
       </c>
       <c r="C107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D107" s="1">
         <v>44876</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>213</v>
       </c>
       <c r="B108" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="C108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D108" s="1">
         <v>44876</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>214</v>
       </c>
       <c r="B109" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="C109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D109" s="1">
         <v>44876</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>215</v>
       </c>
       <c r="B110" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="C110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D110" s="1">
         <v>44876</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>216</v>
       </c>
       <c r="B111" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D111" s="1">
         <v>44876</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>217</v>
       </c>
       <c r="B112" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D112" s="1">
         <v>44876</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>218</v>
       </c>
       <c r="B113" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D113" s="1">
         <v>44876</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>219</v>
       </c>
       <c r="B114" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="C114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D114" s="1">
         <v>44876</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>220</v>
       </c>
       <c r="B115" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="C115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D115" s="1">
         <v>44876</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>221</v>
       </c>
       <c r="B116" t="s">
-        <v>283</v>
+        <v>208</v>
       </c>
       <c r="C116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D116" s="1">
         <v>44876</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>222</v>
       </c>
       <c r="B117" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D117" s="1">
         <v>44876</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>223</v>
       </c>
       <c r="B118" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="C118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D118" s="1">
         <v>44877</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>224</v>
       </c>
       <c r="B119" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="C119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D119" s="1">
         <v>44877</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>225</v>
       </c>
       <c r="B120" t="s">
-        <v>185</v>
+        <v>216</v>
       </c>
       <c r="C120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D120" s="1">
         <v>44877</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>226</v>
       </c>
       <c r="B121" t="s">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D121" s="1">
         <v>44877</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>227</v>
       </c>
       <c r="B122" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="C122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D122" s="1">
         <v>44877</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>228</v>
       </c>
       <c r="B123" t="s">
-        <v>191</v>
+        <v>222</v>
       </c>
       <c r="C123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D123" s="1">
         <v>44877</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>229</v>
       </c>
       <c r="B124" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="C124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D124" s="1">
         <v>44877</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>230</v>
       </c>
       <c r="B125" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="C125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D125" s="1">
         <v>44877</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>231</v>
       </c>
       <c r="B126" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="C126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D126" s="1">
         <v>44877</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>232</v>
       </c>
       <c r="B127" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="C127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D127" s="1">
         <v>44877</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>233</v>
       </c>
       <c r="B128" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="C128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D128" s="1">
         <v>44877</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>234</v>
       </c>
       <c r="B129" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="C129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D129" s="1">
         <v>44877</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>235</v>
       </c>
       <c r="B130" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="C130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D130" s="1">
         <v>44877</v>
       </c>
       <c r="J130" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>236</v>
       </c>
       <c r="B131" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="C131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D131" s="1">
         <v>44877</v>
       </c>
       <c r="J131" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>237</v>
       </c>
       <c r="B132" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="C132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D132" s="1">
         <v>44877</v>
       </c>
       <c r="J132" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>238</v>
       </c>
       <c r="B133" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="C133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D133" s="1">
         <v>44877</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>239</v>
       </c>
       <c r="B134" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="C134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D134" s="1">
         <v>44877</v>
       </c>
       <c r="J134" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>240</v>
       </c>
       <c r="B135" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="C135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D135" s="1">
         <v>44877</v>
       </c>
       <c r="J135" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>241</v>
       </c>
       <c r="B136" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="C136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D136" s="1">
         <v>44877</v>
       </c>
       <c r="J136" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>243</v>
       </c>
       <c r="B137" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="C137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D137" s="1">
         <v>44877</v>
       </c>
       <c r="J137" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>244</v>
       </c>
       <c r="B138" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="C138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D138" s="1">
         <v>44877</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>245</v>
       </c>
       <c r="B139" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="C139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D139" s="1">
         <v>44877</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>246</v>
       </c>
       <c r="B140" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="C140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D140" s="1">
         <v>44877</v>
       </c>
       <c r="J140" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>247</v>
       </c>
       <c r="B141" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="C141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D141" s="1">
         <v>44877</v>
       </c>
       <c r="J141" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" ht="405" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>248</v>
       </c>
       <c r="B142" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="C142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D142" s="1">
         <v>44877</v>
       </c>
       <c r="J142" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" ht="375" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>249</v>
       </c>
       <c r="B143" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="C143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D143" s="1">
         <v>44877</v>
       </c>
       <c r="J143" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>251</v>
       </c>
       <c r="B144" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="C144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D144" s="1">
         <v>44880</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>253</v>
       </c>
       <c r="B145" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="C145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D145" s="1">
         <v>44880</v>
       </c>
       <c r="J145" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>254</v>
       </c>
       <c r="B146" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="C146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D146" s="1">
         <v>44882</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>255</v>
       </c>
       <c r="B147" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="C147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D147" s="1">
         <v>44883</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>256</v>
       </c>
       <c r="B148" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="C148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D148" s="1">
         <v>44887</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>257</v>
       </c>
       <c r="B149" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="C149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D149" s="1">
         <v>44887</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>258</v>
       </c>
       <c r="B150" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="C150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D150" s="1">
         <v>44893</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" ht="300" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>259</v>
       </c>
       <c r="B151" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D151" s="1">
         <v>44893</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>260</v>
       </c>
       <c r="B152" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="C152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D152" s="1">
         <v>44894</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>261</v>
       </c>
       <c r="B153" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="C153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D153" s="1">
         <v>44894</v>
       </c>
       <c r="J153" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>262</v>
       </c>
       <c r="B154" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D154" s="1">
         <v>44894</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>263</v>
       </c>
       <c r="B155" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D155" s="1">
         <v>44894</v>
       </c>
       <c r="J155" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="330" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>264</v>
       </c>
       <c r="B156" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="C156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D156" s="1">
         <v>44894</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="315" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>265</v>
       </c>
       <c r="B157" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="C157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D157" s="1">
         <v>44894</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>267</v>
       </c>
       <c r="B158" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="C158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D158" s="1">
         <v>44894</v>
       </c>
       <c r="J158" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>268</v>
       </c>
       <c r="B159" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="C159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D159" s="1">
         <v>44894</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>269</v>
       </c>
       <c r="B160" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="C160" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D160" s="1">
         <v>44894</v>
       </c>
+      <c r="E160" t="s">
+        <v>306</v>
+      </c>
       <c r="J160" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>270</v>
       </c>
       <c r="B161" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="C161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D161" s="1">
         <v>44895</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>271</v>
       </c>
       <c r="B162" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="C162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D162" s="1">
         <v>44895</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>161</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>276</v>
+      </c>
+      <c r="B163" t="s">
+        <v>301</v>
+      </c>
+      <c r="C163" t="s">
+        <v>11</v>
+      </c>
+      <c r="D163" s="1">
+        <v>44903</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>277</v>
+      </c>
+      <c r="B164" t="s">
+        <v>303</v>
+      </c>
+      <c r="C164" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" s="1">
+        <v>44903</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J164"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/PhenotypeLog.xlsx
+++ b/inst/PhenotypeLog.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="PhenotypeLog" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PhenotypeLog!$A$1:$J$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PhenotypeLog!$A$1:$J$183</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="344">
   <si>
     <t>cohortId</t>
   </si>
@@ -63,123 +63,123 @@
     <t>Withdrawn by contributor before peer review</t>
   </si>
   <si>
-    <t>[P] Cough or Sputum (3Ps, 30Era)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Symptoms_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
+    <t>[P] Cough or Sputum (3Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of cough or sputum finding.</t>
   </si>
   <si>
-    <t>[P] Diarrhea (7Ps, 30Era)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Symptoms_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
-Logic: All events of diarrhea.</t>
+    <t>[P] Diarrhea (3Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: All events of diarrhea including Functional Diarrhea.</t>
   </si>
   <si>
     <t>[P] Dyspnea (7Pe, 90Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Symptoms_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
-Logic: All events of dyspnea.</t>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: All events of dyspnea including difficulty breathing or abnormal breathing.</t>
   </si>
   <si>
     <t>[P] Fever (3Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Symptoms_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of fever or elevated temperature measurement.</t>
   </si>
   <si>
     <t>[P] Headache or Headache disorder (7Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Symptoms_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of Headache or headache disorder</t>
   </si>
   <si>
-    <t>[P] Altered smell or taste including Anosmia, Hyposmia or Dysgeusia (7Ps, 30Era)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Symptoms_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
+    <t>[P] Altered smell or taste including Anosmia, Hyposmia or Dysgeusia (7Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: Altered smell or taste including Anosmia, Hyposmia or Dysgeusia</t>
   </si>
   <si>
     <t>[P] Sore throat (7Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Symptoms_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of Sore throat</t>
   </si>
   <si>
     <t>[P] Nausea or Vomiting (3Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Symptoms_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of Nausea or vomiting</t>
   </si>
   <si>
-    <t>[P] Malaise and or fatigue (3P, 30Era)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Symptoms_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
+    <t>[P] Malaise and or fatigue (3Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of Malaise and or fatigue</t>
   </si>
   <si>
-    <t>[P] Rhinitis or common cold (7P, 30Era)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Symptoms_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
+    <t>[P] Rhinitis or common cold (7Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of Rhinitis or common cold</t>
   </si>
   <si>
-    <t>[P] Myalgia (not explained by injury, ischemia or systemic inflammation) (3Pe, 0Era, 30W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Symptoms_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
+    <t>[P] Myalgia (not explained by injury, ischemia or systemic inflammation) (3Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of Myalgia. Exclude persons with secondary causes of myalgia explained by injury, ischemia or chronic systemic inflammation.</t>
   </si>
   <si>
     <t>[P] Myalgia (3Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Symptoms_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of Myalgia.</t>
   </si>
   <si>
@@ -195,37 +195,37 @@
     <t>[P] Multiple Inflammatory Syndrome (30Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Grandfathered into Phenotype Library. Pending peer review._x000D_
-Contributor: _x000D_
-Forum: _x000D_
+    <t>Status: Grandfathered into Phenotype Library. Pending peer review.
+Contributor: 
+Forum: 
 Logic: All events of Multisystem inflammatory syndrome (MIS)</t>
   </si>
   <si>
     <t>[P] Acute Typical Pneumonia (14Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham Rao_x000D_
-Forum: _x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham Rao
+Forum: 
 Logic: All events of Acute Typical Pneumonia</t>
   </si>
   <si>
     <t>[P] Bronchitis (14Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Signs_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
+    <t>Status: Pending peer review.
+hashTag: #Signs
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of Bronchitis</t>
   </si>
   <si>
     <t>[P] Acute respiratory distress syndrome (ARDS) or Acute Respiratory Failure (3Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum: 
 Logic: All events of Acute respiratory distress syndrome (ARDS) or Acute Respiratory Failure</t>
   </si>
   <si>
@@ -238,54 +238,54 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Status: Accepted. This cohort is deemed validated as it represents data convention and did not need to go thru peer review process._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: _x000D_
+    <t>Status: Accepted. This cohort is deemed validated as it represents data convention and did not need to go thru peer review process.
+Contributor: Gowtham A. Rao
+Forum: 
 Logic: All events of Inpatient visit</t>
   </si>
   <si>
     <t>Emergency room visits (0Pe, 0Era)</t>
   </si>
   <si>
-    <t>Status: Accepted. This cohort is deemed validated as it represents data convention and did not need to go thru peer review process._x000D_
-Contributor: Gowtham A Rao_x000D_
-Forum: _x000D_
+    <t>Status: Accepted. This cohort is deemed validated as it represents data convention and did not need to go thru peer review process.
+Contributor: Gowtham A Rao
+Forum: 
 Logic: All events of Emergency Room visits.</t>
   </si>
   <si>
     <t>All cause mortality</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum: 
 Logic: Earliest observation of any death</t>
   </si>
   <si>
     <t>[P] Asthma or Chronic obstructive pulmonary disease (COPD) (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum: 
 Logic: Earliest of either COPD or asthma diagnosis or earliest of at least two respiratory therapy separated by 180 days.</t>
   </si>
   <si>
     <t>[P] Asthma without COPD (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum: 
 Logic: Earliest of either asthma diagnosis or therapy for asthma with a history of another asthma therapy more than 180 days before. The person should not have a diagnosis or treatment for COPD in past.</t>
   </si>
   <si>
     <t>[P] Chronic obstructive pulmonary disease (COPD) without asthma (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum: 
 Logic: Earliest of either COPD diagnosis or COPD therapy with no prior asthma diagnosis</t>
   </si>
   <si>
@@ -298,46 +298,46 @@
     <t>[P] Tuberculosis (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum: 
 Logic: Earliest event of tuberculosis with at least 3 different drugs for tuberculosis at anytime on or after diagnosis</t>
   </si>
   <si>
     <t>[P] Malignant neoplasm excluding non-melanoma skin cancer (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum: 
 Logic: Persons with a malignant neoplastic disease or history of malignant neoplastic disease.</t>
   </si>
   <si>
     <t>[P] Obesity (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Signs_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
+    <t>Status: Pending peer review.
+hashTag: #Signs
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: Persons with obesity diagnosis or a body weight measurement &gt; 120 kg or 265 lbs</t>
   </si>
   <si>
     <t>[P] Dementia (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum: 
 Logic: Persons with the diagnosis of dementia, includes history of Dementia.</t>
   </si>
   <si>
     <t>[P] Hypertensive disorder or hypertensive complications (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: _x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum: 
 Logic: Earliest of Hypertensive disorder diagnosis or complication of hypertension.</t>
   </si>
   <si>
@@ -347,27 +347,27 @@
     <t>[P] Human immunodeficiency virus (not HIV2) infection (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum: 
 Logic: Earliest diagnosis of HIV (not HIV2) with another diagnosis in future or a treatment for HIV.</t>
   </si>
   <si>
     <t>[P] Hepatitis C (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum: 
 Logic: Earliest diagnosis of Hepatitis C.</t>
   </si>
   <si>
     <t>[P] Heart disease (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: _x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum: 
 Logic: Earliest of any Heart disease or arteriosclerosis of coronary artery bypass graft.</t>
   </si>
   <si>
@@ -377,9 +377,9 @@
     <t>[P] Diabetes Mellitus Type 2 (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: _x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum: 
 Logic: Earliest of any Type 2 Diabetes Mellitus or History of Diabetes.</t>
   </si>
   <si>
@@ -392,9 +392,9 @@
     <t>[P] Respiratory or pulmonary tuberculosis (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: _x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum: 
 Logic: Earliest occurrence of respiratory or pulmonary tuberculosis</t>
   </si>
   <si>
@@ -428,14 +428,14 @@
     <t xml:space="preserve">Withdrawn by contributor before peer review. </t>
   </si>
   <si>
-    <t>[P] Febrile seizure (1Pe, 0Era, 42W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Signs_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
-Logic: All events of Febrile seizures with no febrile seizure in the 42days washout period, indexed on seizure or febrile seizure.</t>
+    <t>[P] Febrile seizure (1Pe, 1Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Signs
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: All events of Febrile seizures.</t>
   </si>
   <si>
     <t>[W] COVID-19 diagnosis or SARS-CoV-2 test (1pos) (3Ps, 21Era)</t>
@@ -444,20 +444,20 @@
     <t>[P] SARS-CoV-2 test (1pos) or COVID-19 diagnosis with (0 neg -3d to 3d) (3Ps, 21Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: _x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum: 
 Logic: All events of Covid Diagnosis without a negative test result or a SARS-Cov-2 test positive test</t>
   </si>
   <si>
-    <t>[P] Bleeding (1Pe, 0Era, 30W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Signs_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
-Logic: All events of Bleeding diagnosis with no bleeding in past 30 days.</t>
+    <t>[P] Bleeding (1Pe, 1Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Signs
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: All events of Bleeding diagnosis</t>
   </si>
   <si>
     <t>[W] SARS-CoV-2 test positive result (3Ps, 21Era)</t>
@@ -472,40 +472,40 @@
     <t>[P] Bradycardia or heart block with inpatient admission (1Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: _x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum: 
 Logic: All events of Bradycardia or heart block or first occurrence of pace maker limited to inpatient visit.</t>
   </si>
   <si>
-    <t>[P] Generalized Seizure (1Pe, 0Era, 42W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Signs_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
-Logic: All events of seizure with no seizure events in the prior 42 days clean window</t>
-  </si>
-  <si>
-    <t>Transverse myelitis or symptoms (1Ps, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Accepted_x000D_
-hashTag: #Accepted, #Level2_x000D_
-Reviewer: Evan Minty_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-transverse-myelitis/17769_x000D_
+    <t>[P] Generalized Seizure (1Pe, 1Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Signs
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: All events of seizure with no seizure events</t>
+  </si>
+  <si>
+    <t>Transverse myelitis or symptoms indexed on symptoms or diagnosis (1Ps, 0Era, 365W)</t>
+  </si>
+  <si>
+    <t>Status: Accepted
+hashTag: #Accepted, #Level2
+Reviewer: Evan Minty
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-transverse-myelitis/17769
 Logic: events with a diagnosis of transverse myelitis indexed on diagnosis of transverse myelitis, related spinal disease or symptoms of transverse myelitis, followed by a diagnosis of transverse myelitis within 30 days. Events have a 365 days washout period. The events persist for 1 day. Symptoms of Transverse Myelitis included asthenia, muscle weakness, myelitis, paresthesia.</t>
   </si>
   <si>
     <t>[P] Flu-like symptoms fever, cough, malaise, fatigue, dyspnea, myalgia (3Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Symptoms, #Signs_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
+    <t>Status: Pending peer review.
+hashTag: #Symptoms, #Signs
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: All events of flue like symptoms or signs</t>
   </si>
   <si>
@@ -530,27 +530,27 @@
     <t>[P] Stroke (ischemic or hemorrhagic) with inpatient admission (7Ps, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum post: 
 Logic: all events of ischemic or hemorrhagic stroke in an inpatient or ER visit.</t>
   </si>
   <si>
     <t>[P] Acute myocardial infarction with inpatient admission (7Pe, 180Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900_x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900
 Logic: all events of acute myocardial infarction in an inpatient or ER visit.</t>
   </si>
   <si>
     <t>[P] Influenza diagnosis or positive test result (7Pe, 90Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum post: 
 Logic: all events of influenza diagnosis, or positive influenza test result.</t>
   </si>
   <si>
@@ -560,90 +560,90 @@
     <t>[P] Hemorrhagic stroke (intracerebral bleeding) with inpatient admission (7Ps, 180Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum post: 
 Logic: all events of hemorrhagic stroke while inpatient or ER setting..</t>
   </si>
   <si>
     <t>[P] Ischemic stroke with inpatient admission (7Ps, 180Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum post: 
 Logic: all events of ischemic stroke while inpatient  or ER setting..</t>
   </si>
   <si>
     <t>[P] Transient ischemic attack with inpatient admission (7Ps, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum post: 
 Logic: all events of transient ischemic attack while in inpatient or ER setting.</t>
   </si>
   <si>
     <t>[P] Gastrointestinal bleeding with inpatient admission (7Ps, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum post: 
 Logic: all events of gastrointestinal hemorrhage in inpatient or ER setting</t>
   </si>
   <si>
     <t>[P] Cardiac arrhythmia with inpatient admission (1Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum post: 
 Logic: all events of cardiac arrhythmia or treatments for cardiac arrhythmia in inpatient or ER setting</t>
   </si>
   <si>
     <t>[P] Dialysis with inpatient admission (1Ps, 7Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum post: 
 Logic: all events of dialysis in inpatient setting</t>
   </si>
   <si>
     <t>[P] Extracorporeal Membrane Oxygenation with inpatient admission (1Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum post: 
 Logic: all events of Extracorporeal Membrane Oxygenation in inpatient setting.</t>
   </si>
   <si>
     <t>[P] Cesarean section (7Pe, 180Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum post: 
 Logic: all events of Cesarean section.</t>
   </si>
   <si>
     <t>[P] Intensive services during hospitalization (1Ps, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum post: 
 Logic: all events of intensive care service in an inpatient setting</t>
   </si>
   <si>
     <t>[P] SARS-CoV-2 test (1pos) or COVID-19 diagnosis with (1pos or 0 neg 0d to 3d) (3Ps, 180Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum post: 
 Logic: all events of positive SAR-CoV-2 test result or Covid-19 diagnosis without a negative test result on or within 3 days of diagnosis.</t>
   </si>
   <si>
@@ -656,93 +656,103 @@
     <t>[W] SARS-CoV-2 test (1Ps, 0Era)</t>
   </si>
   <si>
-    <t>[P] Delirium (7Pe, 0Era, 90W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Symptoms_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
+    <t>[P] Delirium (7Pe, 7Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: first occurrence of Delirium</t>
   </si>
   <si>
     <t>[P] Alzheimer's disease</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum post: 
 Logic: first occurrence of Alzheimer's disease</t>
   </si>
   <si>
     <t>[P] Systemic lupus erythematosus (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum post: 
 Logic: first signs and symptoms suggestive of SLE or first treatment suggestive of SLE with SLE diagnosis with 90 days.</t>
   </si>
   <si>
     <t>[W] First event of Suicide attempt, including injuries and poisonings with undetermined, 365 days</t>
   </si>
   <si>
-    <t>[P] Right Upper Quadrant Pain (Pe1, 0Era, 14W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Symptoms_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
-Logic: all events of right upper quadrant pain with no right upper quadrant pain in prior 14 days washout period.</t>
-  </si>
-  <si>
-    <t>[P] Abdominal Distension (Pe7, 0Era, 90W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Symptoms_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
-Logic: all events of abdominal distention with no abdominal distention in prior 14 days washout period.</t>
-  </si>
-  <si>
-    <t>[P] Fatigue, Malaise, Lethargy, Anorexia (Pe1, 0Era, 14W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Symptoms_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
+    <t>[P] Persons with Attention Deficit Hyperactivity Disorder (FP)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hasTag: #PhenotypePhebruary
+Contributor: Patrick B. Ryan
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-13-attention-deficit-hyperactivity-disorder/15901
+Logic: First occurrence of Attention-deficit hyperactivity disorder (ADHD) condition or related procedures, indexed on the earliest occurrence of ADHD condition, procedure or treatment (limited to drug exposure followed by a related condition or procedure), with 365d prior observation, exit at end of observation</t>
+  </si>
+  <si>
+    <t>[P] Right Upper Quadrant Pain (1Pe, 7Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: all events of right upper quadrant pain with no right upper quadrant pain.</t>
+  </si>
+  <si>
+    <t>[P] Abdominal Distension (7Pe, 7Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: all events of abdominal distention</t>
+  </si>
+  <si>
+    <t>[P] Fatigue, Malaise, Lethargy, Anorexia (1Pe, 7Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: events with a diagnosis of Fatigue, Malaise, Lethargy, Anorexia but not due to senile, cancer or stroke</t>
   </si>
   <si>
-    <t>[P] Jaundice or Itching (Pe1, 0Era, 14W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Symptoms_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
+    <t>[P] Jaundice or Itching (1Pe, 7Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: events of jaundice or itching</t>
   </si>
   <si>
-    <t>[P] Encephalopathy or its presentations (Pe1, 0Era, 30W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Symptoms_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
+    <t>[P] Encephalopathy or its presentations (1Pe, 14Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
 Logic: events Encephalopathy or its presentations</t>
   </si>
   <si>
     <t>[P] Urothelial bladder cancer (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum post: 
 Logic: earliest urothelial cancer</t>
   </si>
   <si>
@@ -755,9 +765,9 @@
     <t>[P] Coronary Artery Disease from vessel disease to ischemic injury (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: first occurrence of coronary artery disease</t>
   </si>
   <si>
@@ -785,558 +795,736 @@
     <t>[P] Acquired Pure Red Cell Aplasia</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-acquired-pure-red-cell-aplasia/17854_x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-acquired-pure-red-cell-aplasia/17854
 Logic: earliest of acquired pure red cell aplasia indexed on anemia, with no congenital or genetic anemia or constitutional aplasia, and no erroneous measurements such as normal hemoglobin or hematocrit. Persons should not have constitutional aplasia as it represents congenital form of aplasia and should not have bone marrow transplantation.</t>
   </si>
   <si>
     <t>[P] Febrile Neutropenia or Neutropenic Fever (3Pe, 30Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-febrile-neutropenia-or-neutropenic-fever/17876_x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-febrile-neutropenia-or-neutropenic-fever/17876
 Logic: all events of febrile neutropenia or fever with neutropenia or infection with neutropenia in an inpatient or emergency room setting</t>
   </si>
   <si>
-    <t>[P] Hemolytic Anemia Extra corpuscular ex hgpathy, memb defect, g6pd (7Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-hemolytic-anemia/17856_x000D_
+    <t>[P] Hemolytic Anemia Extra corpuscular ex hgpathy, memb defect, g6pd (7Pe, 90Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-hemolytic-anemia/17856
 Logic: all events of hemolytic anemia, indexed on anemia or hemolysis, without congenital or hereditary causes of hemolytic anemia of membrane, enzyme or RBC structure.</t>
   </si>
   <si>
-    <t>[P] Hemolytic Anemia Extra corpuscular ex hgpathy, memb defect (7Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-hemolytic-anemia/17856_x000D_
+    <t>[P] Hemolytic Anemia Extra corpuscular ex hgpathy, memb defect (7Pe, 90Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-hemolytic-anemia/17856
 Logic: all events of hemolytic anemia, indexed on anemia or hemolysis, without congenital or hereditary causes of hemolytic anemia of membrane, or RBC structure. Persons with enzyme disorder (e.g. G-6-PD deficiency) are not excluded.</t>
   </si>
   <si>
     <t>[P] Pancytopenia, Acquired</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: all events of pancytopenia indexed on diagnosis or lab results, with no congenital explanations for the pancytopenia.</t>
   </si>
   <si>
     <t>[P] Acquired Neutropenia or unspecified leukopenia (21Pe, 365Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-neutropenia/17409_x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-neutropenia/17409
 Logic: all events of neutropenia indexed on diagnosis or lab results with no congenital or genetic neutropenia.</t>
   </si>
   <si>
     <t>[P] Acquired Isolated Neutropenia or unspecified leukopenia (21Pe, 365Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-neutropenia/17409_x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-neutropenia/17409
 Logic: all events of neutropenia indexed on diagnosis or lab results with no congenital or genetic neutropenia, and no other cell lines reduced at the same time.</t>
   </si>
   <si>
-    <t>[P] Isolated Immune Thrombocytopenia (180Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>[P] Isolated Immune Thrombocytopenia (365Pe, 365Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: events of Immune Thrombocytopenia (ITP) with no evidence of congenital or genetic thrombocytopenia, and no simultaneous neutropenia, pancytopenia, bone marrow involvement, anemia. Persons exit after 180 days or when they have normal platelet count.</t>
   </si>
   <si>
     <t>[P] Isolated Immune Thrombocytopenia in absence of common thrombocytopenia causes (180Pe, 365Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: events of Immune Thrombocytopenia (ITP) with no evidence of congenital or genetic thrombocytopenia, and no simultaneous neutropenia, pancytopenia, bone marrow involvement, anemia. Persons exit after 180 days or when they have normal platelet count. Also no evidence of common causes of thrombocytopenia including hypersplenism, antiphospholipid syndrome, paroxysmal noctural hemoglobinuria, hemolytic uremic syndrome, thrombotic microangiopathy, major autoimmune disorders, chronic liver disease, pregnancy HELLP, tumors of hematopoietic cells or nutritional deficiency.</t>
   </si>
   <si>
     <t>[P] Thrombotic microangiopathy (TMA) or Microangiopathic hemolytic anemia (MAHA)</t>
   </si>
   <si>
-    <t xml:space="preserve">Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t xml:space="preserve">Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: earliest events of Immune Thrombotic microangiopathy or microangiopathic hemolytic anemia indexed on the diagnosis or its treatment or investigation. Persons with congenital or genetic thrombocytopenia are excluded. </t>
   </si>
   <si>
-    <t>[P] Rhabdomyolysis (3Pe, 0Era, 180W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>[P] Rhabdomyolysis (3Pe, 90Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: all events of rhabdomyolysis with hospitalization and no recent trauma, burn, drowning, hypothermia, hyperthermia, hyperpyrexia, crush syndrome, sepsis, march myoglobinuria, exertional rhabdomyolysis, or alcohol intoxication.</t>
   </si>
   <si>
     <t>[P] Sudden Cardiac arrest or cardiac death</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: earliest event of cardiac arrest with inpatient or ER visit.</t>
   </si>
   <si>
-    <t>[P] Angioedema (3Pe, 0Era, 180W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>[P] Angioedema (3Pe, 180Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: all events of angioedema, with no recent cardiac edema, cellulitis, erysipelas, dermatitis or eczema, lymphedema or insect bites.</t>
   </si>
   <si>
-    <t>[P] Anaphylaxis Non Environmental exposure related (1Pe, 0Era, 30W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-anaphylaxis/17835_x000D_
+    <t>[P] Anaphylaxis Non Environmental exposure related (1Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-anaphylaxis/17835
 Logic: all events of anaphylaxis that is not due to environmental etiology and no food, substance, insect bite or sting, poisoning as an explanation for anaphylaxis.</t>
   </si>
   <si>
     <t>[P] Stevens-Johnson syndrome, toxic epidermal necrolysis spectrum</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: earliest event of Stevens Johnson syndrome or toxic epidermal necrolysis syndrome in an inpatient or Emergency room setting</t>
   </si>
   <si>
     <t>[P] Posterior reversible encephalopathy syndrome PRES (FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: all events of posterior reversible encephalopathy syndrome with no hypertensive encephalopathy or eclampsia.</t>
   </si>
   <si>
     <t>[P] Long QT Syndrome or QT prolonged (Acquired)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: all events of Long QT or QT prolonged. Exclude persons with congenital QT syndrome.</t>
   </si>
   <si>
-    <t>[P] Drug-induced Lupus (180Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>[P] Drug-induced Lupus (180Pe, 365Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: all events of drug induced lupus with no Systemic Lupus Erythematosus</t>
   </si>
   <si>
-    <t>[P] Drug Rash with Eosinophilia and Systemic Symptoms DRESS (1Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>[P] Drug Rash with Eosinophilia and Systemic Symptoms DRESS (1Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: all events of Drug Rash With Eosinophilia and Systemic Symptoms (DRESS)</t>
   </si>
   <si>
-    <t>[P] Severe Cutaneous Adverse Reaction SCAR (SJS+TEN+DRESS+EM) (3Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>[P] Severe Cutaneous Adverse Reaction SCAR (SJS+TEN+DRESS+EM) (3Pe, 180Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: all events of Drug Rash With Eosinophilia and Systemic Symptoms (DRESS), Erythema Multiforme, Stevens-Johnson Syndrome or Toxic-Epidermal necrolysis.</t>
   </si>
   <si>
-    <t>[P] Severe Cutaneous Adverse Reaction SCAR (SJS+TEN+DRESS) (3Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>[P] Severe Cutaneous Adverse Reaction SCAR (SJS+TEN+DRESS) (3Pe, 180Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: all events of Drug Rash With Eosinophilia and Systemic Symptoms (DRESS), Stevens-Johnson Syndrome or Toxic-Epidermal necrolysis.</t>
   </si>
   <si>
     <t>[P] Progressive multifocal leukoencephalopathy</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: earliest occurrence of progressive multifocal leukoencephalopath.</t>
   </si>
   <si>
-    <t>[P] Autoimmune hepatitis (1Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>[P] Autoimmune hepatitis (365Pe, 365Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: all events of autoimmune hepatitis with no chronic liver diseases that may have similar presentation up to 365days prior such as viral hepatitis, drug induced liver injury, alcoholic liver disease, and no systemic lupus erythematosus in past 365 days</t>
   </si>
   <si>
-    <t>[P] Erythema multiforme (3Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>[P] Erythema multiforme (3Pe, 180Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: all events of erythema multiformae with 365 days washout period</t>
   </si>
   <si>
-    <t>[P] Paresthesia (3Pe, 0Era, 90W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Symptoms_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
-Logic: all events of paresthesia with 365 days washout period</t>
-  </si>
-  <si>
-    <t>[P] Hemorrhagic stroke (1Pe, 0Era, 180W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
-Logic: all events of hemorrhagic stroke during an inpatient or ER visit with 180 days washout period.</t>
-  </si>
-  <si>
-    <t>[P] Appendicitis (1Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>[P] Paresthesia (3Pe, 90Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: all events of paresthesia</t>
+  </si>
+  <si>
+    <t>[P] Hemorrhagic stroke (90Pe, 0Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
+Logic: all events of hemorrhagic stroke during an inpatient or ER visit.</t>
+  </si>
+  <si>
+    <t>[P] Appendicitis (1Pe, 180Era)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: events of appendicitis with an inpatient or ER visit with no events in 365 days clean window. </t>
   </si>
   <si>
     <t>[P] Guillain Barre syndrome (180Pe, FP)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: earliest event of Guillain Barre Syndrome during inpatient or ER stay</t>
   </si>
   <si>
-    <t>[P] Idiopathic Peripheral Neuropathy (1Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>[P] Idiopathic Peripheral Neuropathy (FP)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: first occurrence of idiopathic peripheral neuropathy</t>
   </si>
   <si>
-    <t>[P] Kawasaki disease (1Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
-Logic: events of Kawasaki's disease with no events in prior clean window.</t>
-  </si>
-  <si>
-    <t>[P] Optic Neuritis (7Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>[P] Kawasaki disease (365Pe, 365Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: Pending
+Logic: events of Kawasaki's disease</t>
+  </si>
+  <si>
+    <t>[P] Optic Neuritis (7Pe, 365Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: events of optic neuritis with no events in prior clean window.</t>
   </si>
   <si>
-    <t>[P] Narcolepsy events (1Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A Rao_x000D_
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-narcolepsy/17784_x000D_
+    <t>[P] Narcolepsy events (1Pe, 365Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-narcolepsy/17784
 Logic description: All events of Narcolepsy (includes cataplexy with narcolepsy) with no such events in prior clean window period (365 days). Persons should not be diagnosed with hypersomnia. Persons exit the cohort on end_date + 90 days as persons are assumed to have the condition for at least 90 days.</t>
   </si>
   <si>
-    <t>[P] Muscle weakness or monoplegia (1Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>[P] Muscle weakness or monoplegia (3Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: events of muscle weakness or monoplegia with no events in prior 365 days clean window</t>
   </si>
   <si>
-    <t>[P] Urticaria (1Pe, 0Era, 30W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Symptoms_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
-Logic: events of urticaria with no events in prior clean window of 30 days</t>
-  </si>
-  <si>
-    <t>[P] Tinnitus (1Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Symptoms_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
-Logic: events of tinnitus with no events in prior clean window of 365 days</t>
-  </si>
-  <si>
-    <t>[P] Dizziness (1Pe, 0Era, 180W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-hashTag: #Symptoms_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895_x000D_
-Logic: events of dizziness with no events in prior clean window of 180 days</t>
+    <t>[P] Urticaria (1Pe, 14Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: events of urticaria</t>
+  </si>
+  <si>
+    <t>[P] Tinnitus (1Pe, 180Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: events of tinnitus</t>
+  </si>
+  <si>
+    <t>[P] Dizziness (1Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: events of dizziness</t>
   </si>
   <si>
     <t>[P] Hepatic Thrombosis (90Pe, 0Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: first event of hepatic thrombosis</t>
   </si>
   <si>
     <t>[P] Portal vein thrombosis (90Pe, 0Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: first event of portal vein thrombosis</t>
   </si>
   <si>
     <t>[P] Deep Vein Thrombosis DVT (90Pe, 0Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-transverse-myelitis/17769_x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-transverse-myelitis/17769
 Logic: first event of non obstetric Deep Vein Thrombosis</t>
   </si>
   <si>
     <t>[P] Disseminated intravascular coagulation DIC (1Pe, 0Era, 365W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: events of Disseminated Intravascular Coagulation in an inpatient or ER setting with no events in prior 365 day window</t>
   </si>
   <si>
     <t>[P] Ischemic (Non-hemorrhagic) Stroke (1Pe, 0Era, 365W)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: events of cerebral infarction while in an inpatient or ER setting with no events in prior 365 days window</t>
   </si>
   <si>
-    <t>[P] Acute pancreatitis (7Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-acute-pancreatitis-and-drug-induced-acute-pancreatitis/17848_x000D_
+    <t>[P] Acute pancreatitis (7Pe, 180Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-acute-pancreatitis-and-drug-induced-acute-pancreatitis/17848
 Logic: events of acute pancreatitis in an inpatient or emergency setting with no events in prior washout window of 365 days, and no history of chronic pancreatitis or hereditary or congenital pancreatitis.</t>
   </si>
   <si>
-    <t>[P] Drug Induced Acute pancreatitis (7Pe, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-acute-pancreatitis-and-drug-induced-acute-pancreatitis/17848_x000D_
+    <t>[P] Drug Induced Acute pancreatitis (7Pe, 180Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-acute-pancreatitis-and-drug-induced-acute-pancreatitis/17848
 Logic: events of acute pancreatitis in an inpatient or emergency setting with no events in prior washout window of 365 days, and no history of chronic pancreatitis or hereditary or congenital pancreatitis. Events with other explanations for acute pancreatitis such as alcoholic pancreatitis, severe alcoholism, recent alcohol intoxication, cholangitis or cholecystitits, biliary tract disease, endoscopic retrograde cholangiopancreatography, intestinal ischemia or obstruction or not eligible.</t>
   </si>
   <si>
     <t>[P] Drug Resistant Epilepsy</t>
   </si>
   <si>
-    <t xml:space="preserve">Status: Pending peer review. _x000D_
-Contributor: Mathew Spotnitz;_x000D_
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-drug-resistant-epilepsy/17569_x000D_
-Logic: first occurrence of epilepsy in inpatient, of subsequent epilepsy in an outpatient setting after another outpatient epilepsy visit more than 30 days before, or anti-epileptic drug on or after a diagnosis of epilepsy. Limit to persons with at least two different anti epilepsy drug or diagnosis of intractable epilepsy on or after index date._x000D_
+    <t xml:space="preserve">Status: Pending peer review. 
+Contributor: Mathew Spotnitz;
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-drug-resistant-epilepsy/17569
+Logic: first occurrence of epilepsy in inpatient, of subsequent epilepsy in an outpatient setting after another outpatient epilepsy visit more than 30 days before, or anti-epileptic drug on or after a diagnosis of epilepsy. Limit to persons with at least two different anti epilepsy drug or diagnosis of intractable epilepsy on or after index date.
 </t>
   </si>
   <si>
     <t>[P] Alzheimer's disease (based on Imfeld, 2013)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: _x000D_
-Forum post: _x000D_
+    <t>Status: Pending peer review.
+Contributor: 
+Forum post: 
 Logic: this is an approximation of algorithm published by Imfeld et.al 2013.</t>
   </si>
   <si>
-    <t>[P] Facial Palsy lower motor neuron including Bells Palsy (180Pe, 0Era, 183W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-facial-palsy-lmn-including-bells-palsy-thats-not-umn/17788_x000D_
+    <t>[P] Facial Palsy lower motor neuron including Bells Palsy (180Pe, 180Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-facial-palsy-lmn-including-bells-palsy-thats-not-umn/17788
 Logic: events of facial palsy with 183 days washout period. Remove persons with congenital facial palsy. Remove events with upper motor neuron disease suggestive of stroke.</t>
   </si>
   <si>
     <t>[P] Emergency room visits or code (0Pe, 0Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A Rao_x000D_
-Forum: _x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A Rao
+Forum: 
 Logic: All events of Emergency Room visits or code</t>
   </si>
   <si>
-    <t>[P] Anaphylaxis or Anaphylactic shock events (1Pe, 0Era, 30W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Erica Voss_x000D_
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-24-anaphylaxis/16033_x000D_
+    <t>[P] Anaphylaxis or Anaphylactic shock events (1Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Erica Voss
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-24-anaphylaxis/16033
 Logic: all events of anaphylaxis or anaphylaxis shock due to serum with no events in prior clean window.</t>
   </si>
   <si>
-    <t>[P] Anaphylaxis all cause (1Pe, 0Era, 30W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>[P] Anaphylaxis all cause (1Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: all events of anaphylaxis including due to vaccine exposure</t>
   </si>
   <si>
     <t>[P] ST elevated myocardial infarction with inpatient admission (7Pe, 180Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900_x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900
 Logic: all events of ST segment acute myocardial infarction in an inpatient or ER visit.</t>
   </si>
   <si>
     <t>[P] Non ST elevated myocardial infarction with inpatient admission (7Pe, 180Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900_x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900
 Logic: all events of Non ST segment acute myocardial infarction in an inpatient or ER visit.</t>
   </si>
   <si>
     <t>[P] Unstable Angina with inpatient admission (7Pe, 180Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900_x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900
 Logic: all events of Unstable Angina in an inpatient or ER visit.</t>
   </si>
   <si>
     <t>[P] Unstable Angina OR NSTEMI with inpatient admission (7Pe, 180Era)</t>
   </si>
   <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900_x000D_
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-15-acute-myocardial-infarction-stemi-nstemi-ua-chronic-angina/15900
 Logic: all events of Unstable Angina or NSTEMI in an inpatient or ER visit.</t>
   </si>
   <si>
-    <t>[P] Acute Hepatic Failure in persons with liver disease (90Pe, 180W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
-Logic: First occurrence of Hepatic Failure. Persons should have prior liver disease.</t>
-  </si>
-  <si>
-    <t>[P] Drug Induced Acute Hepatic Failure (90Pe, 180W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>[P] Acute Hepatic Failure in persons with liver disease (365Pe, 365Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
+Logic: Events of Hepatic Failure. Persons should have prior liver disease.</t>
+  </si>
+  <si>
+    <t>[P] Drug Induced Acute Hepatic Failure (365Pe, 365Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: first occurrence of Hepatic Failure and no other liver problems in past.</t>
   </si>
   <si>
-    <t>[P] Acute Kidney Injury AKI, in persons with chronic kidney disease (7Pe, 30W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>[P] Acute Kidney Injury AKI, in persons with chronic kidney disease (7Pe, 7Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: all events of Acute Kidney Injury with washout period of 30 days. Persons should have chronic kidney disease that is is not ESKD, and should be not on chronic dialysis or had kidney transplant. Acute Kidney Injury (AKI) indexed on a diagnosis of Acute kidney injury  or a Dialysis procedure at a medicare certified esrd facility for acute kidney injury without esrd, excluding events/patients with 1. a diagnosis of End-Stage Kidney Disease in the 365 days before AKI occurrence 2. patients receiving chronic dialysis defined as more than 3 recorded events of dialysis in 365 days before AKI occurrence 3.  kidney Transplant any time prior; applying a washout period of 30 days between observed events. patients exit the cohort 7 days post index.</t>
   </si>
   <si>
-    <t>[P] Acute Kidney Injury AKI, in persons with NO chronic kidney disease (7Pe, 30W)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>[P] Acute Kidney Injury AKI, in persons with NO chronic kidney disease (7Pe, 7Era)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: all events of Acute Kidney Injury with washout period of 30 days. Persons should have chronic kidney disease that is is not ESKD, and should be not on chronic dialysis or had kidney transplant. Acute Kidney Injury (AKI) indexed on a diagnosis of Acute kidney injury  or a Dialysis procedure at a medicare certified esrd facility for acute kidney injury without esrd, excluding events/patients with 1. a diagnosis of End-Stage Kidney Disease in the 365 days before AKI occurrence 2. patients receiving chronic dialysis defined as more than 3 recorded events of dialysis in 365 days before AKI occurrence 3.  kidney Transplant any time prior ; applying a washout period of 30 days between observed events. patients exit the cohort 7 days post index.  </t>
   </si>
   <si>
     <t>Acute Kidney Injury AKI (7Pe, 30W)</t>
   </si>
   <si>
-    <t xml:space="preserve">Status: #Accepted_x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-29-acute-kidney-injury/16067_x000D_
+    <t xml:space="preserve">Status: #Accepted
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-29-acute-kidney-injury/16067
 Logic: Acute Kidney Injury (AKI) indexed on a diagnosis of Acute kidney injury  or a Dialysis procedure at a medicare certified esrd facility for acute kidney injury without esrd, excluding events/patients with 1. a diagnosis of End-Stage Kidney Disease in the 365 days before AKI occurrence 2. patients receiving chronic dialysis defined as more than 3 recorded events of dialysis in 365 days before AKI occurrence 3.  kidney Transplant any time prior ; applying a washout period of 30 days between observed events. patients exit the cohort 7 days post index.  </t>
   </si>
   <si>
-    <t>[P] Hemolytic Anemia (7Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: https://forums.ohdsi.org/t/phenotype-submission-hemolytic-anemia/17856_x000D_
+    <t>[P] Hemolytic Anemia (7Pe, 180Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-hemolytic-anemia/17856
 Logic: all events of hemolytic anemia, indexed on anemia or hemolysis.</t>
   </si>
   <si>
     <t>[P] Hemolytic Anemia Intra corpuscular (FP)</t>
   </si>
   <si>
-    <t>[P] Sudden Vision Loss (1Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>Status: Pending peer review._x000D_
-Contributor: Gowtham A. Rao_x000D_
-Forum post: _x000D_
+    <t>[P] Sudden Vision Loss (90Pe, 365Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+Contributor: Gowtham A. Rao
+Forum post: 
 Logic: all events of Sudden Vision Loss without eye pathology</t>
   </si>
   <si>
-    <t>[P] Sudden Hearing Loss (1Pe, 0Era, 365W)</t>
-  </si>
-  <si>
-    <t>3.5.0</t>
+    <t>[P] Sudden Hearing Loss (30Pe, 365Era)</t>
+  </si>
+  <si>
+    <t>[P] Pain that is Non Chronic, Non Generalized (3Pe, 7Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: all events of non chronic non generalized or diffuse pain</t>
+  </si>
+  <si>
+    <t>[P] Low Back Pain (30Pe, 180Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: all events of low back pain</t>
+  </si>
+  <si>
+    <t>[P] Abdominal Pain (3Pe, 7Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: all events of abdominal pain</t>
+  </si>
+  <si>
+    <t>[P] Epigastric Pain (3Pe, 7Era)</t>
+  </si>
+  <si>
+    <t>[P] Joint Pain (3Pe, 30Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: all events of joint pain</t>
+  </si>
+  <si>
+    <t>[P] Prostatitis (180Pe, 365Era)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status: Pending
+hashTag: #Submitted
+Reviewer: 
+Contributor: Gowtham A. Rao
+Forum post: 
+Logic: All events of prostatits that is either a first occurrence of chronic prostatitis, or did not have an event of prostatitis in past 1 year, with no testicular lesions, bladder neoplasm or abdominal or inguinal hernia in prior 1 year. cohort end 180 days post cohort end date, </t>
+  </si>
+  <si>
+    <t>[P] Myocarditis or Pericarditis (30Pe, 90Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending
+hashTag: #Submitted
+Reviewer: 
+Contributor: Gowtham A. Rao
+Forum post: 
+Logic: All events of Myocarditis or Pericarditis</t>
+  </si>
+  <si>
+    <t>[P] Myocarditis or Pericarditis Not due to infections (30Pe, 90Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending
+hashTag: #Submitted
+Reviewer: 
+Contributor: Gowtham A. Rao
+Forum post: 
+Logic: All events of Myocarditis or Pericarditis without events that are due to Infectious Etiology</t>
+  </si>
+  <si>
+    <t>[P] Transverse myelitis includes Myelitis Unspecified and neuromyelitis optica (90Pe, 365Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending
+hashTag: #Sensitivity
+Reviewer: Evan Minty
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-transverse-myelitis/17769
+Logic: events with a diagnosis of transverse myelitis indexed on diagnosis of transverse myelitis, OR related spinal disease or symptoms of transverse myelitis, followed by a diagnosis of transverse myelitis within 30 days OR events of myelitis unspecified with weakness or asthenia, neuromyelitis optica with weakness or asthenia. Symptoms of Transverse Myelitis included asthenia, muscle weakness, myelitis, paresthesia.</t>
+  </si>
+  <si>
+    <t>[P] Type 2 Diabetes Mellitus indexed on diagnosis, treatment or lab results (FP)</t>
+  </si>
+  <si>
+    <t>Status: Pending
+hashTag: #Disease
+Reviewer: None
+Contributor: Patrick Ryan, Jill Hardin
+Forum post: https://forums.ohdsi.org/t/phenotype-phebruary-day-1-type-2-diabetes-mellitus/15764
+Logic: Earliest event of Type 2 Diabetes Mellitus (DM), indexed on diagnosis or Blood glucose lowering drugs excluding insulin or high Hemoglobin A1c (limited to treatments or measurement that are followed with Type 2 DM diagnosis within 365 days); excluding persons with Type 1 DM or secondary diabetes mellitus in the all time prior including index date</t>
+  </si>
+  <si>
+    <t>[P] Presence Of Cardiac Arrhythmia (3Pe, 60Era)</t>
+  </si>
+  <si>
+    <t>[P] Thyroiditis indexed on diagnosis or treatment without (FP)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Disease
+Contributor: Gowtham A. Rao
+Forum: pending
+Logic: Status: Pending peer review.
+hashTag: #Symptoms
+Contributor: Gowtham A. Rao
+Forum: https://forums.ohdsi.org/t/phenotype-submission-symptoms-and-signs/17895
+Logic: All events of thyroiditis, indexed on an occurrence of Thyroiditis (including hypo and hyperthyroidism) condition or exposure to levothyroxine  (limited to drug exposure that occurred within 365 days prior to an occurrence of Thyroiditis condition). Limited to events that had zero condition occurrence of Hypothyroidism other than Hashimoto's Disease (ie excluding alternative causes of hypothyroidism) all time prior and including index. Persons exit the cohort at the end of observation period.  </t>
+  </si>
+  <si>
+    <t>[P] Gynecomastia, indexed on diagnosis, procedure or symptoms (FP)</t>
+  </si>
+  <si>
+    <t>Status: Pending
+hashTag: #Submitted
+Reviewer: None
+Contributor: Gowtham A. Rao
+Forum post: None
+Logic: All events of Gynecomastia diagnosis, indexed on a diagnosis of Gynecomastia or a procedure of Mastectomy for gynecomastia or a presentation/symptoms of Gynecomastia (breast lump or pain). Events indexed on a procedures or symptoms are required to be followed by a diagnosis within a year. restricting to male.</t>
+  </si>
+  <si>
+    <t>[P] Hepatic Failure (365Pe, 365Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Disease
+Contributor: Gowtham A. Rao
+Forum: Pending
+Logic: all events of acute hepatic failure. no chronic hepatic failure.</t>
+  </si>
+  <si>
+    <t>[P] Acute Hepatic Injury with no chronic hepatic failure (180Pe, 180Era)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status: #Pending
+Contributor: Gowtham A. Rao
+Forum post: Pending
+Logic: All events of Acute Liver Injury, indexed on the diagnosis of Acute Liver Injury, with no chronic hepatic failure. </t>
+  </si>
+  <si>
+    <t>[P] Acute Hepatic Injury with no pre-existing liver disease (180Pe, 180Era)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status: #Pending
+Contributor: Gowtham A. Rao
+Forum post: Pending
+Logic: Earliest event of Acute Liver Injury, indexed on the diagnosis of Acute Liver Injury. Patients are excluded if they have a diagnosis of chronic hepatic failure any time in the past or on the same day. Also excluded patients who have other prior liver disease such as viral hepatitis, Liver Cirrhosis, liver fibrosis, alcoholic and others anytime prior including index. </t>
+  </si>
+  <si>
+    <t>[P] Acute Hepatic Failure in persons with no pre-existing liver disease (365Pe, 365Era)</t>
+  </si>
+  <si>
+    <t>Status: Pending peer review.
+hashTag: #Submitted
+Contributor: Gowtham A. Rao
+Forum post: pending
+Logic: Event of hepatic Failure, indexed on the diagnosis of Hepatic Failure. Patients are excluded if they have a diagnosis of chronic hepatic failure any time in the past or on the same day. Also excluded patients who have other prior liver disease such as viral hepatitis, Liver Cirrhosis, liver fibrosis, alcoholic and others anytime prior including index.</t>
+  </si>
+  <si>
+    <t>Transverse myelitis or symptoms indexed on symptoms or diagnosis (180Pe, 180Era)</t>
+  </si>
+  <si>
+    <t>Status: Accepted
+hashTag: #Accepted, #Level2
+Reviewer: Evan Minty
+Contributor: Gowtham A. Rao
+Forum post: https://forums.ohdsi.org/t/phenotype-submission-transverse-myelitis/17769
+Logic: events with a diagnosis of transverse myelitis indexed on diagnosis of transverse myelitis, related spinal disease or symptoms of transverse myelitis, followed by a diagnosis of transverse myelitis within 30 days. Symptoms of Transverse Myelitis included asthenia, muscle weakness, myelitis, paresthesia.</t>
+  </si>
+  <si>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>3.7.0</t>
+  </si>
+  <si>
+    <t>3.9.0</t>
   </si>
   <si>
     <t>3.8.0</t>
@@ -2150,13 +2338,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J164"/>
+  <dimension ref="A1:J183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="D181" sqref="D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2561,7 +2753,7 @@
         <v>44462</v>
       </c>
       <c r="E23" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>51</v>
@@ -2581,7 +2773,7 @@
         <v>44462</v>
       </c>
       <c r="E24" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>53</v>
@@ -2601,7 +2793,7 @@
         <v>44462</v>
       </c>
       <c r="E25" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>55</v>
@@ -3216,7 +3408,7 @@
         <v>44474</v>
       </c>
       <c r="E61" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="J61" s="2" t="s">
         <v>113</v>
@@ -3683,7 +3875,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="B89" t="s">
         <v>159</v>
@@ -3692,7 +3884,7 @@
         <v>11</v>
       </c>
       <c r="D89" s="1">
-        <v>44741</v>
+        <v>44605</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>160</v>
@@ -3700,7 +3892,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B90" t="s">
         <v>161</v>
@@ -3717,7 +3909,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B91" t="s">
         <v>163</v>
@@ -3734,7 +3926,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B92" t="s">
         <v>165</v>
@@ -3751,7 +3943,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B93" t="s">
         <v>167</v>
@@ -3768,7 +3960,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B94" t="s">
         <v>169</v>
@@ -3777,7 +3969,7 @@
         <v>11</v>
       </c>
       <c r="D94" s="1">
-        <v>44742</v>
+        <v>44741</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>170</v>
@@ -3785,61 +3977,61 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B95" t="s">
         <v>171</v>
       </c>
       <c r="C95" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D95" s="1">
         <v>44742</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J95" s="2" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B96" t="s">
         <v>173</v>
       </c>
       <c r="C96" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D96" s="1">
         <v>44742</v>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="J96" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B97" t="s">
         <v>175</v>
       </c>
       <c r="C97" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D97" s="1">
         <v>44742</v>
       </c>
-      <c r="J97" t="s">
-        <v>172</v>
+      <c r="J97" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B98" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C98" t="s">
         <v>50</v>
@@ -3848,15 +4040,15 @@
         <v>44742</v>
       </c>
       <c r="J98" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C99" t="s">
         <v>50</v>
@@ -3865,15 +4057,15 @@
         <v>44742</v>
       </c>
       <c r="J99" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B100" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C100" t="s">
         <v>50</v>
@@ -3882,29 +4074,29 @@
         <v>44742</v>
       </c>
       <c r="J100" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B101" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C101" t="s">
         <v>50</v>
       </c>
       <c r="D101" s="1">
-        <v>44875</v>
+        <v>44742</v>
       </c>
       <c r="J101" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B102" t="s">
         <v>181</v>
@@ -3916,29 +4108,29 @@
         <v>44875</v>
       </c>
       <c r="J102" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B103" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C103" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D103" s="1">
         <v>44875</v>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>183</v>
+      <c r="J103" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B104" t="s">
         <v>184</v>
@@ -3955,7 +4147,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B105" t="s">
         <v>186</v>
@@ -3964,7 +4156,7 @@
         <v>11</v>
       </c>
       <c r="D105" s="1">
-        <v>44876</v>
+        <v>44875</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>187</v>
@@ -3972,7 +4164,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B106" t="s">
         <v>188</v>
@@ -3989,7 +4181,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B107" t="s">
         <v>190</v>
@@ -4006,7 +4198,7 @@
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B108" t="s">
         <v>192</v>
@@ -4023,7 +4215,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B109" t="s">
         <v>194</v>
@@ -4040,7 +4232,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B110" t="s">
         <v>196</v>
@@ -4057,7 +4249,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B111" t="s">
         <v>198</v>
@@ -4074,7 +4266,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B112" t="s">
         <v>200</v>
@@ -4091,7 +4283,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B113" t="s">
         <v>202</v>
@@ -4108,7 +4300,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B114" t="s">
         <v>204</v>
@@ -4125,7 +4317,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B115" t="s">
         <v>206</v>
@@ -4142,7 +4334,7 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B116" t="s">
         <v>208</v>
@@ -4159,7 +4351,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B117" t="s">
         <v>210</v>
@@ -4176,7 +4368,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B118" t="s">
         <v>212</v>
@@ -4185,7 +4377,7 @@
         <v>11</v>
       </c>
       <c r="D118" s="1">
-        <v>44877</v>
+        <v>44876</v>
       </c>
       <c r="J118" s="2" t="s">
         <v>213</v>
@@ -4193,7 +4385,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B119" t="s">
         <v>214</v>
@@ -4210,7 +4402,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B120" t="s">
         <v>216</v>
@@ -4227,7 +4419,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B121" t="s">
         <v>218</v>
@@ -4244,7 +4436,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B122" t="s">
         <v>220</v>
@@ -4261,7 +4453,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B123" t="s">
         <v>222</v>
@@ -4278,7 +4470,7 @@
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B124" t="s">
         <v>224</v>
@@ -4295,7 +4487,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B125" t="s">
         <v>226</v>
@@ -4312,7 +4504,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B126" t="s">
         <v>228</v>
@@ -4329,7 +4521,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B127" t="s">
         <v>230</v>
@@ -4346,7 +4538,7 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B128" t="s">
         <v>232</v>
@@ -4363,7 +4555,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B129" t="s">
         <v>234</v>
@@ -4380,7 +4572,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B130" t="s">
         <v>236</v>
@@ -4397,7 +4589,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B131" t="s">
         <v>238</v>
@@ -4414,7 +4606,7 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B132" t="s">
         <v>240</v>
@@ -4431,7 +4623,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B133" t="s">
         <v>242</v>
@@ -4448,7 +4640,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B134" t="s">
         <v>244</v>
@@ -4465,7 +4657,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B135" t="s">
         <v>246</v>
@@ -4482,7 +4674,7 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B136" t="s">
         <v>248</v>
@@ -4499,7 +4691,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B137" t="s">
         <v>250</v>
@@ -4516,7 +4708,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B138" t="s">
         <v>252</v>
@@ -4533,7 +4725,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B139" t="s">
         <v>254</v>
@@ -4550,7 +4742,7 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B140" t="s">
         <v>256</v>
@@ -4567,7 +4759,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B141" t="s">
         <v>258</v>
@@ -4584,7 +4776,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B142" t="s">
         <v>260</v>
@@ -4601,7 +4793,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B143" t="s">
         <v>262</v>
@@ -4618,7 +4810,7 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B144" t="s">
         <v>264</v>
@@ -4627,7 +4819,7 @@
         <v>11</v>
       </c>
       <c r="D144" s="1">
-        <v>44880</v>
+        <v>44877</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>265</v>
@@ -4635,7 +4827,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B145" t="s">
         <v>266</v>
@@ -4652,7 +4844,7 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B146" t="s">
         <v>268</v>
@@ -4661,7 +4853,7 @@
         <v>11</v>
       </c>
       <c r="D146" s="1">
-        <v>44882</v>
+        <v>44880</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>269</v>
@@ -4669,7 +4861,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B147" t="s">
         <v>270</v>
@@ -4678,7 +4870,7 @@
         <v>11</v>
       </c>
       <c r="D147" s="1">
-        <v>44883</v>
+        <v>44882</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>271</v>
@@ -4686,7 +4878,7 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B148" t="s">
         <v>272</v>
@@ -4695,7 +4887,7 @@
         <v>11</v>
       </c>
       <c r="D148" s="1">
-        <v>44887</v>
+        <v>44883</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>273</v>
@@ -4703,7 +4895,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B149" t="s">
         <v>274</v>
@@ -4720,7 +4912,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B150" t="s">
         <v>276</v>
@@ -4729,7 +4921,7 @@
         <v>11</v>
       </c>
       <c r="D150" s="1">
-        <v>44893</v>
+        <v>44887</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>277</v>
@@ -4737,7 +4929,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B151" t="s">
         <v>278</v>
@@ -4754,7 +4946,7 @@
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B152" t="s">
         <v>280</v>
@@ -4763,7 +4955,7 @@
         <v>11</v>
       </c>
       <c r="D152" s="1">
-        <v>44894</v>
+        <v>44893</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>281</v>
@@ -4771,7 +4963,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B153" t="s">
         <v>282</v>
@@ -4788,7 +4980,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B154" t="s">
         <v>284</v>
@@ -4805,7 +4997,7 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B155" t="s">
         <v>286</v>
@@ -4822,7 +5014,7 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B156" t="s">
         <v>288</v>
@@ -4839,7 +5031,7 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B157" t="s">
         <v>290</v>
@@ -4856,7 +5048,7 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B158" t="s">
         <v>292</v>
@@ -4873,7 +5065,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B159" t="s">
         <v>294</v>
@@ -4890,36 +5082,36 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B160" t="s">
         <v>296</v>
       </c>
       <c r="C160" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D160" s="1">
         <v>44894</v>
       </c>
-      <c r="E160" t="s">
-        <v>306</v>
-      </c>
       <c r="J160" s="2" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B161" t="s">
         <v>298</v>
       </c>
       <c r="C161" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D161" s="1">
-        <v>44895</v>
+        <v>44894</v>
+      </c>
+      <c r="E161" t="s">
+        <v>343</v>
       </c>
       <c r="J161" s="2" t="s">
         <v>299</v>
@@ -4927,7 +5119,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B162" t="s">
         <v>300</v>
@@ -4939,29 +5131,29 @@
         <v>44895</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>187</v>
+        <v>301</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B163" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C163" t="s">
         <v>11</v>
       </c>
       <c r="D163" s="1">
-        <v>44903</v>
+        <v>44895</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>302</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B164" t="s">
         <v>303</v>
@@ -4973,11 +5165,334 @@
         <v>44903</v>
       </c>
       <c r="J164" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>277</v>
+      </c>
+      <c r="B165" t="s">
+        <v>305</v>
+      </c>
+      <c r="C165" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" s="1">
+        <v>44903</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>278</v>
+      </c>
+      <c r="B166" t="s">
+        <v>306</v>
+      </c>
+      <c r="C166" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" s="1">
+        <v>44930</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>279</v>
+      </c>
+      <c r="B167" t="s">
+        <v>308</v>
+      </c>
+      <c r="C167" t="s">
+        <v>11</v>
+      </c>
+      <c r="D167" s="1">
+        <v>44930</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>280</v>
+      </c>
+      <c r="B168" t="s">
+        <v>310</v>
+      </c>
+      <c r="C168" t="s">
+        <v>11</v>
+      </c>
+      <c r="D168" s="1">
+        <v>44930</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>281</v>
+      </c>
+      <c r="B169" t="s">
+        <v>312</v>
+      </c>
+      <c r="C169" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" s="1">
+        <v>44930</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>282</v>
+      </c>
+      <c r="B170" t="s">
+        <v>313</v>
+      </c>
+      <c r="C170" t="s">
+        <v>11</v>
+      </c>
+      <c r="D170" s="1">
+        <v>44930</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>283</v>
+      </c>
+      <c r="B171" t="s">
+        <v>315</v>
+      </c>
+      <c r="C171" t="s">
+        <v>11</v>
+      </c>
+      <c r="D171" s="1">
+        <v>44939</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>284</v>
+      </c>
+      <c r="B172" t="s">
+        <v>317</v>
+      </c>
+      <c r="C172" t="s">
+        <v>11</v>
+      </c>
+      <c r="D172" s="1">
+        <v>44940</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>285</v>
+      </c>
+      <c r="B173" t="s">
+        <v>319</v>
+      </c>
+      <c r="C173" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" s="1">
+        <v>44940</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>287</v>
+      </c>
+      <c r="B174" t="s">
+        <v>321</v>
+      </c>
+      <c r="C174" t="s">
+        <v>11</v>
+      </c>
+      <c r="D174" s="1">
+        <v>44943</v>
+      </c>
+      <c r="J174" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>288</v>
+      </c>
+      <c r="B175" t="s">
+        <v>323</v>
+      </c>
+      <c r="C175" t="s">
+        <v>11</v>
+      </c>
+      <c r="D175" s="1">
+        <v>44951</v>
+      </c>
+      <c r="J175" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>289</v>
+      </c>
+      <c r="B176" t="s">
+        <v>325</v>
+      </c>
+      <c r="C176" t="s">
+        <v>11</v>
+      </c>
+      <c r="D176" s="1">
+        <v>44952</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>290</v>
+      </c>
+      <c r="B177" t="s">
+        <v>326</v>
+      </c>
+      <c r="C177" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" s="1">
+        <v>44952</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>291</v>
+      </c>
+      <c r="B178" t="s">
+        <v>328</v>
+      </c>
+      <c r="C178" t="s">
+        <v>11</v>
+      </c>
+      <c r="D178" s="1">
+        <v>44952</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>292</v>
+      </c>
+      <c r="B179" t="s">
+        <v>330</v>
+      </c>
+      <c r="C179" t="s">
+        <v>11</v>
+      </c>
+      <c r="D179" s="1">
+        <v>44952</v>
+      </c>
+      <c r="J179" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>293</v>
+      </c>
+      <c r="B180" t="s">
+        <v>332</v>
+      </c>
+      <c r="C180" t="s">
+        <v>11</v>
+      </c>
+      <c r="D180" s="1">
+        <v>44952</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>294</v>
+      </c>
+      <c r="B181" t="s">
+        <v>334</v>
+      </c>
+      <c r="C181" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" s="1">
+        <v>44952</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>295</v>
+      </c>
+      <c r="B182" t="s">
+        <v>336</v>
+      </c>
+      <c r="C182" t="s">
+        <v>11</v>
+      </c>
+      <c r="D182" s="1">
+        <v>44952</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>296</v>
+      </c>
+      <c r="B183" t="s">
+        <v>338</v>
+      </c>
+      <c r="C183" t="s">
+        <v>50</v>
+      </c>
+      <c r="D183" s="1">
+        <v>44952</v>
+      </c>
+      <c r="E183" t="s">
+        <v>342</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J164"/>
+  <autoFilter ref="A1:J183"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>